--- a/outputs/V3 Benchmark Results.xlsx
+++ b/outputs/V3 Benchmark Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samlo\Desktop\Thesis\thesis-code\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBF9015-FC63-4252-BDC4-BE6F452350A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750462CB-46F1-45CE-AE8B-E1A973DEDC89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Time</t>
   </si>
@@ -68,6 +68,9 @@
   <si>
     <t>Best Black Box (LSTM)</t>
   </si>
+  <si>
+    <t>End2End v4.1</t>
+  </si>
 </sst>
 </file>
 
@@ -75,7 +78,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -120,10 +123,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,7 +628,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-C0BC-47B9-AF92-31F416502495}"/>
+              <c16:uniqueId val="{00000003-FCA3-4B26-AA4C-C10C985D8AD5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -844,6 +847,7 @@
                   <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -1033,12 +1037,430 @@
                   <c:v>3.7325443362713269E-2</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FCA3-4B26-AA4C-C10C985D8AD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>End2End v4.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$4:$Q$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>4.7474409123637717E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0530658376194979E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6740143851455784E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9178303843597018E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7253748934132012E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3558435604529097E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0524484177986466E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0980241059532421E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5234354456336353E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5911602389796258E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7681276100775786E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7853324436522627E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9791903480189225E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0121364571603191E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2110125497500761E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2366402342980013E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4756959660510558E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4772348478561256E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6635998581376746E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6510789256380483E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7507612839627178E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7938525883709299E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8088861665529461E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8740057590507889E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9280432111481625E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9165031675378639E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0603657387655029E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0853633616491759E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3067705412172015E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3003635952102463E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5078569193074574E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.5845596512918944E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.7556148729643822E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.7179197730276906E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.9680502367639321E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.993479868644792E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.1989167860636799E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.176123513517465E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.2842529977521346E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3535833438278854E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.4852975042522926E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.5515415449659105E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.8668775865294861E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.9090131002704963E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.0218838299171592E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.0517984454281906E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.1520109779181839E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.1688372879820955E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.2456408875725953E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.2070478034338459E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.1899228271494395E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1860197924064343E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.1004151663079589E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.1236611487045954E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.1758921257395528E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.1976644337524115E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.3947226422581256E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.529439642612724E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8382930718604918E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9374950154708749E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2744-4ED5-B4A6-B65EE1D6CC0A}"/>
+              <c16:uniqueId val="{00000009-FCA3-4B26-AA4C-C10C985D8AD5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1476,7 +1898,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-C0BC-47B9-AF92-31F416502495}"/>
+                    <c16:uniqueId val="{00000000-FCA3-4B26-AA4C-C10C985D8AD5}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1512,7 +1934,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$4:$B$63</c15:sqref>
@@ -1707,7 +2129,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$4:$F$63</c15:sqref>
@@ -1901,9 +2323,9 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-C0BC-47B9-AF92-31F416502495}"/>
+                    <c16:uniqueId val="{00000001-FCA3-4B26-AA4C-C10C985D8AD5}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1939,7 +2361,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$4:$B$63</c15:sqref>
@@ -2134,7 +2556,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$4:$H$63</c15:sqref>
@@ -2328,9 +2750,9 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000015-C0BC-47B9-AF92-31F416502495}"/>
+                    <c16:uniqueId val="{00000002-FCA3-4B26-AA4C-C10C985D8AD5}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2366,7 +2788,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$4:$B$63</c15:sqref>
@@ -2561,7 +2983,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$4:$L$63</c15:sqref>
@@ -2755,9 +3177,9 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000004E-C0BC-47B9-AF92-31F416502495}"/>
+                    <c16:uniqueId val="{00000004-FCA3-4B26-AA4C-C10C985D8AD5}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2797,7 +3219,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$4:$B$63</c15:sqref>
@@ -2992,10 +3414,10 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$R$4:$R$63</c15:sqref>
+                          <c15:sqref>Sheet1!$T$4:$T$63</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3186,9 +3608,9 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-5DC8-4390-A7F8-AC91C763364B}"/>
+                    <c16:uniqueId val="{00000006-FCA3-4B26-AA4C-C10C985D8AD5}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3228,7 +3650,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$4:$B$63</c15:sqref>
@@ -3423,10 +3845,10 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$T$4:$T$63</c15:sqref>
+                          <c15:sqref>Sheet1!$V$4:$V$63</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3617,9 +4039,9 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-5DC8-4390-A7F8-AC91C763364B}"/>
+                    <c16:uniqueId val="{00000007-FCA3-4B26-AA4C-C10C985D8AD5}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3905,7 +4327,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10802461167763866"/>
+          <c:y val="0.14545093547909974"/>
+          <c:w val="0.67776314845890162"/>
+          <c:h val="0.76357549372379385"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -4318,7 +4750,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-44E9-409D-B2F3-E153D2FA8C6A}"/>
+              <c16:uniqueId val="{00000003-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4537,6 +4969,7 @@
                   <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -4726,12 +5159,430 @@
                   <c:v>4.0901277324873836E-2</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>End2End v4.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>2.5613805046170559E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6041779773114501E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.40040008673888E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4309546519926755E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.666361451839812E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6924833677750082E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0582107950011929E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0874122830483338E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6466757558791208E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6402800750476244E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8714324107588108E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9072555432128064E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4387195773841004E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5172871340113715E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.4889588158766166E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5202167677298611E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.4366032471251406E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.4746572616829175E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9093343892974758E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0011549584850585E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9826800409691931E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2088865567442612E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.5114391254159519E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.6618197679286324E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.3639824474403546E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5757715652189752E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.4324673764945984E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.6706970074229475E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.3125339079996369E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.5988483643667192E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0257068140816984E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0471064490932136E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0971256975325973E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.114176031522273E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1558374832117985E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1780183248657563E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.227913569700511E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2653088404954308E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.3809663719739991E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4118209044076641E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4851793425527825E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5092284456958965E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7014365979382506E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7293404483506636E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9421988759005204E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9558962798543311E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0955655947199569E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1096633712642424E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.2128027474583853E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2077745385363095E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.2937955360927621E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.2996836585453623E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.506321576407158E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.5077229650665743E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.7275300357309365E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.7321248485701562E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0365860271222383E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.0506371777700388E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.3699067065505371E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.3132345418758521E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5467-4871-B68C-B28A09FA54F4}"/>
+              <c16:uniqueId val="{00000009-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5169,7 +6020,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-44E9-409D-B2F3-E153D2FA8C6A}"/>
+                    <c16:uniqueId val="{00000000-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -5205,7 +6056,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$4:$B$63</c15:sqref>
@@ -5400,7 +6251,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$4:$E$63</c15:sqref>
@@ -5594,9 +6445,9 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-44E9-409D-B2F3-E153D2FA8C6A}"/>
+                    <c16:uniqueId val="{00000001-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -5632,7 +6483,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$4:$B$63</c15:sqref>
@@ -5827,7 +6678,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$4:$G$63</c15:sqref>
@@ -6021,9 +6872,9 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-44E9-409D-B2F3-E153D2FA8C6A}"/>
+                    <c16:uniqueId val="{00000002-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -6059,7 +6910,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$4:$B$63</c15:sqref>
@@ -6254,7 +7105,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$4:$K$63</c15:sqref>
@@ -6448,9 +7299,9 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000003C-44E9-409D-B2F3-E153D2FA8C6A}"/>
+                    <c16:uniqueId val="{00000004-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -6490,7 +7341,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$4:$B$63</c15:sqref>
@@ -6685,10 +7536,10 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Q$4:$Q$63</c15:sqref>
+                          <c15:sqref>Sheet1!$S$4:$S$63</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6879,9 +7730,9 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-80D2-4B54-99CF-6D2DE81541B4}"/>
+                    <c16:uniqueId val="{00000006-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -6921,7 +7772,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$4:$B$63</c15:sqref>
@@ -7116,10 +7967,10 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$S$4:$S$63</c15:sqref>
+                          <c15:sqref>Sheet1!$U$4:$U$63</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7310,9 +8161,9 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-80D2-4B54-99CF-6D2DE81541B4}"/>
+                    <c16:uniqueId val="{00000007-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -8643,27 +9494,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B5D7B5-8D46-4535-93B4-E4DCC6401163}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B675CD-AD14-47CD-8D21-83E56A9F0651}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8679,23 +9532,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4DE0D7-CF11-4E7B-81A2-A68B734F2004}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2876D545-772D-4931-9172-B6596CE0C69A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8981,10 +9834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:BP63"/>
+  <dimension ref="B2:BR63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8992,45 +9845,50 @@
     <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="12" width="10.28515625" customWidth="1"/>
     <col min="13" max="13" width="2.7109375" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" customWidth="1"/>
-    <col min="17" max="20" width="10" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="3.42578125" customWidth="1"/>
+    <col min="19" max="22" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="2:70" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="L2" s="6"/>
+      <c r="N2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="Q2" s="5" t="s">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="S2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="5"/>
+      <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -9070,10 +9928,10 @@
       <c r="O3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="P3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="S3" t="s">
@@ -9082,8 +9940,14 @@
       <c r="T3" t="s">
         <v>2</v>
       </c>
+      <c r="U3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.01</v>
       </c>
@@ -9123,21 +9987,27 @@
       <c r="O4">
         <v>2.1801696345425579E-2</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="P4">
+        <v>2.5613805046170559E-3</v>
+      </c>
+      <c r="Q4">
+        <v>4.7474409123637717E-3</v>
+      </c>
+      <c r="S4" s="5">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="R4" s="6">
+      <c r="T4" s="5">
         <v>0.48</v>
       </c>
-      <c r="S4" s="6">
+      <c r="U4" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="T4" s="4">
+      <c r="V4" s="4">
         <v>8.8512356233723631E-3</v>
       </c>
-      <c r="U4" s="4"/>
+      <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.02</v>
       </c>
@@ -9177,21 +10047,27 @@
       <c r="O5">
         <v>2.2060422773599691E-2</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="P5">
+        <v>2.6041779773114501E-3</v>
+      </c>
+      <c r="Q5">
+        <v>5.0530658376194979E-3</v>
+      </c>
+      <c r="S5" s="5">
         <v>0.09</v>
       </c>
-      <c r="R5" s="6">
+      <c r="T5" s="5">
         <v>0.52</v>
       </c>
-      <c r="S5" s="6">
+      <c r="U5" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="T5" s="4">
+      <c r="V5" s="4">
         <v>3.3409822664929929E-2</v>
       </c>
-      <c r="U5" s="4"/>
+      <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.03</v>
       </c>
@@ -9231,21 +10107,27 @@
       <c r="O6">
         <v>1.6490897315024091E-2</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="P6">
+        <v>2.40040008673888E-3</v>
+      </c>
+      <c r="Q6">
+        <v>5.6740143851455784E-3</v>
+      </c>
+      <c r="S6" s="5">
         <v>0.15</v>
       </c>
-      <c r="R6" s="6">
+      <c r="T6" s="5">
         <v>0.6</v>
       </c>
-      <c r="S6" s="6">
+      <c r="U6" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="T6" s="4">
+      <c r="V6" s="4">
         <v>6.8220506029806893E-2</v>
       </c>
-      <c r="U6" s="4"/>
+      <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.04</v>
       </c>
@@ -9285,21 +10167,27 @@
       <c r="O7">
         <v>1.6489623319040764E-2</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="P7">
+        <v>2.4309546519926755E-3</v>
+      </c>
+      <c r="Q7">
+        <v>5.9178303843597018E-3</v>
+      </c>
+      <c r="S7" s="5">
         <v>0.17</v>
       </c>
-      <c r="R7" s="6">
+      <c r="T7" s="5">
         <v>0.8</v>
       </c>
-      <c r="S7" s="6">
+      <c r="U7" s="5">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="T7" s="4">
+      <c r="V7" s="4">
         <v>0.11408207797396656</v>
       </c>
-      <c r="U7" s="4"/>
+      <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.05</v>
       </c>
@@ -9340,22 +10228,26 @@
       <c r="O8">
         <v>2.0261875640461256E-2</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="6">
+      <c r="P8">
+        <v>2.666361451839812E-3</v>
+      </c>
+      <c r="Q8">
+        <v>7.7253748934132012E-3</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="5">
         <v>0.2</v>
       </c>
-      <c r="R8" s="6">
+      <c r="T8" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S8" s="6">
+      <c r="U8" s="5">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="T8" s="4">
+      <c r="V8" s="4">
         <v>0.16298991169519755</v>
       </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+      <c r="W8" s="4"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
@@ -9401,8 +10293,10 @@
       <c r="BN8" s="3"/>
       <c r="BO8" s="3"/>
       <c r="BP8" s="3"/>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="3"/>
     </row>
-    <row r="9" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.06</v>
       </c>
@@ -9442,21 +10336,27 @@
       <c r="O9">
         <v>2.0107869096834364E-2</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="P9">
+        <v>2.6924833677750082E-3</v>
+      </c>
+      <c r="Q9">
+        <v>8.3558435604529097E-3</v>
+      </c>
+      <c r="S9" s="5">
         <v>0.25</v>
       </c>
-      <c r="R9" s="6">
+      <c r="T9" s="5">
         <v>1.3</v>
       </c>
-      <c r="S9" s="6">
+      <c r="U9" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="T9" s="4">
+      <c r="V9" s="4">
         <v>0.22651715893651034</v>
       </c>
-      <c r="U9" s="4"/>
+      <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -9496,21 +10396,27 @@
       <c r="O10">
         <v>2.3611561500662029E-2</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="P10">
+        <v>3.0582107950011929E-3</v>
+      </c>
+      <c r="Q10">
+        <v>1.0524484177986466E-2</v>
+      </c>
+      <c r="S10" s="5">
         <v>0.27</v>
       </c>
-      <c r="R10" s="6">
+      <c r="T10" s="5">
         <v>1.4</v>
       </c>
-      <c r="S10" s="6">
+      <c r="U10" s="5">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="T10" s="4">
+      <c r="V10" s="4">
         <v>0.27727647574216852</v>
       </c>
-      <c r="U10" s="4"/>
+      <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.08</v>
       </c>
@@ -9550,21 +10456,27 @@
       <c r="O11">
         <v>2.3270472419781064E-2</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="P11">
+        <v>3.0874122830483338E-3</v>
+      </c>
+      <c r="Q11">
+        <v>1.0980241059532421E-2</v>
+      </c>
+      <c r="S11" s="5">
         <v>0.3</v>
       </c>
-      <c r="R11" s="6">
+      <c r="T11" s="5">
         <v>1.6</v>
       </c>
-      <c r="S11" s="6">
+      <c r="U11" s="5">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="T11" s="4">
+      <c r="V11" s="4">
         <v>0.34125579956700436</v>
       </c>
-      <c r="U11" s="4"/>
+      <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.09</v>
       </c>
@@ -9604,21 +10516,27 @@
       <c r="O12">
         <v>2.118739317300224E-2</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="P12">
+        <v>3.6466757558791208E-3</v>
+      </c>
+      <c r="Q12">
+        <v>1.5234354456336353E-2</v>
+      </c>
+      <c r="S12" s="5">
         <v>0.33</v>
       </c>
-      <c r="R12" s="6">
+      <c r="T12" s="5">
         <v>1.75</v>
       </c>
-      <c r="S12" s="6">
+      <c r="U12" s="5">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="T12" s="4">
+      <c r="V12" s="4">
         <v>0.39032289299445644</v>
       </c>
-      <c r="U12" s="4"/>
+      <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.1</v>
       </c>
@@ -9658,21 +10576,27 @@
       <c r="O13">
         <v>2.1054596212206109E-2</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="P13">
+        <v>3.6402800750476244E-3</v>
+      </c>
+      <c r="Q13">
+        <v>1.5911602389796258E-2</v>
+      </c>
+      <c r="S13" s="5">
         <v>0.35</v>
       </c>
-      <c r="R13" s="6">
+      <c r="T13" s="5">
         <v>1.85</v>
       </c>
-      <c r="S13" s="6">
+      <c r="U13" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="T13" s="4">
+      <c r="V13" s="4">
         <v>0.4634628148021695</v>
       </c>
-      <c r="U13" s="4"/>
+      <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.11</v>
       </c>
@@ -9712,23 +10636,29 @@
       <c r="O14">
         <v>2.1914098185517525E-2</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="P14">
+        <v>3.8714324107588108E-3</v>
+      </c>
+      <c r="Q14">
+        <v>1.7681276100775786E-2</v>
+      </c>
+      <c r="S14" s="5">
         <f>0.35+B4*1.05</f>
         <v>0.36049999999999999</v>
       </c>
-      <c r="R14" s="6">
+      <c r="T14" s="5">
         <v>2</v>
       </c>
-      <c r="S14" s="6">
+      <c r="U14" s="5">
         <f>0.007+B4*0.02</f>
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="T14" s="4">
+      <c r="V14" s="4">
         <v>0.49442388485130823</v>
       </c>
-      <c r="U14" s="4"/>
+      <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.12</v>
       </c>
@@ -9768,23 +10698,29 @@
       <c r="O15">
         <v>2.167228477562767E-2</v>
       </c>
-      <c r="Q15" s="6">
-        <f t="shared" ref="Q15:Q63" si="0">0.35+B5*1.05</f>
+      <c r="P15">
+        <v>3.9072555432128064E-3</v>
+      </c>
+      <c r="Q15">
+        <v>1.7853324436522627E-2</v>
+      </c>
+      <c r="S15" s="5">
+        <f>0.35+B5*1.05</f>
         <v>0.371</v>
       </c>
-      <c r="R15" s="6">
+      <c r="T15" s="5">
         <v>2.1</v>
       </c>
-      <c r="S15" s="6">
+      <c r="U15" s="5">
         <f>0.007+B5*0.02</f>
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="T15" s="4">
+      <c r="V15" s="4">
         <v>0.5622852130454552</v>
       </c>
-      <c r="U15" s="4"/>
+      <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.13</v>
       </c>
@@ -9824,23 +10760,29 @@
       <c r="O16">
         <v>2.2270992524831393E-2</v>
       </c>
-      <c r="Q16" s="6">
-        <f t="shared" si="0"/>
+      <c r="P16">
+        <v>4.4387195773841004E-3</v>
+      </c>
+      <c r="Q16">
+        <v>1.9791903480189225E-2</v>
+      </c>
+      <c r="S16" s="5">
+        <f>0.35+B6*1.05</f>
         <v>0.38149999999999995</v>
       </c>
-      <c r="R16" s="6">
+      <c r="T16" s="5">
         <v>2.1800000000000002</v>
       </c>
-      <c r="S16" s="6">
+      <c r="U16" s="5">
         <f>0.007+B6*0.02</f>
         <v>7.6E-3</v>
       </c>
-      <c r="T16" s="4">
+      <c r="V16" s="4">
         <v>0.5977775151987621</v>
       </c>
-      <c r="U16" s="4"/>
+      <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.14000000000000001</v>
       </c>
@@ -9880,23 +10822,29 @@
       <c r="O17">
         <v>2.1994725047935228E-2</v>
       </c>
-      <c r="Q17" s="6">
-        <f t="shared" si="0"/>
+      <c r="P17">
+        <v>4.5172871340113715E-3</v>
+      </c>
+      <c r="Q17">
+        <v>2.0121364571603191E-2</v>
+      </c>
+      <c r="S17" s="5">
+        <f>0.35+B7*1.05</f>
         <v>0.39199999999999996</v>
       </c>
-      <c r="R17" s="6">
+      <c r="T17" s="5">
         <v>2.2400000000000002</v>
       </c>
-      <c r="S17" s="6">
+      <c r="U17" s="5">
         <f>0.007+B7*0.02</f>
         <v>7.8000000000000005E-3</v>
       </c>
-      <c r="T17" s="4">
+      <c r="V17" s="4">
         <v>0.61902240672764419</v>
       </c>
-      <c r="U17" s="4"/>
+      <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.15</v>
       </c>
@@ -9936,23 +10884,29 @@
       <c r="O18">
         <v>2.3448661848322869E-2</v>
       </c>
-      <c r="Q18" s="6">
-        <f t="shared" si="0"/>
+      <c r="P18">
+        <v>5.4889588158766166E-3</v>
+      </c>
+      <c r="Q18">
+        <v>2.2110125497500761E-2</v>
+      </c>
+      <c r="S18" s="5">
+        <f>0.35+B8*1.05</f>
         <v>0.40249999999999997</v>
       </c>
-      <c r="R18" s="6">
+      <c r="T18" s="5">
         <v>2.2599999999999998</v>
       </c>
-      <c r="S18" s="6">
+      <c r="U18" s="5">
         <f>0.007+B8*0.02</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T18" s="4">
+      <c r="V18" s="4">
         <v>0.65351089016484154</v>
       </c>
-      <c r="U18" s="4"/>
+      <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.16</v>
       </c>
@@ -9992,23 +10946,29 @@
       <c r="O19">
         <v>2.3297725610001704E-2</v>
       </c>
-      <c r="Q19" s="6">
-        <f t="shared" si="0"/>
+      <c r="P19">
+        <v>5.5202167677298611E-3</v>
+      </c>
+      <c r="Q19">
+        <v>2.2366402342980013E-2</v>
+      </c>
+      <c r="S19" s="5">
+        <f>0.35+B9*1.05</f>
         <v>0.41299999999999998</v>
       </c>
-      <c r="R19" s="6">
+      <c r="T19" s="5">
         <v>2.3199999999999998</v>
       </c>
-      <c r="S19" s="6">
+      <c r="U19" s="5">
         <f>0.007+B9*0.02</f>
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="T19" s="4">
+      <c r="V19" s="4">
         <v>0.70176304693491443</v>
       </c>
-      <c r="U19" s="4"/>
+      <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.17</v>
       </c>
@@ -10048,23 +11008,29 @@
       <c r="O20">
         <v>2.352366949724894E-2</v>
       </c>
-      <c r="Q20" s="6">
-        <f t="shared" si="0"/>
+      <c r="P20">
+        <v>5.4366032471251406E-3</v>
+      </c>
+      <c r="Q20">
+        <v>2.4756959660510558E-2</v>
+      </c>
+      <c r="S20" s="5">
+        <f>0.35+B10*1.05</f>
         <v>0.42349999999999999</v>
       </c>
-      <c r="R20" s="6">
+      <c r="T20" s="5">
         <v>2.35</v>
       </c>
-      <c r="S20" s="6">
+      <c r="U20" s="5">
         <f>0.007+B10*0.02</f>
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="T20" s="4">
+      <c r="V20" s="4">
         <v>0.72696945922780565</v>
       </c>
-      <c r="U20" s="4"/>
+      <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.18</v>
       </c>
@@ -10104,23 +11070,29 @@
       <c r="O21">
         <v>2.3275045474400284E-2</v>
       </c>
-      <c r="Q21" s="6">
-        <f t="shared" si="0"/>
+      <c r="P21">
+        <v>5.4746572616829175E-3</v>
+      </c>
+      <c r="Q21">
+        <v>2.4772348478561256E-2</v>
+      </c>
+      <c r="S21" s="5">
+        <f>0.35+B11*1.05</f>
         <v>0.434</v>
       </c>
-      <c r="R21" s="6">
+      <c r="T21" s="5">
         <v>2.37</v>
       </c>
-      <c r="S21" s="6">
+      <c r="U21" s="5">
         <f>0.007+B11*0.02</f>
         <v>8.6E-3</v>
       </c>
-      <c r="T21" s="4">
+      <c r="V21" s="4">
         <v>0.75108966881881012</v>
       </c>
-      <c r="U21" s="4"/>
+      <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.19</v>
       </c>
@@ -10160,23 +11132,29 @@
       <c r="O22">
         <v>2.5362042856807002E-2</v>
       </c>
-      <c r="Q22" s="6">
-        <f t="shared" si="0"/>
+      <c r="P22">
+        <v>5.9093343892974758E-3</v>
+      </c>
+      <c r="Q22">
+        <v>2.6635998581376746E-2</v>
+      </c>
+      <c r="S22" s="5">
+        <f>0.35+B12*1.05</f>
         <v>0.44450000000000001</v>
       </c>
-      <c r="R22" s="6">
+      <c r="T22" s="5">
         <v>2.39</v>
       </c>
-      <c r="S22" s="6">
+      <c r="U22" s="5">
         <f>0.007+B12*0.02</f>
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="T22" s="4">
+      <c r="V22" s="4">
         <v>0.75622353350944305</v>
       </c>
-      <c r="U22" s="4"/>
+      <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.2</v>
       </c>
@@ -10216,23 +11194,29 @@
       <c r="O23">
         <v>2.5613656711807702E-2</v>
       </c>
-      <c r="Q23" s="6">
-        <f t="shared" si="0"/>
+      <c r="P23">
+        <v>6.0011549584850585E-3</v>
+      </c>
+      <c r="Q23">
+        <v>2.6510789256380483E-2</v>
+      </c>
+      <c r="S23" s="5">
+        <f>0.35+B13*1.05</f>
         <v>0.45499999999999996</v>
       </c>
-      <c r="R23" s="6">
+      <c r="T23" s="5">
         <v>2.4</v>
       </c>
-      <c r="S23" s="6">
+      <c r="U23" s="5">
         <f>0.007+B13*0.02</f>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="T23" s="4">
+      <c r="V23" s="4">
         <v>0.82074311533911204</v>
       </c>
-      <c r="U23" s="4"/>
+      <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.21</v>
       </c>
@@ -10272,23 +11256,29 @@
       <c r="O24">
         <v>2.3524401030988767E-2</v>
       </c>
-      <c r="Q24" s="6">
-        <f t="shared" si="0"/>
+      <c r="P24">
+        <v>6.9826800409691931E-3</v>
+      </c>
+      <c r="Q24">
+        <v>2.7507612839627178E-2</v>
+      </c>
+      <c r="S24" s="5">
+        <f>0.35+B14*1.05</f>
         <v>0.46549999999999997</v>
       </c>
-      <c r="R24" s="6">
+      <c r="T24" s="5">
         <v>2.39</v>
       </c>
-      <c r="S24" s="6">
-        <f>S23+0.0001</f>
+      <c r="U24" s="5">
+        <f t="shared" ref="U24:U32" si="0">U23+0.0001</f>
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="T24" s="4">
+      <c r="V24" s="4">
         <v>0.82281099328663998</v>
       </c>
-      <c r="U24" s="4"/>
+      <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.22</v>
       </c>
@@ -10328,23 +11318,29 @@
       <c r="O25">
         <v>2.4549454519130404E-2</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="P25">
+        <v>7.2088865567442612E-3</v>
+      </c>
+      <c r="Q25">
+        <v>2.7938525883709299E-2</v>
+      </c>
+      <c r="S25" s="5">
+        <f>0.35+B15*1.05</f>
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="T25" s="5">
+        <v>2.38</v>
+      </c>
+      <c r="U25" s="5">
         <f t="shared" si="0"/>
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="R25" s="6">
-        <v>2.38</v>
-      </c>
-      <c r="S25" s="6">
-        <f>S24+0.0001</f>
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="T25" s="4">
+      <c r="V25" s="4">
         <v>0.89355266350826223</v>
       </c>
-      <c r="U25" s="4"/>
+      <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.23</v>
       </c>
@@ -10384,23 +11380,29 @@
       <c r="O26">
         <v>2.3928312618387227E-2</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="P26">
+        <v>7.5114391254159519E-3</v>
+      </c>
+      <c r="Q26">
+        <v>2.8088861665529461E-2</v>
+      </c>
+      <c r="S26" s="5">
+        <f>0.35+B16*1.05</f>
+        <v>0.48649999999999999</v>
+      </c>
+      <c r="T26" s="5">
+        <v>2.36</v>
+      </c>
+      <c r="U26" s="5">
         <f t="shared" si="0"/>
-        <v>0.48649999999999999</v>
-      </c>
-      <c r="R26" s="6">
-        <v>2.36</v>
-      </c>
-      <c r="S26" s="6">
-        <f>S25+0.0001</f>
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="T26" s="4">
+      <c r="V26" s="4">
         <v>0.92511851027435188</v>
       </c>
-      <c r="U26" s="4"/>
+      <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.24</v>
       </c>
@@ -10440,23 +11442,29 @@
       <c r="O27">
         <v>2.5217468651153742E-2</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="P27">
+        <v>7.6618197679286324E-3</v>
+      </c>
+      <c r="Q27">
+        <v>2.8740057590507889E-2</v>
+      </c>
+      <c r="S27" s="5">
+        <f>0.35+B17*1.05</f>
+        <v>0.497</v>
+      </c>
+      <c r="T27" s="5">
+        <v>2.34</v>
+      </c>
+      <c r="U27" s="5">
         <f t="shared" si="0"/>
-        <v>0.497</v>
-      </c>
-      <c r="R27" s="6">
-        <v>2.34</v>
-      </c>
-      <c r="S27" s="6">
-        <f>S26+0.0001</f>
         <v>9.3999999999999986E-3</v>
       </c>
-      <c r="T27" s="4">
+      <c r="V27" s="4">
         <v>0.93388374375819727</v>
       </c>
-      <c r="U27" s="4"/>
+      <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.25</v>
       </c>
@@ -10496,23 +11504,29 @@
       <c r="O28">
         <v>2.5742142646770459E-2</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="P28">
+        <v>8.3639824474403546E-3</v>
+      </c>
+      <c r="Q28">
+        <v>2.9280432111481625E-2</v>
+      </c>
+      <c r="S28" s="5">
+        <f>0.35+B18*1.05</f>
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="T28" s="5">
+        <v>2.31</v>
+      </c>
+      <c r="U28" s="5">
         <f t="shared" si="0"/>
-        <v>0.50749999999999995</v>
-      </c>
-      <c r="R28" s="6">
-        <v>2.31</v>
-      </c>
-      <c r="S28" s="6">
-        <f>S27+0.0001</f>
         <v>9.499999999999998E-3</v>
       </c>
-      <c r="T28" s="4">
+      <c r="V28" s="4">
         <v>1.0172166919366175</v>
       </c>
-      <c r="U28" s="4"/>
+      <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.26</v>
       </c>
@@ -10552,23 +11566,29 @@
       <c r="O29">
         <v>2.7070788035773001E-2</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="P29">
+        <v>8.5757715652189752E-3</v>
+      </c>
+      <c r="Q29">
+        <v>2.9165031675378639E-2</v>
+      </c>
+      <c r="S29" s="5">
+        <f>0.35+B19*1.05</f>
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="T29" s="5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="U29" s="5">
         <f t="shared" si="0"/>
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="R29" s="6">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="S29" s="6">
-        <f>S28+0.0001</f>
         <v>9.5999999999999974E-3</v>
       </c>
-      <c r="T29" s="4">
+      <c r="V29" s="4">
         <v>1.0497542265823365</v>
       </c>
-      <c r="U29" s="4"/>
+      <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.27</v>
       </c>
@@ -10608,23 +11628,29 @@
       <c r="O30">
         <v>2.7348440254261679E-2</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="P30">
+        <v>8.4324673764945984E-3</v>
+      </c>
+      <c r="Q30">
+        <v>3.0603657387655029E-2</v>
+      </c>
+      <c r="S30" s="5">
+        <f>0.35+B20*1.05</f>
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="T30" s="5">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="U30" s="5">
         <f t="shared" si="0"/>
-        <v>0.52849999999999997</v>
-      </c>
-      <c r="R30" s="6">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="S30" s="6">
-        <f>S29+0.0001</f>
         <v>9.6999999999999968E-3</v>
       </c>
-      <c r="T30" s="4">
+      <c r="V30" s="4">
         <v>1.0741603898003038</v>
       </c>
-      <c r="U30" s="4"/>
+      <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.28000000000000003</v>
       </c>
@@ -10664,23 +11690,29 @@
       <c r="O31">
         <v>2.8604029302262593E-2</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="P31">
+        <v>8.6706970074229475E-3</v>
+      </c>
+      <c r="Q31">
+        <v>3.0853633616491759E-2</v>
+      </c>
+      <c r="S31" s="5">
+        <f>0.35+B21*1.05</f>
+        <v>0.53899999999999992</v>
+      </c>
+      <c r="T31" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U31" s="5">
         <f t="shared" si="0"/>
-        <v>0.53899999999999992</v>
-      </c>
-      <c r="R31" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="S31" s="6">
-        <f>S30+0.0001</f>
         <v>9.7999999999999962E-3</v>
       </c>
-      <c r="T31" s="4">
+      <c r="V31" s="4">
         <v>1.1285892348925854</v>
       </c>
-      <c r="U31" s="4"/>
+      <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.28999999999999998</v>
       </c>
@@ -10720,23 +11752,29 @@
       <c r="O32">
         <v>2.874306774597973E-2</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="P32">
+        <v>9.3125339079996369E-3</v>
+      </c>
+      <c r="Q32">
+        <v>3.3067705412172015E-2</v>
+      </c>
+      <c r="S32" s="5">
+        <f>0.35+B22*1.05</f>
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="T32" s="5">
+        <v>2.16</v>
+      </c>
+      <c r="U32" s="5">
         <f t="shared" si="0"/>
-        <v>0.54949999999999999</v>
-      </c>
-      <c r="R32" s="6">
-        <v>2.16</v>
-      </c>
-      <c r="S32" s="6">
-        <f>S31+0.0001</f>
         <v>9.8999999999999956E-3</v>
       </c>
-      <c r="T32" s="4">
+      <c r="V32" s="4">
         <v>1.1496497644336141</v>
       </c>
-      <c r="U32" s="4"/>
+      <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.3</v>
       </c>
@@ -10776,23 +11814,29 @@
       <c r="O33">
         <v>3.015442049072016E-2</v>
       </c>
-      <c r="Q33" s="6">
-        <f t="shared" si="0"/>
+      <c r="P33">
+        <v>9.5988483643667192E-3</v>
+      </c>
+      <c r="Q33">
+        <v>3.3003635952102463E-2</v>
+      </c>
+      <c r="S33" s="5">
+        <f>0.35+B23*1.05</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="R33" s="6">
+      <c r="T33" s="5">
         <v>2.12</v>
       </c>
-      <c r="S33" s="6">
-        <f>S32+0.000166666</f>
+      <c r="U33" s="5">
+        <f>U32+0.000166666</f>
         <v>1.0066665999999995E-2</v>
       </c>
-      <c r="T33" s="4">
+      <c r="V33" s="4">
         <v>1.2049713131543704</v>
       </c>
-      <c r="U33" s="4"/>
+      <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.31</v>
       </c>
@@ -10832,23 +11876,29 @@
       <c r="O34">
         <v>2.941824396794309E-2</v>
       </c>
-      <c r="Q34" s="6">
-        <f t="shared" si="0"/>
+      <c r="P34">
+        <v>1.0257068140816984E-2</v>
+      </c>
+      <c r="Q34">
+        <v>3.5078569193074574E-2</v>
+      </c>
+      <c r="S34" s="5">
+        <f>0.35+B24*1.05</f>
         <v>0.57050000000000001</v>
       </c>
-      <c r="R34" s="6">
+      <c r="T34" s="5">
         <v>2.08</v>
       </c>
-      <c r="S34" s="6">
-        <f t="shared" ref="S34:S63" si="1">S33+0.000166666</f>
+      <c r="U34" s="5">
+        <f t="shared" ref="U34:U63" si="1">U33+0.000166666</f>
         <v>1.0233331999999994E-2</v>
       </c>
-      <c r="T34" s="4">
+      <c r="V34" s="4">
         <v>1.2387553097242325</v>
       </c>
-      <c r="U34" s="4"/>
+      <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.32</v>
       </c>
@@ -10888,23 +11938,29 @@
       <c r="O35">
         <v>3.0674073217596697E-2</v>
       </c>
-      <c r="Q35" s="6">
-        <f t="shared" si="0"/>
+      <c r="P35">
+        <v>1.0471064490932136E-2</v>
+      </c>
+      <c r="Q35">
+        <v>3.5845596512918944E-2</v>
+      </c>
+      <c r="S35" s="5">
+        <f>0.35+B25*1.05</f>
         <v>0.58099999999999996</v>
       </c>
-      <c r="R35" s="6">
+      <c r="T35" s="5">
         <v>2.04</v>
       </c>
-      <c r="S35" s="6">
+      <c r="U35" s="5">
         <f t="shared" si="1"/>
         <v>1.0399997999999994E-2</v>
       </c>
-      <c r="T35" s="4">
+      <c r="V35" s="4">
         <v>1.2680061389637507</v>
       </c>
-      <c r="U35" s="4"/>
+      <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0.33</v>
       </c>
@@ -10944,23 +12000,29 @@
       <c r="O36">
         <v>3.0630246624844912E-2</v>
       </c>
-      <c r="Q36" s="6">
-        <f t="shared" si="0"/>
+      <c r="P36">
+        <v>1.0971256975325973E-2</v>
+      </c>
+      <c r="Q36">
+        <v>3.7556148729643822E-2</v>
+      </c>
+      <c r="S36" s="5">
+        <f>0.35+B26*1.05</f>
         <v>0.59150000000000003</v>
       </c>
-      <c r="R36" s="6">
+      <c r="T36" s="5">
         <v>2</v>
       </c>
-      <c r="S36" s="6">
+      <c r="U36" s="5">
         <f t="shared" si="1"/>
         <v>1.0566663999999993E-2</v>
       </c>
-      <c r="T36" s="4">
+      <c r="V36" s="4">
         <v>1.2824932702128446</v>
       </c>
-      <c r="U36" s="4"/>
+      <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0.34</v>
       </c>
@@ -11000,23 +12062,29 @@
       <c r="O37">
         <v>3.1052703064894008E-2</v>
       </c>
-      <c r="Q37" s="6">
-        <f t="shared" si="0"/>
+      <c r="P37">
+        <v>1.114176031522273E-2</v>
+      </c>
+      <c r="Q37">
+        <v>3.7179197730276906E-2</v>
+      </c>
+      <c r="S37" s="5">
+        <f>0.35+B27*1.05</f>
         <v>0.60199999999999998</v>
       </c>
-      <c r="R37" s="6">
+      <c r="T37" s="5">
         <v>1.96</v>
       </c>
-      <c r="S37" s="6">
+      <c r="U37" s="5">
         <f t="shared" si="1"/>
         <v>1.0733329999999992E-2</v>
       </c>
-      <c r="T37" s="4">
+      <c r="V37" s="4">
         <v>1.3088724504424194</v>
       </c>
-      <c r="U37" s="4"/>
+      <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.35</v>
       </c>
@@ -11056,23 +12124,29 @@
       <c r="O38">
         <v>2.9917298474725837E-2</v>
       </c>
-      <c r="Q38" s="6">
-        <f t="shared" si="0"/>
+      <c r="P38">
+        <v>1.1558374832117985E-2</v>
+      </c>
+      <c r="Q38">
+        <v>3.9680502367639321E-2</v>
+      </c>
+      <c r="S38" s="5">
+        <f>0.35+B28*1.05</f>
         <v>0.61250000000000004</v>
       </c>
-      <c r="R38" s="6">
+      <c r="T38" s="5">
         <v>1.92</v>
       </c>
-      <c r="S38" s="6">
+      <c r="U38" s="5">
         <f t="shared" si="1"/>
         <v>1.0899995999999992E-2</v>
       </c>
-      <c r="T38" s="4">
+      <c r="V38" s="4">
         <v>1.3386610080076067</v>
       </c>
-      <c r="U38" s="4"/>
+      <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.36</v>
       </c>
@@ -11112,23 +12186,29 @@
       <c r="O39">
         <v>3.0500851586730441E-2</v>
       </c>
-      <c r="Q39" s="6">
-        <f t="shared" si="0"/>
+      <c r="P39">
+        <v>1.1780183248657563E-2</v>
+      </c>
+      <c r="Q39">
+        <v>3.993479868644792E-2</v>
+      </c>
+      <c r="S39" s="5">
+        <f>0.35+B29*1.05</f>
         <v>0.623</v>
       </c>
-      <c r="R39" s="6">
+      <c r="T39" s="5">
         <v>1.88</v>
       </c>
-      <c r="S39" s="6">
+      <c r="U39" s="5">
         <f t="shared" si="1"/>
         <v>1.1066661999999991E-2</v>
       </c>
-      <c r="T39" s="4">
+      <c r="V39" s="4">
         <v>1.3286004044839204</v>
       </c>
-      <c r="U39" s="4"/>
+      <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.37</v>
       </c>
@@ -11168,23 +12248,29 @@
       <c r="O40">
         <v>2.9128248280874184E-2</v>
       </c>
-      <c r="Q40" s="6">
-        <f t="shared" si="0"/>
+      <c r="P40">
+        <v>1.227913569700511E-2</v>
+      </c>
+      <c r="Q40">
+        <v>4.1989167860636799E-2</v>
+      </c>
+      <c r="S40" s="5">
+        <f>0.35+B30*1.05</f>
         <v>0.63349999999999995</v>
       </c>
-      <c r="R40" s="6">
+      <c r="T40" s="5">
         <v>1.84</v>
       </c>
-      <c r="S40" s="6">
+      <c r="U40" s="5">
         <f t="shared" si="1"/>
         <v>1.123332799999999E-2</v>
       </c>
-      <c r="T40" s="4">
+      <c r="V40" s="4">
         <v>1.3112695165481045</v>
       </c>
-      <c r="U40" s="4"/>
+      <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.38</v>
       </c>
@@ -11224,23 +12310,29 @@
       <c r="O41">
         <v>2.8981132596399659E-2</v>
       </c>
-      <c r="Q41" s="6">
-        <f t="shared" si="0"/>
+      <c r="P41">
+        <v>1.2653088404954308E-2</v>
+      </c>
+      <c r="Q41">
+        <v>4.176123513517465E-2</v>
+      </c>
+      <c r="S41" s="5">
+        <f>0.35+B31*1.05</f>
         <v>0.64400000000000002</v>
       </c>
-      <c r="R41" s="6">
+      <c r="T41" s="5">
         <v>1.8</v>
       </c>
-      <c r="S41" s="6">
+      <c r="U41" s="5">
         <f t="shared" si="1"/>
         <v>1.139999399999999E-2</v>
       </c>
-      <c r="T41" s="4">
+      <c r="V41" s="4">
         <v>1.3193084992668407</v>
       </c>
-      <c r="U41" s="4"/>
+      <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0.39</v>
       </c>
@@ -11280,23 +12372,29 @@
       <c r="O42">
         <v>2.705457006607109E-2</v>
       </c>
-      <c r="Q42" s="6">
-        <f t="shared" si="0"/>
+      <c r="P42">
+        <v>1.3809663719739991E-2</v>
+      </c>
+      <c r="Q42">
+        <v>4.2842529977521346E-2</v>
+      </c>
+      <c r="S42" s="5">
+        <f>0.35+B32*1.05</f>
         <v>0.65449999999999997</v>
       </c>
-      <c r="R42" s="6">
+      <c r="T42" s="5">
         <v>1.76</v>
       </c>
-      <c r="S42" s="6">
+      <c r="U42" s="5">
         <f t="shared" si="1"/>
         <v>1.1566659999999989E-2</v>
       </c>
-      <c r="T42" s="4">
+      <c r="V42" s="4">
         <v>1.3111275290512265</v>
       </c>
-      <c r="U42" s="4"/>
+      <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.4</v>
       </c>
@@ -11336,23 +12434,29 @@
       <c r="O43">
         <v>2.6949136018615878E-2</v>
       </c>
-      <c r="Q43" s="6">
-        <f t="shared" si="0"/>
+      <c r="P43">
+        <v>1.4118209044076641E-2</v>
+      </c>
+      <c r="Q43">
+        <v>4.3535833438278854E-2</v>
+      </c>
+      <c r="S43" s="5">
+        <f>0.35+B33*1.05</f>
         <v>0.66500000000000004</v>
       </c>
-      <c r="R43" s="6">
+      <c r="T43" s="5">
         <v>1.72</v>
       </c>
-      <c r="S43" s="6">
+      <c r="U43" s="5">
         <f t="shared" si="1"/>
         <v>1.1733325999999988E-2</v>
       </c>
-      <c r="T43" s="4">
+      <c r="V43" s="4">
         <v>1.2872478577671087</v>
       </c>
-      <c r="U43" s="4"/>
+      <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.41</v>
       </c>
@@ -11392,23 +12496,29 @@
       <c r="O44">
         <v>2.5694830073770537E-2</v>
       </c>
-      <c r="Q44" s="6">
-        <f t="shared" si="0"/>
+      <c r="P44">
+        <v>1.4851793425527825E-2</v>
+      </c>
+      <c r="Q44">
+        <v>4.4852975042522926E-2</v>
+      </c>
+      <c r="S44" s="5">
+        <f>0.35+B34*1.05</f>
         <v>0.67549999999999999</v>
       </c>
-      <c r="R44" s="6">
+      <c r="T44" s="5">
         <v>1.69</v>
       </c>
-      <c r="S44" s="6">
+      <c r="U44" s="5">
         <f t="shared" si="1"/>
         <v>1.1899991999999988E-2</v>
       </c>
-      <c r="T44" s="4">
+      <c r="V44" s="4">
         <v>1.2548637392265976</v>
       </c>
-      <c r="U44" s="4"/>
+      <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0.42</v>
       </c>
@@ -11448,23 +12558,29 @@
       <c r="O45">
         <v>2.5720038175917854E-2</v>
       </c>
-      <c r="Q45" s="6">
-        <f t="shared" si="0"/>
+      <c r="P45">
+        <v>1.5092284456958965E-2</v>
+      </c>
+      <c r="Q45">
+        <v>4.5515415449659105E-2</v>
+      </c>
+      <c r="S45" s="5">
+        <f>0.35+B35*1.05</f>
         <v>0.68599999999999994</v>
       </c>
-      <c r="R45" s="6">
+      <c r="T45" s="5">
         <v>1.66</v>
       </c>
-      <c r="S45" s="6">
+      <c r="U45" s="5">
         <f t="shared" si="1"/>
         <v>1.2066657999999987E-2</v>
       </c>
-      <c r="T45" s="4">
+      <c r="V45" s="4">
         <v>1.2912065289430401</v>
       </c>
-      <c r="U45" s="4"/>
+      <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0.43</v>
       </c>
@@ -11504,23 +12620,29 @@
       <c r="O46">
         <v>2.5545201443351019E-2</v>
       </c>
-      <c r="Q46" s="6">
-        <f t="shared" si="0"/>
+      <c r="P46">
+        <v>1.7014365979382506E-2</v>
+      </c>
+      <c r="Q46">
+        <v>4.8668775865294861E-2</v>
+      </c>
+      <c r="S46" s="5">
+        <f>0.35+B36*1.05</f>
         <v>0.69650000000000001</v>
       </c>
-      <c r="R46" s="6">
+      <c r="T46" s="5">
         <v>1.64</v>
       </c>
-      <c r="S46" s="6">
+      <c r="U46" s="5">
         <f t="shared" si="1"/>
         <v>1.2233323999999986E-2</v>
       </c>
-      <c r="T46" s="4">
+      <c r="V46" s="4">
         <v>1.271295865426741</v>
       </c>
-      <c r="U46" s="4"/>
+      <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.44</v>
       </c>
@@ -11560,23 +12682,29 @@
       <c r="O47">
         <v>2.5609044309583037E-2</v>
       </c>
-      <c r="Q47" s="6">
-        <f t="shared" si="0"/>
+      <c r="P47">
+        <v>1.7293404483506636E-2</v>
+      </c>
+      <c r="Q47">
+        <v>4.9090131002704963E-2</v>
+      </c>
+      <c r="S47" s="5">
+        <f>0.35+B37*1.05</f>
         <v>0.70700000000000007</v>
       </c>
-      <c r="R47" s="6">
+      <c r="T47" s="5">
         <v>1.63</v>
       </c>
-      <c r="S47" s="6">
+      <c r="U47" s="5">
         <f t="shared" si="1"/>
         <v>1.2399989999999986E-2</v>
       </c>
-      <c r="T47" s="4">
+      <c r="V47" s="4">
         <v>1.2687975383464345</v>
       </c>
-      <c r="U47" s="4"/>
+      <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0.45</v>
       </c>
@@ -11616,23 +12744,29 @@
       <c r="O48">
         <v>2.617096546857681E-2</v>
       </c>
-      <c r="Q48" s="6">
-        <f t="shared" si="0"/>
+      <c r="P48">
+        <v>1.9421988759005204E-2</v>
+      </c>
+      <c r="Q48">
+        <v>5.0218838299171592E-2</v>
+      </c>
+      <c r="S48" s="5">
+        <f>0.35+B38*1.05</f>
         <v>0.71750000000000003</v>
       </c>
-      <c r="R48" s="6">
+      <c r="T48" s="5">
         <v>1.62</v>
       </c>
-      <c r="S48" s="6">
+      <c r="U48" s="5">
         <f t="shared" si="1"/>
         <v>1.2566655999999985E-2</v>
       </c>
-      <c r="T48" s="4">
+      <c r="V48" s="4">
         <v>1.3203134392346885</v>
       </c>
-      <c r="U48" s="4"/>
+      <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.46</v>
       </c>
@@ -11672,23 +12806,29 @@
       <c r="O49">
         <v>2.6829595365962713E-2</v>
       </c>
-      <c r="Q49" s="6">
-        <f t="shared" si="0"/>
+      <c r="P49">
+        <v>1.9558962798543311E-2</v>
+      </c>
+      <c r="Q49">
+        <v>5.0517984454281906E-2</v>
+      </c>
+      <c r="S49" s="5">
+        <f>0.35+B39*1.05</f>
         <v>0.72799999999999998</v>
       </c>
-      <c r="R49" s="6">
+      <c r="T49" s="5">
         <v>1.61</v>
       </c>
-      <c r="S49" s="6">
+      <c r="U49" s="5">
         <f t="shared" si="1"/>
         <v>1.2733321999999984E-2</v>
       </c>
-      <c r="T49" s="4">
+      <c r="V49" s="4">
         <v>1.3214330592428734</v>
       </c>
-      <c r="U49" s="4"/>
+      <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.47</v>
       </c>
@@ -11728,23 +12868,29 @@
       <c r="O50">
         <v>2.7638271852263425E-2</v>
       </c>
-      <c r="Q50" s="6">
-        <f t="shared" si="0"/>
+      <c r="P50">
+        <v>2.0955655947199569E-2</v>
+      </c>
+      <c r="Q50">
+        <v>5.1520109779181839E-2</v>
+      </c>
+      <c r="S50" s="5">
+        <f>0.35+B40*1.05</f>
         <v>0.73849999999999993</v>
       </c>
-      <c r="R50" s="6">
+      <c r="T50" s="5">
         <v>1.6</v>
       </c>
-      <c r="S50" s="6">
+      <c r="U50" s="5">
         <f t="shared" si="1"/>
         <v>1.2899987999999984E-2</v>
       </c>
-      <c r="T50" s="4">
+      <c r="V50" s="4">
         <v>1.3568162038913754</v>
       </c>
-      <c r="U50" s="4"/>
+      <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0.48</v>
       </c>
@@ -11784,23 +12930,29 @@
       <c r="O51">
         <v>2.8513361621349907E-2</v>
       </c>
-      <c r="Q51" s="6">
-        <f t="shared" si="0"/>
+      <c r="P51">
+        <v>2.1096633712642424E-2</v>
+      </c>
+      <c r="Q51">
+        <v>5.1688372879820955E-2</v>
+      </c>
+      <c r="S51" s="5">
+        <f>0.35+B41*1.05</f>
         <v>0.749</v>
       </c>
-      <c r="R51" s="6">
+      <c r="T51" s="5">
         <v>1.59</v>
       </c>
-      <c r="S51" s="6">
+      <c r="U51" s="5">
         <f t="shared" si="1"/>
         <v>1.3066653999999983E-2</v>
       </c>
-      <c r="T51" s="4">
+      <c r="V51" s="4">
         <v>1.3623011149770488</v>
       </c>
-      <c r="U51" s="4"/>
+      <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>0.49</v>
       </c>
@@ -11840,23 +12992,29 @@
       <c r="O52">
         <v>2.9214721439851044E-2</v>
       </c>
-      <c r="Q52" s="6">
-        <f t="shared" si="0"/>
+      <c r="P52">
+        <v>2.2128027474583853E-2</v>
+      </c>
+      <c r="Q52">
+        <v>5.2456408875725953E-2</v>
+      </c>
+      <c r="S52" s="5">
+        <f>0.35+B42*1.05</f>
         <v>0.75950000000000006</v>
       </c>
-      <c r="R52" s="6">
+      <c r="T52" s="5">
         <v>1.58</v>
       </c>
-      <c r="S52" s="6">
+      <c r="U52" s="5">
         <f t="shared" si="1"/>
         <v>1.3233319999999982E-2</v>
       </c>
-      <c r="T52" s="4">
+      <c r="V52" s="4">
         <v>1.3445208931116512</v>
       </c>
-      <c r="U52" s="4"/>
+      <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0.5</v>
       </c>
@@ -11896,23 +13054,29 @@
       <c r="O53">
         <v>2.9565798338932588E-2</v>
       </c>
-      <c r="Q53" s="6">
-        <f t="shared" si="0"/>
+      <c r="P53">
+        <v>2.2077745385363095E-2</v>
+      </c>
+      <c r="Q53">
+        <v>5.2070478034338459E-2</v>
+      </c>
+      <c r="S53" s="5">
+        <f>0.35+B43*1.05</f>
         <v>0.77</v>
       </c>
-      <c r="R53" s="6">
+      <c r="T53" s="5">
         <v>1.57</v>
       </c>
-      <c r="S53" s="6">
+      <c r="U53" s="5">
         <f t="shared" si="1"/>
         <v>1.3399985999999982E-2</v>
       </c>
-      <c r="T53" s="4">
+      <c r="V53" s="4">
         <v>1.3434651952683176</v>
       </c>
-      <c r="U53" s="4"/>
+      <c r="W53" s="4"/>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>0.51</v>
       </c>
@@ -11952,23 +13116,29 @@
       <c r="O54">
         <v>2.9598864004512806E-2</v>
       </c>
-      <c r="Q54" s="6">
-        <f t="shared" si="0"/>
+      <c r="P54">
+        <v>2.2937955360927621E-2</v>
+      </c>
+      <c r="Q54">
+        <v>5.1899228271494395E-2</v>
+      </c>
+      <c r="S54" s="5">
+        <f>0.35+B44*1.05</f>
         <v>0.78049999999999997</v>
       </c>
-      <c r="R54" s="6">
+      <c r="T54" s="5">
         <v>1.56</v>
       </c>
-      <c r="S54" s="6">
+      <c r="U54" s="5">
         <f t="shared" si="1"/>
         <v>1.3566651999999981E-2</v>
       </c>
-      <c r="T54" s="4">
+      <c r="V54" s="4">
         <v>1.3887419832911747</v>
       </c>
-      <c r="U54" s="4"/>
+      <c r="W54" s="4"/>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>0.52</v>
       </c>
@@ -12008,23 +13178,29 @@
       <c r="O55">
         <v>2.9898514390122869E-2</v>
       </c>
-      <c r="Q55" s="6">
-        <f t="shared" si="0"/>
+      <c r="P55">
+        <v>2.2996836585453623E-2</v>
+      </c>
+      <c r="Q55">
+        <v>5.1860197924064343E-2</v>
+      </c>
+      <c r="S55" s="5">
+        <f>0.35+B45*1.05</f>
         <v>0.79099999999999993</v>
       </c>
-      <c r="R55" s="6">
+      <c r="T55" s="5">
         <v>1.55</v>
       </c>
-      <c r="S55" s="6">
+      <c r="U55" s="5">
         <f t="shared" si="1"/>
         <v>1.373331799999998E-2</v>
       </c>
-      <c r="T55" s="4">
+      <c r="V55" s="4">
         <v>1.389005269559288</v>
       </c>
-      <c r="U55" s="4"/>
+      <c r="W55" s="4"/>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>0.53</v>
       </c>
@@ -12064,23 +13240,29 @@
       <c r="O56">
         <v>3.0211918265319347E-2</v>
       </c>
-      <c r="Q56" s="6">
-        <f t="shared" si="0"/>
+      <c r="P56">
+        <v>2.506321576407158E-2</v>
+      </c>
+      <c r="Q56">
+        <v>5.1004151663079589E-2</v>
+      </c>
+      <c r="S56" s="5">
+        <f>0.35+B46*1.05</f>
         <v>0.80149999999999999</v>
       </c>
-      <c r="R56" s="6">
+      <c r="T56" s="5">
         <v>1.54</v>
       </c>
-      <c r="S56" s="6">
+      <c r="U56" s="5">
         <f t="shared" si="1"/>
         <v>1.389998399999998E-2</v>
       </c>
-      <c r="T56" s="4">
+      <c r="V56" s="4">
         <v>1.3813181676659125</v>
       </c>
-      <c r="U56" s="4"/>
+      <c r="W56" s="4"/>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0.54</v>
       </c>
@@ -12120,23 +13302,29 @@
       <c r="O57">
         <v>3.0363712832342175E-2</v>
       </c>
-      <c r="Q57" s="6">
-        <f t="shared" si="0"/>
+      <c r="P57">
+        <v>2.5077229650665743E-2</v>
+      </c>
+      <c r="Q57">
+        <v>5.1236611487045954E-2</v>
+      </c>
+      <c r="S57" s="5">
+        <f>0.35+B47*1.05</f>
         <v>0.81200000000000006</v>
       </c>
-      <c r="R57" s="6">
+      <c r="T57" s="5">
         <v>1.53</v>
       </c>
-      <c r="S57" s="6">
+      <c r="U57" s="5">
         <f t="shared" si="1"/>
         <v>1.4066649999999979E-2</v>
       </c>
-      <c r="T57" s="4">
+      <c r="V57" s="4">
         <v>1.3753449064145455</v>
       </c>
-      <c r="U57" s="4"/>
+      <c r="W57" s="4"/>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0.55000000000000004</v>
       </c>
@@ -12176,23 +13364,29 @@
       <c r="O58">
         <v>3.1435728051098878E-2</v>
       </c>
-      <c r="Q58" s="6">
-        <f t="shared" si="0"/>
+      <c r="P58">
+        <v>2.7275300357309365E-2</v>
+      </c>
+      <c r="Q58">
+        <v>5.1758921257395528E-2</v>
+      </c>
+      <c r="S58" s="5">
+        <f>0.35+B48*1.05</f>
         <v>0.82250000000000001</v>
       </c>
-      <c r="R58" s="6">
+      <c r="T58" s="5">
         <v>1.5249999999999999</v>
       </c>
-      <c r="S58" s="6">
+      <c r="U58" s="5">
         <f t="shared" si="1"/>
         <v>1.4233315999999979E-2</v>
       </c>
-      <c r="T58" s="4">
+      <c r="V58" s="4">
         <v>1.4125475955352327</v>
       </c>
-      <c r="U58" s="4"/>
+      <c r="W58" s="4"/>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>0.56000000000000005</v>
       </c>
@@ -12232,23 +13426,29 @@
       <c r="O59">
         <v>3.1665320972471489E-2</v>
       </c>
-      <c r="Q59" s="6">
-        <f t="shared" si="0"/>
+      <c r="P59">
+        <v>2.7321248485701562E-2</v>
+      </c>
+      <c r="Q59">
+        <v>5.1976644337524115E-2</v>
+      </c>
+      <c r="S59" s="5">
+        <f>0.35+B49*1.05</f>
         <v>0.83299999999999996</v>
       </c>
-      <c r="R59" s="6">
+      <c r="T59" s="5">
         <v>1.52</v>
       </c>
-      <c r="S59" s="6">
+      <c r="U59" s="5">
         <f t="shared" si="1"/>
         <v>1.4399981999999978E-2</v>
       </c>
-      <c r="T59" s="4">
+      <c r="V59" s="4">
         <v>1.4524272569249099</v>
       </c>
-      <c r="U59" s="4"/>
+      <c r="W59" s="4"/>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>0.56999999999999995</v>
       </c>
@@ -12288,23 +13488,29 @@
       <c r="O60">
         <v>3.3860544470317853E-2</v>
       </c>
-      <c r="Q60" s="6">
-        <f t="shared" si="0"/>
+      <c r="P60">
+        <v>3.0365860271222383E-2</v>
+      </c>
+      <c r="Q60">
+        <v>5.3947226422581256E-2</v>
+      </c>
+      <c r="S60" s="5">
+        <f>0.35+B50*1.05</f>
         <v>0.84349999999999992</v>
       </c>
-      <c r="R60" s="6">
+      <c r="T60" s="5">
         <v>1.5149999999999999</v>
       </c>
-      <c r="S60" s="6">
+      <c r="U60" s="5">
         <f t="shared" si="1"/>
         <v>1.4566647999999977E-2</v>
       </c>
-      <c r="T60" s="4">
+      <c r="V60" s="4">
         <v>1.4085199175878982</v>
       </c>
-      <c r="U60" s="4"/>
+      <c r="W60" s="4"/>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>0.57999999999999996</v>
       </c>
@@ -12344,23 +13550,29 @@
       <c r="O61">
         <v>3.4172761766274935E-2</v>
       </c>
-      <c r="Q61" s="6">
-        <f t="shared" si="0"/>
+      <c r="P61">
+        <v>3.0506371777700388E-2</v>
+      </c>
+      <c r="Q61">
+        <v>5.529439642612724E-2</v>
+      </c>
+      <c r="S61" s="5">
+        <f>0.35+B51*1.05</f>
         <v>0.85399999999999998</v>
       </c>
-      <c r="R61" s="6">
+      <c r="T61" s="5">
         <v>1.51</v>
       </c>
-      <c r="S61" s="6">
+      <c r="U61" s="5">
         <f t="shared" si="1"/>
         <v>1.4733313999999977E-2</v>
       </c>
-      <c r="T61" s="4">
+      <c r="V61" s="4">
         <v>1.4643441757348503</v>
       </c>
-      <c r="U61" s="4"/>
+      <c r="W61" s="4"/>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>0.59</v>
       </c>
@@ -12400,23 +13612,29 @@
       <c r="O62">
         <v>3.7223124979483727E-2</v>
       </c>
-      <c r="Q62" s="6">
-        <f t="shared" si="0"/>
+      <c r="P62">
+        <v>3.3699067065505371E-2</v>
+      </c>
+      <c r="Q62">
+        <v>5.8382930718604918E-2</v>
+      </c>
+      <c r="S62" s="5">
+        <f>0.35+B52*1.05</f>
         <v>0.86449999999999994</v>
       </c>
-      <c r="R62" s="6">
+      <c r="T62" s="5">
         <v>1.5049999999999999</v>
       </c>
-      <c r="S62" s="6">
+      <c r="U62" s="5">
         <f t="shared" si="1"/>
         <v>1.4899979999999976E-2</v>
       </c>
-      <c r="T62" s="4">
+      <c r="V62" s="4">
         <v>1.4535082756319282</v>
       </c>
-      <c r="U62" s="4"/>
+      <c r="W62" s="4"/>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>0.6</v>
       </c>
@@ -12456,32 +13674,39 @@
       <c r="O63">
         <v>3.7325443362713269E-2</v>
       </c>
-      <c r="Q63" s="6">
-        <f t="shared" si="0"/>
+      <c r="P63">
+        <v>3.3132345418758521E-2</v>
+      </c>
+      <c r="Q63">
+        <v>5.9374950154708749E-2</v>
+      </c>
+      <c r="S63" s="5">
+        <f>0.35+B53*1.05</f>
         <v>0.875</v>
       </c>
-      <c r="R63" s="6">
+      <c r="T63" s="5">
         <v>1.5</v>
       </c>
-      <c r="S63" s="6">
+      <c r="U63" s="5">
         <f t="shared" si="1"/>
         <v>1.5066645999999975E-2</v>
       </c>
-      <c r="T63" s="4">
+      <c r="V63" s="4">
         <v>1.4177343506693725</v>
       </c>
-      <c r="U63" s="4"/>
+      <c r="W63" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="Q2:R2"/>
+  <mergeCells count="9">
     <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/outputs/V3 Benchmark Results.xlsx
+++ b/outputs/V3 Benchmark Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samlo\Desktop\Thesis\thesis-code\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750462CB-46F1-45CE-AE8B-E1A973DEDC89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B88174-8B28-4F19-A78F-A3B7C1C269FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Time</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>End2End v4.1</t>
+  </si>
+  <si>
+    <t>End2End v5</t>
   </si>
 </sst>
 </file>
@@ -220,10 +223,10 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
-            <c:v>End2End</c:v>
+            <c:v>Nima Black Box</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -237,11 +240,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -434,209 +441,211 @@
                   <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$63</c:f>
+              <c:f>Sheet1!$V$4:$V$63</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>1.0315980867764824E-2</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0261948072817949E-2</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6306360467998684E-3</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6034624323079283E-3</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3419068133730769E-3</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3608412591503426E-3</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5669830494060819E-3</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5959883771282372E-3</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.7277619202054003E-3</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.6914346145514666E-3</c:v>
+                  <c:v>1.85</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8101880082999545E-3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.7400434972340815E-3</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.7677374604783597E-3</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.6332502947957072E-3</c:v>
+                  <c:v>2.2400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0119703815857276E-3</c:v>
+                  <c:v>2.2599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.8612019906429192E-3</c:v>
+                  <c:v>2.3199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.569137005647768E-3</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.519831343496714E-3</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.6866973310466677E-3</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.6955697112668269E-3</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.902473823123154E-3</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.9471922337486659E-3</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.3636340780280242E-3</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.3714995094861218E-3</c:v>
+                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0135660336306937E-2</c:v>
+                  <c:v>2.31</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0144288054021421E-2</c:v>
+                  <c:v>2.2799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.113311692118186E-2</c:v>
+                  <c:v>2.2400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1138766172644119E-2</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.202454344166282E-2</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2054122752869793E-2</c:v>
+                  <c:v>2.12</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2714639195234466E-2</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.2777836607415036E-2</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3762171709644682E-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3865357345812977E-2</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.5300796141394263E-2</c:v>
+                  <c:v>1.92</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.5442788816268444E-2</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.7339257057110619E-2</c:v>
+                  <c:v>1.84</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.7480152082797764E-2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.9627818734445964E-2</c:v>
+                  <c:v>1.76</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.9779887039092996E-2</c:v>
+                  <c:v>1.72</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.1830487122229635E-2</c:v>
+                  <c:v>1.69</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.1881489101922266E-2</c:v>
+                  <c:v>1.66</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.3576146195033232E-2</c:v>
+                  <c:v>1.64</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.3650660294975492E-2</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.5422509060258055E-2</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.5567965831413037E-2</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.7542264066363689E-2</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.7682820009992937E-2</c:v>
+                  <c:v>1.59</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.9901703004940449E-2</c:v>
+                  <c:v>1.58</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.9998054920825676E-2</c:v>
+                  <c:v>1.57</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.2359703774576851E-2</c:v>
+                  <c:v>1.56</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.2496929607544953E-2</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.5054864610206182E-2</c:v>
+                  <c:v>1.54</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.5183219642238708E-2</c:v>
+                  <c:v>1.53</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.7932220708238588E-2</c:v>
+                  <c:v>1.5249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.8039720451003928E-2</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.1508597391151827E-2</c:v>
+                  <c:v>1.5149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.1630801513784385E-2</c:v>
+                  <c:v>1.51</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.6322725435341008E-2</c:v>
+                  <c:v>1.5049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.6516443786455301E-2</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FCA3-4B26-AA4C-C10C985D8AD5}"/>
+              <c16:uniqueId val="{00000006-FCA3-4B26-AA4C-C10C985D8AD5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
-            <c:v>End2End V4</c:v>
+            <c:v>Nima Hybtid</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -650,11 +659,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -852,189 +865,189 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$4:$O$63</c:f>
+              <c:f>Sheet1!$X$4:$X$63</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>2.1801696345425579E-2</c:v>
+                  <c:v>8.8512356233723631E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2060422773599691E-2</c:v>
+                  <c:v>3.3409822664929929E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6490897315024091E-2</c:v>
+                  <c:v>6.8220506029806893E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6489623319040764E-2</c:v>
+                  <c:v>0.11408207797396656</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0261875640461256E-2</c:v>
+                  <c:v>0.16298991169519755</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0107869096834364E-2</c:v>
+                  <c:v>0.22651715893651034</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3611561500662029E-2</c:v>
+                  <c:v>0.27727647574216852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3270472419781064E-2</c:v>
+                  <c:v>0.34125579956700436</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.118739317300224E-2</c:v>
+                  <c:v>0.39032289299445644</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1054596212206109E-2</c:v>
+                  <c:v>0.4634628148021695</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1914098185517525E-2</c:v>
+                  <c:v>0.49442388485130823</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.167228477562767E-2</c:v>
+                  <c:v>0.5622852130454552</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2270992524831393E-2</c:v>
+                  <c:v>0.5977775151987621</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1994725047935228E-2</c:v>
+                  <c:v>0.61902240672764419</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3448661848322869E-2</c:v>
+                  <c:v>0.65351089016484154</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3297725610001704E-2</c:v>
+                  <c:v>0.70176304693491443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.352366949724894E-2</c:v>
+                  <c:v>0.72696945922780565</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3275045474400284E-2</c:v>
+                  <c:v>0.75108966881881012</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5362042856807002E-2</c:v>
+                  <c:v>0.75622353350944305</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.5613656711807702E-2</c:v>
+                  <c:v>0.82074311533911204</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3524401030988767E-2</c:v>
+                  <c:v>0.82281099328663998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.4549454519130404E-2</c:v>
+                  <c:v>0.89355266350826223</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.3928312618387227E-2</c:v>
+                  <c:v>0.92511851027435188</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.5217468651153742E-2</c:v>
+                  <c:v>0.93388374375819727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.5742142646770459E-2</c:v>
+                  <c:v>1.0172166919366175</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.7070788035773001E-2</c:v>
+                  <c:v>1.0497542265823365</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.7348440254261679E-2</c:v>
+                  <c:v>1.0741603898003038</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.8604029302262593E-2</c:v>
+                  <c:v>1.1285892348925854</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.874306774597973E-2</c:v>
+                  <c:v>1.1496497644336141</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.015442049072016E-2</c:v>
+                  <c:v>1.2049713131543704</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.941824396794309E-2</c:v>
+                  <c:v>1.2387553097242325</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0674073217596697E-2</c:v>
+                  <c:v>1.2680061389637507</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0630246624844912E-2</c:v>
+                  <c:v>1.2824932702128446</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.1052703064894008E-2</c:v>
+                  <c:v>1.3088724504424194</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.9917298474725837E-2</c:v>
+                  <c:v>1.3386610080076067</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.0500851586730441E-2</c:v>
+                  <c:v>1.3286004044839204</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.9128248280874184E-2</c:v>
+                  <c:v>1.3112695165481045</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.8981132596399659E-2</c:v>
+                  <c:v>1.3193084992668407</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.705457006607109E-2</c:v>
+                  <c:v>1.3111275290512265</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.6949136018615878E-2</c:v>
+                  <c:v>1.2872478577671087</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.5694830073770537E-2</c:v>
+                  <c:v>1.2548637392265976</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.5720038175917854E-2</c:v>
+                  <c:v>1.2912065289430401</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.5545201443351019E-2</c:v>
+                  <c:v>1.271295865426741</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.5609044309583037E-2</c:v>
+                  <c:v>1.2687975383464345</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.617096546857681E-2</c:v>
+                  <c:v>1.3203134392346885</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.6829595365962713E-2</c:v>
+                  <c:v>1.3214330592428734</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.7638271852263425E-2</c:v>
+                  <c:v>1.3568162038913754</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.8513361621349907E-2</c:v>
+                  <c:v>1.3623011149770488</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.9214721439851044E-2</c:v>
+                  <c:v>1.3445208931116512</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.9565798338932588E-2</c:v>
+                  <c:v>1.3434651952683176</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.9598864004512806E-2</c:v>
+                  <c:v>1.3887419832911747</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.9898514390122869E-2</c:v>
+                  <c:v>1.389005269559288</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.0211918265319347E-2</c:v>
+                  <c:v>1.3813181676659125</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.0363712832342175E-2</c:v>
+                  <c:v>1.3753449064145455</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.1435728051098878E-2</c:v>
+                  <c:v>1.4125475955352327</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.1665320972471489E-2</c:v>
+                  <c:v>1.4524272569249099</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.3860544470317853E-2</c:v>
+                  <c:v>1.4085199175878982</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.4172761766274935E-2</c:v>
+                  <c:v>1.4643441757348503</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.7223124979483727E-2</c:v>
+                  <c:v>1.4535082756319282</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.7325443362713269E-2</c:v>
+                  <c:v>1.4177343506693725</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1043,7 +1056,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FCA3-4B26-AA4C-C10C985D8AD5}"/>
+              <c16:uniqueId val="{00000007-FCA3-4B26-AA4C-C10C985D8AD5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1266,199 +1279,201 @@
                   <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$4:$Q$63</c:f>
+              <c:f>Sheet1!$P$4:$P$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>4.7474409123637717E-3</c:v>
+                  <c:v>2.5613805046170559E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0530658376194979E-3</c:v>
+                  <c:v>2.6041779773114501E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6740143851455784E-3</c:v>
+                  <c:v>2.40040008673888E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9178303843597018E-3</c:v>
+                  <c:v>2.4309546519926755E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7253748934132012E-3</c:v>
+                  <c:v>2.666361451839812E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3558435604529097E-3</c:v>
+                  <c:v>2.6924833677750082E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0524484177986466E-2</c:v>
+                  <c:v>3.0582107950011929E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0980241059532421E-2</c:v>
+                  <c:v>3.0874122830483338E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5234354456336353E-2</c:v>
+                  <c:v>3.6466757558791208E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5911602389796258E-2</c:v>
+                  <c:v>3.6402800750476244E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7681276100775786E-2</c:v>
+                  <c:v>3.8714324107588108E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7853324436522627E-2</c:v>
+                  <c:v>3.9072555432128064E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9791903480189225E-2</c:v>
+                  <c:v>4.4387195773841004E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0121364571603191E-2</c:v>
+                  <c:v>4.5172871340113715E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2110125497500761E-2</c:v>
+                  <c:v>5.4889588158766166E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2366402342980013E-2</c:v>
+                  <c:v>5.5202167677298611E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4756959660510558E-2</c:v>
+                  <c:v>5.4366032471251406E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4772348478561256E-2</c:v>
+                  <c:v>5.4746572616829175E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.6635998581376746E-2</c:v>
+                  <c:v>5.9093343892974758E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6510789256380483E-2</c:v>
+                  <c:v>6.0011549584850585E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7507612839627178E-2</c:v>
+                  <c:v>6.9826800409691931E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.7938525883709299E-2</c:v>
+                  <c:v>7.2088865567442612E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.8088861665529461E-2</c:v>
+                  <c:v>7.5114391254159519E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.8740057590507889E-2</c:v>
+                  <c:v>7.6618197679286324E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.9280432111481625E-2</c:v>
+                  <c:v>8.3639824474403546E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.9165031675378639E-2</c:v>
+                  <c:v>8.5757715652189752E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0603657387655029E-2</c:v>
+                  <c:v>8.4324673764945984E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.0853633616491759E-2</c:v>
+                  <c:v>8.6706970074229475E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.3067705412172015E-2</c:v>
+                  <c:v>9.3125339079996369E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.3003635952102463E-2</c:v>
+                  <c:v>9.5988483643667192E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.5078569193074574E-2</c:v>
+                  <c:v>1.0257068140816984E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.5845596512918944E-2</c:v>
+                  <c:v>1.0471064490932136E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.7556148729643822E-2</c:v>
+                  <c:v>1.0971256975325973E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.7179197730276906E-2</c:v>
+                  <c:v>1.114176031522273E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.9680502367639321E-2</c:v>
+                  <c:v>1.1558374832117985E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.993479868644792E-2</c:v>
+                  <c:v>1.1780183248657563E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.1989167860636799E-2</c:v>
+                  <c:v>1.227913569700511E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.176123513517465E-2</c:v>
+                  <c:v>1.2653088404954308E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.2842529977521346E-2</c:v>
+                  <c:v>1.3809663719739991E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.3535833438278854E-2</c:v>
+                  <c:v>1.4118209044076641E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.4852975042522926E-2</c:v>
+                  <c:v>1.4851793425527825E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.5515415449659105E-2</c:v>
+                  <c:v>1.5092284456958965E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.8668775865294861E-2</c:v>
+                  <c:v>1.7014365979382506E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.9090131002704963E-2</c:v>
+                  <c:v>1.7293404483506636E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.0218838299171592E-2</c:v>
+                  <c:v>1.9421988759005204E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.0517984454281906E-2</c:v>
+                  <c:v>1.9558962798543311E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.1520109779181839E-2</c:v>
+                  <c:v>2.0955655947199569E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.1688372879820955E-2</c:v>
+                  <c:v>2.1096633712642424E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.2456408875725953E-2</c:v>
+                  <c:v>2.2128027474583853E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.2070478034338459E-2</c:v>
+                  <c:v>2.2077745385363095E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.1899228271494395E-2</c:v>
+                  <c:v>2.2937955360927621E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.1860197924064343E-2</c:v>
+                  <c:v>2.2996836585453623E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.1004151663079589E-2</c:v>
+                  <c:v>2.506321576407158E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.1236611487045954E-2</c:v>
+                  <c:v>2.5077229650665743E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.1758921257395528E-2</c:v>
+                  <c:v>2.7275300357309365E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.1976644337524115E-2</c:v>
+                  <c:v>2.7321248485701562E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.3947226422581256E-2</c:v>
+                  <c:v>3.0365860271222383E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.529439642612724E-2</c:v>
+                  <c:v>3.0506371777700388E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.8382930718604918E-2</c:v>
+                  <c:v>3.3699067065505371E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.9374950154708749E-2</c:v>
+                  <c:v>3.3132345418758521E-2</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-FCA3-4B26-AA4C-C10C985D8AD5}"/>
             </c:ext>
@@ -2759,6 +2774,433 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>End2End</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$4:$B$63</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="60"/>
+                      <c:pt idx="0">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.06</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.14000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.28000000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.28999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.43</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.44</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.46</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.47</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.48</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.49</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.51</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.52</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.54</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.56000000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.56999999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.57999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.59</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$J$4:$J$63</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00000</c:formatCode>
+                      <c:ptCount val="60"/>
+                      <c:pt idx="0">
+                        <c:v>1.0315980867764824E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0261948072817949E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.6306360467998684E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.6034624323079283E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.3419068133730769E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.3608412591503426E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8.5669830494060819E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.5959883771282372E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.7277619202054003E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8.6914346145514666E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8.8101880082999545E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8.7400434972340815E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8.7677374604783597E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>8.6332502947957072E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>9.0119703815857276E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>8.8612019906429192E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>8.569137005647768E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>8.519831343496714E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>8.6866973310466677E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>8.6955697112668269E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>8.902473823123154E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>8.9471922337486659E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>9.3636340780280242E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>9.3714995094861218E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.0135660336306937E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.0144288054021421E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.113311692118186E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.1138766172644119E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.202454344166282E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.2054122752869793E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.2714639195234466E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1.2777836607415036E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1.3762171709644682E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1.3865357345812977E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1.5300796141394263E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1.5442788816268444E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>1.7339257057110619E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1.7480152082797764E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>1.9627818734445964E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1.9779887039092996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2.1830487122229635E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2.1881489101922266E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>2.3576146195033232E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2.3650660294975492E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>2.5422509060258055E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>2.5567965831413037E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>2.7542264066363689E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>2.7682820009992937E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>2.9901703004940449E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>2.9998054920825676E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>3.2359703774576851E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>3.2496929607544953E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>3.5054864610206182E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>3.5183219642238708E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>3.7932220708238588E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>3.8039720451003928E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>4.1508597391151827E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>4.1630801513784385E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>4.6322725435341008E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>4.6516443786455301E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-FCA3-4B26-AA4C-C10C985D8AD5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
                 <c:tx>
@@ -3186,10 +3628,10 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
+                <c:idx val="5"/>
+                <c:order val="5"/>
                 <c:tx>
-                  <c:v>Nima Black Box</c:v>
+                  <c:v>End2End V4</c:v>
                 </c:tx>
                 <c:spPr>
                   <a:ln w="25400" cap="rnd">
@@ -3203,13 +3645,440 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent1">
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$4:$B$63</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="60"/>
+                      <c:pt idx="0">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.06</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.14000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.28000000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.28999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.43</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.44</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.46</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.47</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.48</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.49</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.51</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.52</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.54</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.56000000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.56999999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.57999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.59</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$N$4:$N$63</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="60"/>
+                      <c:pt idx="0">
+                        <c:v>9.7843716018003821E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9.8133596594462223E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.1397403852313462E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.1486693467089385E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.0273809417607858E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0390421321084453E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.0401162339623817E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.0548588790186907E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.0470066452439234E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.0656349424314943E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9.8117394627815508E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>9.9732434777077012E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>9.6168900938324118E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>9.7961622345683081E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.0189031161889819E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.0330752624512581E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.0294818455784307E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.0395554643683925E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.1156069990568647E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.119579456344127E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.3593025675377856E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.3715684577504633E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.2444721246607313E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.2513920789056873E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.2978456739526198E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.3122725920534237E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.4270988039732296E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.4458264958793621E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.5788157269648696E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.5925913978137352E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.613323218768566E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1.6382092344476167E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1.6303011762192392E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1.6597382605126183E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1.7140761799675653E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1.7435505039841568E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>1.8214300565645145E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1.854146092049019E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>1.8306030057104457E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1.8551957810210656E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>1.9539415318907377E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>1.9831686382813608E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>2.0006187813930616E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2.0142764749327181E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>2.0711513552285888E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>2.0907235764732655E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>2.23521206124489E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>2.2634861909953497E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>2.5322623558087121E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>2.5713408791697649E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>2.8018379381909122E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>2.8470230704030763E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>2.9507832063299367E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>2.9884705285275072E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>3.1484818710513035E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>3.1742150054568E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>3.3924229381610903E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>3.4136448043334294E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>4.0701202567478022E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>4.0901277324873836E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-FCA3-4B26-AA4C-C10C985D8AD5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:v>End2End v5</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent1">
+                        <a:schemeClr val="accent4">
                           <a:lumMod val="60000"/>
                         </a:schemeClr>
                       </a:solidFill>
@@ -3417,243 +4286,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$T$4:$T$63</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0000</c:formatCode>
-                      <c:ptCount val="60"/>
-                      <c:pt idx="0">
-                        <c:v>0.48</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.52</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1.1000000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1.3</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1.4</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1.6</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1.75</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1.85</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2.1</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2.1800000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>2.2400000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2.2599999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2.3199999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>2.35</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>2.37</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>2.39</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2.4</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2.39</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2.38</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2.36</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2.34</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2.31</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2.2799999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2.2400000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2.2000000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2.16</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>2.12</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>2.08</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>2.04</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>1.96</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>1.92</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>1.88</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>1.84</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>1.8</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>1.76</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>1.72</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>1.69</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>1.66</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>1.64</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>1.63</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>1.62</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>1.61</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>1.6</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>1.59</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>1.58</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>1.57</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>1.56</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>1.55</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>1.54</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>1.53</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>1.5249999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>1.52</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>1.5149999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>1.51</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>1.5049999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>1.5</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-FCA3-4B26-AA4C-C10C985D8AD5}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:tx>
-                  <c:v>Nima Hybtid</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="25400" cap="rnd">
-                    <a:noFill/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4:$B$63</c15:sqref>
+                          <c15:sqref>Sheet1!$R$4:$R$63</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3661,379 +4294,184 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="60"/>
                       <c:pt idx="0">
-                        <c:v>0.01</c:v>
+                        <c:v>3.0796687088072037E-3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.02</c:v>
+                        <c:v>3.1871262986079862E-3</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.03</c:v>
+                        <c:v>2.6998426378382415E-3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.04</c:v>
+                        <c:v>2.7470869630256793E-3</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.05</c:v>
+                        <c:v>2.6416949323478708E-3</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.06</c:v>
+                        <c:v>2.7251745284893095E-3</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>7.0000000000000007E-2</c:v>
+                        <c:v>2.8402679889380457E-3</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.08</c:v>
+                        <c:v>2.9233512001700427E-3</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.09</c:v>
+                        <c:v>3.2403531568281955E-3</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.1</c:v>
+                        <c:v>3.292921960401781E-3</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.11</c:v>
+                        <c:v>3.4772564109054765E-3</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.12</c:v>
+                        <c:v>3.4858583239695557E-3</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.13</c:v>
+                        <c:v>3.7836094417080589E-3</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.14000000000000001</c:v>
+                        <c:v>3.7993199892503507E-3</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.15</c:v>
+                        <c:v>4.2785729401455834E-3</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.16</c:v>
+                        <c:v>4.3157865825773425E-3</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.17</c:v>
+                        <c:v>4.443217023456035E-3</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.18</c:v>
+                        <c:v>4.4629861221136798E-3</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0.19</c:v>
+                        <c:v>4.9656455238242343E-3</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0.2</c:v>
+                        <c:v>5.069393312578622E-3</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.21</c:v>
+                        <c:v>5.6203904851136266E-3</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.22</c:v>
+                        <c:v>5.6706312280327921E-3</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.23</c:v>
+                        <c:v>6.1157134360593467E-3</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.24</c:v>
+                        <c:v>6.1652177673531374E-3</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.25</c:v>
+                        <c:v>6.6710391544723326E-3</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>0.26</c:v>
+                        <c:v>6.7691550879159122E-3</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>0.27</c:v>
+                        <c:v>7.6153484610106794E-3</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>0.28000000000000003</c:v>
+                        <c:v>7.6997087657111139E-3</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>0.28999999999999998</c:v>
+                        <c:v>8.471803428808029E-3</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>0.3</c:v>
+                        <c:v>8.5149028552682048E-3</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>0.31</c:v>
+                        <c:v>9.2966932369632251E-3</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>0.32</c:v>
+                        <c:v>9.3008785053435589E-3</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>0.33</c:v>
+                        <c:v>1.000140981540964E-2</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>0.34</c:v>
+                        <c:v>9.9366859718335396E-3</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>0.35</c:v>
+                        <c:v>1.0814162555164177E-2</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>0.36</c:v>
+                        <c:v>1.0694752392320496E-2</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>0.37</c:v>
+                        <c:v>1.1621936830094196E-2</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>0.38</c:v>
+                        <c:v>1.1488870720853205E-2</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>0.39</c:v>
+                        <c:v>1.2861210378014376E-2</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>0.4</c:v>
+                        <c:v>1.2766367430498471E-2</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>0.41</c:v>
+                        <c:v>1.3835965662616545E-2</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>0.42</c:v>
+                        <c:v>1.3912762182871092E-2</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>0.43</c:v>
+                        <c:v>1.4886555599394682E-2</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>0.44</c:v>
+                        <c:v>1.4920250201393804E-2</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>0.45</c:v>
+                        <c:v>1.6565089932441237E-2</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>0.46</c:v>
+                        <c:v>1.6632339860832138E-2</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>0.47</c:v>
+                        <c:v>1.7985083979668828E-2</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>0.48</c:v>
+                        <c:v>1.8123962889293532E-2</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>0.49</c:v>
+                        <c:v>1.9531948995760742E-2</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>0.5</c:v>
+                        <c:v>1.9646325260054311E-2</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>0.51</c:v>
+                        <c:v>2.0907693404666711E-2</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>0.52</c:v>
+                        <c:v>2.1152135444381201E-2</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>0.53</c:v>
+                        <c:v>2.2850182113899244E-2</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>0.54</c:v>
+                        <c:v>2.3189172022622655E-2</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>0.55000000000000004</c:v>
+                        <c:v>2.4425070875385556E-2</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>0.56000000000000005</c:v>
+                        <c:v>2.4799291622448261E-2</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>0.56999999999999995</c:v>
+                        <c:v>2.6027903857764306E-2</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>0.57999999999999996</c:v>
+                        <c:v>2.6309585644086274E-2</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>0.59</c:v>
+                        <c:v>2.8985410931227709E-2</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$V$4:$V$63</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00000</c:formatCode>
-                      <c:ptCount val="60"/>
-                      <c:pt idx="0">
-                        <c:v>8.8512356233723631E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3.3409822664929929E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>6.8220506029806893E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.11408207797396656</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.16298991169519755</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.22651715893651034</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.27727647574216852</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.34125579956700436</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.39032289299445644</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.4634628148021695</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.49442388485130823</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.5622852130454552</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.5977775151987621</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.61902240672764419</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.65351089016484154</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.70176304693491443</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.72696945922780565</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0.75108966881881012</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.75622353350944305</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.82074311533911204</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.82281099328663998</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.89355266350826223</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.92511851027435188</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0.93388374375819727</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>1.0172166919366175</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>1.0497542265823365</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>1.0741603898003038</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>1.1285892348925854</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>1.1496497644336141</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>1.2049713131543704</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>1.2387553097242325</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>1.2680061389637507</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>1.2824932702128446</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>1.3088724504424194</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>1.3386610080076067</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>1.3286004044839204</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>1.3112695165481045</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>1.3193084992668407</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>1.3111275290512265</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>1.2872478577671087</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>1.2548637392265976</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>1.2912065289430401</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>1.271295865426741</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>1.2687975383464345</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>1.3203134392346885</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>1.3214330592428734</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>1.3568162038913754</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>1.3623011149770488</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>1.3445208931116512</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>1.3434651952683176</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>1.3887419832911747</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>1.389005269559288</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>1.3813181676659125</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>1.3753449064145455</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>1.4125475955352327</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>1.4524272569249099</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>1.4085199175878982</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>1.4643441757348503</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>1.4535082756319282</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>1.4177343506693725</c:v>
+                        <c:v>2.9389528445667605E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4041,7 +4479,7 @@
                 <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-FCA3-4B26-AA4C-C10C985D8AD5}"/>
+                    <c16:uniqueId val="{00000001-38FE-486A-B775-AFA4F6C7DD7A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -4132,7 +4570,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4342,6 +4780,1251 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Full Hybrid</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>5.2160568996936763E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9437281831404902E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0733784041818103E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7516080336667032E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8309767018940133E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3158642052214014E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6607310924270816E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0077653283974366E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3474962003354749E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6702946493192936E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9700418905633252E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2415797810419637E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.484576833067507E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7025707447791052E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8990110307021625E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0753909830463911E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2380691820193071E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.3966620264582576E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5615180990948183E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7393981373697526E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.9317340999859932E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1369253335763303E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.357038511981467E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.593526457346968E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8445082943522388E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1033497911669378E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.3585650340260244E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.6022041702519782E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.8300434477280111E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.0462863261608208E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.2482018787159819E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.429546374046922E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.5793526920489032E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.6843346677511276E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.7393903497300007E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.7504341753227374E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.7270671452955894E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.6800126375590846E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.6189892424063668E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.5576194033630029E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.5111069167359878E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.4910904978472498E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.5058791958688142E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.5569899440179195E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.6359367641265663E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.7295316191189511E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.8221530910144832E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.9065158312697781E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.9806436086288651E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.0509624116435974E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.1185462224415902E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.1800943967473463E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.230859576487759E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.2788156758642623E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.3299509312623046E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.3798848936835979E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.423514970462688E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.4556001047978113E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.4747419808238036E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.4803272980241984E-2</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Accel Error</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>6.0868920715911119E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2613003589487782E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7119973541596078E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7556465002931833E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1220612770463483E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4961294677736209E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8871538567346472E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2865602891022182E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6866589798155184E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0766069692711853E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4433072210266265E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7778880627124957E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0795937658069353E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3526419437722334E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6009468783511677E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8318461897824273E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0567749347266593E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2880828857492651E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.5351835362093052E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8073957903236287E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.1074696456763944E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4288062788419642E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.7671585652568672E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.1255301057241371E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4981190638728323E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.8699279491891372E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.2249563218697086E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.5543298197581663E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.8619511937067255E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.1480699137034771E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.4150607008540721E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.6557929233753573E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.8651902576005659E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.10035884321627218</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.10162194796357778</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.10240698561572702</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10281390828141418</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.10292348191189685</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.10284492848212633</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.10273097011729999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.10267796039881152</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.10279207944343806</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.10318962064639564</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.10388816900752594</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.10486458856218649</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.10605161802567246</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.10733346844900442</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.10858577089042279</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.10971112072269447</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.11063977879608114</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.11130841717971281</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1116651141054214</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.11173655189362711</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.11157889001588908</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.1113237090063536</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.11104143704697625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.11078133345352409</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.11050686911221075</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.11018310586486973</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.10981966356889726</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Motor Hybrid</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>4.1069388901132924E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5231356439922238E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1763515863235284E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2338786105074796E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5798304945253634E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0114497069725854E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2745093230484943E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5371814315377175E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7883999386287781E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0173945614050271E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2169860706746584E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.385237215283385E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5246750521877494E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.639313686683906E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7333067619709259E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8111619069059641E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8795605135290246E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9477162287170424E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0253369198703865E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1194077400707558E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2320670154115758E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3619868981721E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5067441588871352E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6643383562127783E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8319331379701969E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0042460256866398E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1740165946707035E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.3345834275654659E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.4825188318177424E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.6158801915333447E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.731074180714788E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.8201579866245813E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.8737863462873156E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.8849796081496921E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.8523477453461E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.7802822114285298E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.6783895265917121E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5593180940079997E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.4358363880850925E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3197156909061077E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.2217196840455017E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1512342943075722E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.1137109435339408E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.1092178062686384E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.1322448934423391E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.1734549659212805E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.2225920955260746E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.2719298585753906E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.3166088915300056E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.3535070949311055E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.379842645552047E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.3949515583730628E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.4013989470007002E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.4045118384486888E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.4081419064829687E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.4120768624780239E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.4127463990242047E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.4066911535746912E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.3927030864302573E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.3720130901436678E-2</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -4556,6 +6239,7 @@
                   <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -4745,10 +6429,11 @@
                   <c:v>4.5983980412734528E-2</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
             </c:ext>
@@ -4974,189 +6659,607 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$4:$N$63</c:f>
+              <c:f>Sheet1!$O$4:$O$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>9.7843716018003821E-3</c:v>
+                  <c:v>2.1801696345425579E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8133596594462223E-3</c:v>
+                  <c:v>2.2060422773599691E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1397403852313462E-2</c:v>
+                  <c:v>1.6490897315024091E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1486693467089385E-2</c:v>
+                  <c:v>1.6489623319040764E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0273809417607858E-2</c:v>
+                  <c:v>2.0261875640461256E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0390421321084453E-2</c:v>
+                  <c:v>2.0107869096834364E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0401162339623817E-2</c:v>
+                  <c:v>2.3611561500662029E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0548588790186907E-2</c:v>
+                  <c:v>2.3270472419781064E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0470066452439234E-2</c:v>
+                  <c:v>2.118739317300224E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0656349424314943E-2</c:v>
+                  <c:v>2.1054596212206109E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.8117394627815508E-3</c:v>
+                  <c:v>2.1914098185517525E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9732434777077012E-3</c:v>
+                  <c:v>2.167228477562767E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.6168900938324118E-3</c:v>
+                  <c:v>2.2270992524831393E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.7961622345683081E-3</c:v>
+                  <c:v>2.1994725047935228E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0189031161889819E-2</c:v>
+                  <c:v>2.3448661848322869E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0330752624512581E-2</c:v>
+                  <c:v>2.3297725610001704E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0294818455784307E-2</c:v>
+                  <c:v>2.352366949724894E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0395554643683925E-2</c:v>
+                  <c:v>2.3275045474400284E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1156069990568647E-2</c:v>
+                  <c:v>2.5362042856807002E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.119579456344127E-2</c:v>
+                  <c:v>2.5613656711807702E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3593025675377856E-2</c:v>
+                  <c:v>2.3524401030988767E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3715684577504633E-2</c:v>
+                  <c:v>2.4549454519130404E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2444721246607313E-2</c:v>
+                  <c:v>2.3928312618387227E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2513920789056873E-2</c:v>
+                  <c:v>2.5217468651153742E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2978456739526198E-2</c:v>
+                  <c:v>2.5742142646770459E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3122725920534237E-2</c:v>
+                  <c:v>2.7070788035773001E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.4270988039732296E-2</c:v>
+                  <c:v>2.7348440254261679E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.4458264958793621E-2</c:v>
+                  <c:v>2.8604029302262593E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.5788157269648696E-2</c:v>
+                  <c:v>2.874306774597973E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.5925913978137352E-2</c:v>
+                  <c:v>3.015442049072016E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.613323218768566E-2</c:v>
+                  <c:v>2.941824396794309E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.6382092344476167E-2</c:v>
+                  <c:v>3.0674073217596697E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.6303011762192392E-2</c:v>
+                  <c:v>3.0630246624844912E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.6597382605126183E-2</c:v>
+                  <c:v>3.1052703064894008E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.7140761799675653E-2</c:v>
+                  <c:v>2.9917298474725837E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.7435505039841568E-2</c:v>
+                  <c:v>3.0500851586730441E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.8214300565645145E-2</c:v>
+                  <c:v>2.9128248280874184E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.854146092049019E-2</c:v>
+                  <c:v>2.8981132596399659E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.8306030057104457E-2</c:v>
+                  <c:v>2.705457006607109E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.8551957810210656E-2</c:v>
+                  <c:v>2.6949136018615878E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.9539415318907377E-2</c:v>
+                  <c:v>2.5694830073770537E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.9831686382813608E-2</c:v>
+                  <c:v>2.5720038175917854E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.0006187813930616E-2</c:v>
+                  <c:v>2.5545201443351019E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.0142764749327181E-2</c:v>
+                  <c:v>2.5609044309583037E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.0711513552285888E-2</c:v>
+                  <c:v>2.617096546857681E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.0907235764732655E-2</c:v>
+                  <c:v>2.6829595365962713E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.23521206124489E-2</c:v>
+                  <c:v>2.7638271852263425E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.2634861909953497E-2</c:v>
+                  <c:v>2.8513361621349907E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.5322623558087121E-2</c:v>
+                  <c:v>2.9214721439851044E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.5713408791697649E-2</c:v>
+                  <c:v>2.9565798338932588E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.8018379381909122E-2</c:v>
+                  <c:v>2.9598864004512806E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.8470230704030763E-2</c:v>
+                  <c:v>2.9898514390122869E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.9507832063299367E-2</c:v>
+                  <c:v>3.0211918265319347E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.9884705285275072E-2</c:v>
+                  <c:v>3.0363712832342175E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.1484818710513035E-2</c:v>
+                  <c:v>3.1435728051098878E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.1742150054568E-2</c:v>
+                  <c:v>3.1665320972471489E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.3924229381610903E-2</c:v>
+                  <c:v>3.3860544470317853E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.4136448043334294E-2</c:v>
+                  <c:v>3.4172761766274935E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.0701202567478022E-2</c:v>
+                  <c:v>3.7223124979483727E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.0901277324873836E-2</c:v>
+                  <c:v>3.7325443362713269E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Nima Hybrid</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$4:$W$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.8000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2000000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.4000000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.8000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.3999999999999986E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.5999999999999974E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.6999999999999968E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.7999999999999962E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.8999999999999956E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0066665999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0233331999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0399997999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0566663999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0733329999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0899995999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1066661999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.123332799999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.139999399999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1566659999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1733325999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1899991999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2066657999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2233323999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2399989999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.2566655999999985E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.2733321999999984E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2899987999999984E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.3066653999999983E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3233319999999982E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3399985999999982E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.3566651999999981E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.373331799999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.389998399999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4066649999999979E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4233315999999979E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4399981999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4566647999999977E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4733313999999977E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4899979999999976E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5066645999999975E-2</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -5165,7 +7268,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
+              <c16:uniqueId val="{00000007-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5388,199 +7491,201 @@
                   <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$4:$P$63</c:f>
+              <c:f>Sheet1!$Q$4:$Q$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>2.5613805046170559E-3</c:v>
+                  <c:v>4.7474409123637717E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6041779773114501E-3</c:v>
+                  <c:v>5.0530658376194979E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.40040008673888E-3</c:v>
+                  <c:v>5.6740143851455784E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4309546519926755E-3</c:v>
+                  <c:v>5.9178303843597018E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.666361451839812E-3</c:v>
+                  <c:v>7.7253748934132012E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6924833677750082E-3</c:v>
+                  <c:v>8.3558435604529097E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0582107950011929E-3</c:v>
+                  <c:v>1.0524484177986466E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0874122830483338E-3</c:v>
+                  <c:v>1.0980241059532421E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6466757558791208E-3</c:v>
+                  <c:v>1.5234354456336353E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6402800750476244E-3</c:v>
+                  <c:v>1.5911602389796258E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8714324107588108E-3</c:v>
+                  <c:v>1.7681276100775786E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9072555432128064E-3</c:v>
+                  <c:v>1.7853324436522627E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4387195773841004E-3</c:v>
+                  <c:v>1.9791903480189225E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5172871340113715E-3</c:v>
+                  <c:v>2.0121364571603191E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4889588158766166E-3</c:v>
+                  <c:v>2.2110125497500761E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5202167677298611E-3</c:v>
+                  <c:v>2.2366402342980013E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.4366032471251406E-3</c:v>
+                  <c:v>2.4756959660510558E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4746572616829175E-3</c:v>
+                  <c:v>2.4772348478561256E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.9093343892974758E-3</c:v>
+                  <c:v>2.6635998581376746E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0011549584850585E-3</c:v>
+                  <c:v>2.6510789256380483E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9826800409691931E-3</c:v>
+                  <c:v>2.7507612839627178E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2088865567442612E-3</c:v>
+                  <c:v>2.7938525883709299E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.5114391254159519E-3</c:v>
+                  <c:v>2.8088861665529461E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6618197679286324E-3</c:v>
+                  <c:v>2.8740057590507889E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.3639824474403546E-3</c:v>
+                  <c:v>2.9280432111481625E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.5757715652189752E-3</c:v>
+                  <c:v>2.9165031675378639E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.4324673764945984E-3</c:v>
+                  <c:v>3.0603657387655029E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.6706970074229475E-3</c:v>
+                  <c:v>3.0853633616491759E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.3125339079996369E-3</c:v>
+                  <c:v>3.3067705412172015E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.5988483643667192E-3</c:v>
+                  <c:v>3.3003635952102463E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0257068140816984E-2</c:v>
+                  <c:v>3.5078569193074574E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0471064490932136E-2</c:v>
+                  <c:v>3.5845596512918944E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0971256975325973E-2</c:v>
+                  <c:v>3.7556148729643822E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.114176031522273E-2</c:v>
+                  <c:v>3.7179197730276906E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1558374832117985E-2</c:v>
+                  <c:v>3.9680502367639321E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1780183248657563E-2</c:v>
+                  <c:v>3.993479868644792E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.227913569700511E-2</c:v>
+                  <c:v>4.1989167860636799E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.2653088404954308E-2</c:v>
+                  <c:v>4.176123513517465E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3809663719739991E-2</c:v>
+                  <c:v>4.2842529977521346E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.4118209044076641E-2</c:v>
+                  <c:v>4.3535833438278854E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.4851793425527825E-2</c:v>
+                  <c:v>4.4852975042522926E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.5092284456958965E-2</c:v>
+                  <c:v>4.5515415449659105E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.7014365979382506E-2</c:v>
+                  <c:v>4.8668775865294861E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.7293404483506636E-2</c:v>
+                  <c:v>4.9090131002704963E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.9421988759005204E-2</c:v>
+                  <c:v>5.0218838299171592E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.9558962798543311E-2</c:v>
+                  <c:v>5.0517984454281906E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.0955655947199569E-2</c:v>
+                  <c:v>5.1520109779181839E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.1096633712642424E-2</c:v>
+                  <c:v>5.1688372879820955E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.2128027474583853E-2</c:v>
+                  <c:v>5.2456408875725953E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.2077745385363095E-2</c:v>
+                  <c:v>5.2070478034338459E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.2937955360927621E-2</c:v>
+                  <c:v>5.1899228271494395E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.2996836585453623E-2</c:v>
+                  <c:v>5.1860197924064343E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.506321576407158E-2</c:v>
+                  <c:v>5.1004151663079589E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.5077229650665743E-2</c:v>
+                  <c:v>5.1236611487045954E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.7275300357309365E-2</c:v>
+                  <c:v>5.1758921257395528E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.7321248485701562E-2</c:v>
+                  <c:v>5.1976644337524115E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0365860271222383E-2</c:v>
+                  <c:v>5.3947226422581256E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.0506371777700388E-2</c:v>
+                  <c:v>5.529439642612724E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.3699067065505371E-2</c:v>
+                  <c:v>5.8382930718604918E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.3132345418758521E-2</c:v>
+                  <c:v>5.9374950154708749E-2</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
             </c:ext>
@@ -5598,1287 +7703,6 @@
         <c:axId val="377993576"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:v>Full Hybrid</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="25400" cap="rnd">
-                    <a:noFill/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4:$B$63</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="60"/>
-                      <c:pt idx="0">
-                        <c:v>0.01</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.02</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.03</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.04</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.05</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.06</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7.0000000000000007E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.08</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.09</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.1</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.11</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.12</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.14000000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.15</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.16</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.17</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0.18</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.19</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.2</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.21</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.22</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.23</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0.24</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>0.25</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>0.26</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>0.27</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>0.28000000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>0.28999999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>0.31</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>0.32</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>0.33</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>0.34</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>0.35</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>0.36</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>0.37</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>0.38</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>0.39</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>0.41</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>0.42</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>0.43</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>0.44</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>0.45</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>0.46</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>0.47</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>0.48</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>0.49</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>0.51</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>0.52</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>0.53</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>0.54</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>0.55000000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>0.56000000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>0.56999999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>0.57999999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>0.59</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$4:$C$63</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00000</c:formatCode>
-                      <c:ptCount val="60"/>
-                      <c:pt idx="0">
-                        <c:v>5.2160568996936763E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1.9437281831404902E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4.0733784041818103E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6.7516080336667032E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>9.8309767018940133E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1.3158642052214014E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1.6607310924270816E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2.0077653283974366E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2.3474962003354749E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>2.6702946493192936E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2.9700418905633252E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>3.2415797810419637E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>3.484576833067507E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>3.7025707447791052E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>3.8990110307021625E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>4.0753909830463911E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>4.2380691820193071E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>4.3966620264582576E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>4.5615180990948183E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>4.7393981373697526E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>4.9317340999859932E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>5.1369253335763303E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>5.357038511981467E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>5.593526457346968E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>5.8445082943522388E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>6.1033497911669378E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>6.3585650340260244E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>6.6022041702519782E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>6.8300434477280111E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>7.0462863261608208E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>7.2482018787159819E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>7.429546374046922E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>7.5793526920489032E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>7.6843346677511276E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>7.7393903497300007E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>7.7504341753227374E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>7.7270671452955894E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>7.6800126375590846E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>7.6189892424063668E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>7.5576194033630029E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>7.5111069167359878E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>7.4910904978472498E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>7.5058791958688142E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>7.5569899440179195E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>7.6359367641265663E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>7.7295316191189511E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>7.8221530910144832E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>7.9065158312697781E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>7.9806436086288651E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>8.0509624116435974E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>8.1185462224415902E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>8.1800943967473463E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>8.230859576487759E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>8.2788156758642623E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>8.3299509312623046E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>8.3798848936835979E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>8.423514970462688E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>8.4556001047978113E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>8.4747419808238036E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>8.4803272980241984E-2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:v>Accel Error</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="25400" cap="rnd">
-                    <a:noFill/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4:$B$63</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="60"/>
-                      <c:pt idx="0">
-                        <c:v>0.01</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.02</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.03</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.04</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.05</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.06</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7.0000000000000007E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.08</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.09</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.1</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.11</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.12</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.14000000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.15</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.16</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.17</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0.18</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.19</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.2</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.21</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.22</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.23</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0.24</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>0.25</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>0.26</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>0.27</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>0.28000000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>0.28999999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>0.31</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>0.32</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>0.33</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>0.34</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>0.35</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>0.36</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>0.37</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>0.38</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>0.39</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>0.41</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>0.42</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>0.43</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>0.44</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>0.45</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>0.46</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>0.47</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>0.48</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>0.49</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>0.51</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>0.52</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>0.53</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>0.54</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>0.55000000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>0.56000000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>0.56999999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>0.57999999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>0.59</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$4:$E$63</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00000</c:formatCode>
-                      <c:ptCount val="60"/>
-                      <c:pt idx="0">
-                        <c:v>6.0868920715911119E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2.2613003589487782E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4.7119973541596078E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>7.7556465002931833E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1.1220612770463483E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1.4961294677736209E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1.8871538567346472E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2.2865602891022182E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2.6866589798155184E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>3.0766069692711853E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>3.4433072210266265E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>3.7778880627124957E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>4.0795937658069353E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>4.3526419437722334E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>4.6009468783511677E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>4.8318461897824273E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>5.0567749347266593E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>5.2880828857492651E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>5.5351835362093052E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>5.8073957903236287E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>6.1074696456763944E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>6.4288062788419642E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>6.7671585652568672E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>7.1255301057241371E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>7.4981190638728323E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>7.8699279491891372E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>8.2249563218697086E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>8.5543298197581663E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>8.8619511937067255E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>9.1480699137034771E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>9.4150607008540721E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>9.6557929233753573E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>9.8651902576005659E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>0.10035884321627218</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>0.10162194796357778</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>0.10240698561572702</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>0.10281390828141418</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>0.10292348191189685</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>0.10284492848212633</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>0.10273097011729999</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>0.10267796039881152</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>0.10279207944343806</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>0.10318962064639564</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>0.10388816900752594</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>0.10486458856218649</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>0.10605161802567246</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>0.10733346844900442</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>0.10858577089042279</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>0.10971112072269447</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>0.11063977879608114</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>0.11130841717971281</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>0.1116651141054214</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>0.11173655189362711</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>0.11157889001588908</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>0.1113237090063536</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>0.11104143704697625</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>0.11078133345352409</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>0.11050686911221075</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>0.11018310586486973</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>0.10981966356889726</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:v>Motor Hybrid</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="25400" cap="rnd">
-                    <a:noFill/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4:$B$63</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="60"/>
-                      <c:pt idx="0">
-                        <c:v>0.01</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.02</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.03</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.04</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.05</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.06</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7.0000000000000007E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.08</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.09</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.1</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.11</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.12</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.14000000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.15</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.16</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.17</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0.18</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.19</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.2</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.21</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.22</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.23</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0.24</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>0.25</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>0.26</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>0.27</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>0.28000000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>0.28999999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>0.31</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>0.32</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>0.33</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>0.34</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>0.35</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>0.36</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>0.37</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>0.38</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>0.39</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>0.41</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>0.42</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>0.43</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>0.44</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>0.45</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>0.46</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>0.47</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>0.48</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>0.49</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>0.51</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>0.52</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>0.53</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>0.54</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>0.55000000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>0.56000000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>0.56999999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>0.57999999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>0.59</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$4:$G$63</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00000</c:formatCode>
-                      <c:ptCount val="60"/>
-                      <c:pt idx="0">
-                        <c:v>4.1069388901132924E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1.5231356439922238E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3.1763515863235284E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>5.2338786105074796E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>7.5798304945253634E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1.0114497069725854E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1.2745093230484943E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1.5371814315377175E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1.7883999386287781E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>2.0173945614050271E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2.2169860706746584E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2.385237215283385E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2.5246750521877494E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>2.639313686683906E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2.7333067619709259E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2.8111619069059641E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>2.8795605135290246E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>2.9477162287170424E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>3.0253369198703865E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>3.1194077400707558E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>3.2320670154115758E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>3.3619868981721E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>3.5067441588871352E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>3.6643383562127783E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>3.8319331379701969E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>4.0042460256866398E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>4.1740165946707035E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>4.3345834275654659E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>4.4825188318177424E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>4.6158801915333447E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>4.731074180714788E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>4.8201579866245813E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>4.8737863462873156E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>4.8849796081496921E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>4.8523477453461E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>4.7802822114285298E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>4.6783895265917121E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>4.5593180940079997E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>4.4358363880850925E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>4.3197156909061077E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>4.2217196840455017E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>4.1512342943075722E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>4.1137109435339408E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>4.1092178062686384E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>4.1322448934423391E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>4.1734549659212805E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>4.2225920955260746E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>4.2719298585753906E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>4.3166088915300056E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>4.3535070949311055E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>4.379842645552047E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>4.3949515583730628E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>4.4013989470007002E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>4.4045118384486888E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>4.4081419064829687E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>4.4120768624780239E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>4.4127463990242047E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>4.4066911535746912E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>4.3927030864302573E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>4.3720130901436678E-2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="4"/>
@@ -6910,8 +7734,8 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$4:$B$63</c15:sqref>
                         </c15:formulaRef>
@@ -7105,8 +7929,8 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$4:$K$63</c15:sqref>
                         </c15:formulaRef>
@@ -7299,7 +8123,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
                   </c:ext>
@@ -7539,7 +8363,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$S$4:$S$63</c15:sqref>
+                          <c15:sqref>Sheet1!$U$4:$U$63</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7739,10 +8563,10 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
+                <c:idx val="9"/>
+                <c:order val="9"/>
                 <c:tx>
-                  <c:v>Nima Hybrid</c:v>
+                  <c:v>End2End v5</c:v>
                 </c:tx>
                 <c:spPr>
                   <a:ln w="25400" cap="rnd">
@@ -7756,13 +8580,13 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
+                      <a:schemeClr val="accent4">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent2">
+                        <a:schemeClr val="accent4">
                           <a:lumMod val="60000"/>
                         </a:schemeClr>
                       </a:solidFill>
@@ -7970,192 +8794,192 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$U$4:$U$63</c15:sqref>
+                          <c15:sqref>Sheet1!$S$4:$S$63</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>0.0000</c:formatCode>
+                      <c:formatCode>General</c:formatCode>
                       <c:ptCount val="60"/>
                       <c:pt idx="0">
-                        <c:v>2.5000000000000001E-3</c:v>
+                        <c:v>4.2436063469853376E-3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.0000000000000001E-3</c:v>
+                        <c:v>4.9660625590084119E-3</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>5.0000000000000001E-3</c:v>
+                        <c:v>5.4886997406453841E-3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5.4999999999999997E-3</c:v>
+                        <c:v>5.7906534386869589E-3</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>5.7999999999999996E-3</c:v>
+                        <c:v>7.3805645129284168E-3</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>6.0000000000000001E-3</c:v>
+                        <c:v>7.5327063868977622E-3</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6.1999999999999998E-3</c:v>
+                        <c:v>1.0671423977462716E-2</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>6.4999999999999997E-3</c:v>
+                        <c:v>1.0482462767076307E-2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>6.7000000000000002E-3</c:v>
+                        <c:v>1.4671381939314269E-2</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>7.0000000000000001E-3</c:v>
+                        <c:v>1.4210777742560592E-2</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>7.1999999999999998E-3</c:v>
+                        <c:v>1.9004380387642347E-2</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>7.4000000000000003E-3</c:v>
+                        <c:v>1.8058380132533226E-2</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>7.6E-3</c:v>
+                        <c:v>2.2890746140086321E-2</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>7.8000000000000005E-3</c:v>
+                        <c:v>2.252772205925815E-2</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>8.0000000000000002E-3</c:v>
+                        <c:v>2.6907674938331846E-2</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>8.2000000000000007E-3</c:v>
+                        <c:v>2.5907368081400806E-2</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>8.4000000000000012E-3</c:v>
+                        <c:v>2.8923167289003376E-2</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>8.6E-3</c:v>
+                        <c:v>2.7710996382329798E-2</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>8.8000000000000005E-3</c:v>
+                        <c:v>3.0337256199772549E-2</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>9.0000000000000011E-3</c:v>
+                        <c:v>2.9259158657416823E-2</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>9.1000000000000004E-3</c:v>
+                        <c:v>3.1416684352149518E-2</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>9.1999999999999998E-3</c:v>
+                        <c:v>3.077189302219974E-2</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>9.2999999999999992E-3</c:v>
+                        <c:v>3.3334061347461384E-2</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>9.3999999999999986E-3</c:v>
+                        <c:v>3.3092720975220626E-2</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>9.499999999999998E-3</c:v>
+                        <c:v>3.4131496304683623E-2</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>9.5999999999999974E-3</c:v>
+                        <c:v>3.4099334786297862E-2</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>9.6999999999999968E-3</c:v>
+                        <c:v>3.5983733075208552E-2</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>9.7999999999999962E-3</c:v>
+                        <c:v>3.6489824324181269E-2</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>9.8999999999999956E-3</c:v>
+                        <c:v>3.8061360703918835E-2</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>1.0066665999999995E-2</c:v>
+                        <c:v>3.8621140448337234E-2</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>1.0233331999999994E-2</c:v>
+                        <c:v>4.1954697209836841E-2</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>1.0399997999999994E-2</c:v>
+                        <c:v>4.2618789714139148E-2</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>1.0566663999999993E-2</c:v>
+                        <c:v>4.2959507015676149E-2</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>1.0733329999999992E-2</c:v>
+                        <c:v>4.276022756700832E-2</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>1.0899995999999992E-2</c:v>
+                        <c:v>4.4029280126741739E-2</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>1.1066661999999991E-2</c:v>
+                        <c:v>4.4198466374257131E-2</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>1.123332799999999E-2</c:v>
+                        <c:v>4.3711921966374349E-2</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>1.139999399999999E-2</c:v>
+                        <c:v>4.4226134480977217E-2</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>1.1566659999999989E-2</c:v>
+                        <c:v>4.5492711170920658E-2</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>1.1733325999999988E-2</c:v>
+                        <c:v>4.5471080733420516E-2</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>1.1899991999999988E-2</c:v>
+                        <c:v>4.7569864158224943E-2</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>1.2066657999999987E-2</c:v>
+                        <c:v>4.659552692634239E-2</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>1.2233323999999986E-2</c:v>
+                        <c:v>5.0762908564336628E-2</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>1.2399989999999986E-2</c:v>
+                        <c:v>4.8669374253656181E-2</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>1.2566655999999985E-2</c:v>
+                        <c:v>5.1756581486245339E-2</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>1.2733321999999984E-2</c:v>
+                        <c:v>5.0351559386365805E-2</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>1.2899987999999984E-2</c:v>
+                        <c:v>5.3068145832166569E-2</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>1.3066653999999983E-2</c:v>
+                        <c:v>5.1705968003182584E-2</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>1.3233319999999982E-2</c:v>
+                        <c:v>5.5259959257895605E-2</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>1.3399985999999982E-2</c:v>
+                        <c:v>5.2885898641267449E-2</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>1.3566651999999981E-2</c:v>
+                        <c:v>5.5036488891837231E-2</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>1.373331799999998E-2</c:v>
+                        <c:v>5.4156320500254221E-2</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>1.389998399999998E-2</c:v>
+                        <c:v>5.6515648490994573E-2</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>1.4066649999999979E-2</c:v>
+                        <c:v>5.6206998281324881E-2</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>1.4233315999999979E-2</c:v>
+                        <c:v>5.9376576451026564E-2</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>1.4399981999999978E-2</c:v>
+                        <c:v>5.8023454457516672E-2</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>1.4566647999999977E-2</c:v>
+                        <c:v>6.1314793301699068E-2</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>1.4733313999999977E-2</c:v>
+                        <c:v>6.0604784418684561E-2</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>1.4899979999999976E-2</c:v>
+                        <c:v>6.7255461009437828E-2</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>1.5066645999999975E-2</c:v>
+                        <c:v>6.6978880488251236E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8163,7 +8987,7 @@
                 <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-CCDE-4FBA-A9DB-4A2E1DF332CF}"/>
+                    <c16:uniqueId val="{00000001-E7F4-4B41-802C-3343649DCE83}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -9494,16 +10318,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9532,13 +10356,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
@@ -9834,10 +10658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:BR63"/>
+  <dimension ref="B1:BT65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AN23" sqref="AN23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9846,11 +10670,45 @@
     <col min="3" max="12" width="10.28515625" customWidth="1"/>
     <col min="13" max="13" width="2.7109375" customWidth="1"/>
     <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="18" max="18" width="3.42578125" customWidth="1"/>
-    <col min="19" max="22" width="10" customWidth="1"/>
+    <col min="20" max="20" width="3.42578125" customWidth="1"/>
+    <col min="21" max="24" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="C1" s="4">
+        <f>C63+D63</f>
+        <v>1.528449922980242</v>
+      </c>
+      <c r="E1" s="4">
+        <f>E63+F63</f>
+        <v>0.2765920699148845</v>
+      </c>
+      <c r="G1" s="4">
+        <f>G63+H63</f>
+        <v>0.25534125087445042</v>
+      </c>
+      <c r="I1" s="4">
+        <f>I63+J63</f>
+        <v>9.2500424199189829E-2</v>
+      </c>
+      <c r="K1" s="4">
+        <f>K63+L63</f>
+        <v>0.35014868925142606</v>
+      </c>
+      <c r="N1" s="4">
+        <f>N63+O63</f>
+        <v>7.8226720687587098E-2</v>
+      </c>
+      <c r="P1" s="4">
+        <f>P63+Q63</f>
+        <v>9.2507295573467263E-2</v>
+      </c>
+      <c r="R1" s="4">
+        <f>R63+S63</f>
+        <v>9.6368408933918848E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:72" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -9879,16 +10737,20 @@
         <v>11</v>
       </c>
       <c r="Q2" s="6"/>
-      <c r="S2" s="6" t="s">
+      <c r="R2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="U2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="6"/>
+      <c r="X2" s="6"/>
     </row>
-    <row r="3" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -9923,22 +10785,22 @@
         <v>2</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="T3" t="s">
-        <v>2</v>
       </c>
       <c r="U3" t="s">
         <v>1</v>
@@ -9946,8 +10808,14 @@
       <c r="V3" t="s">
         <v>2</v>
       </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.01</v>
       </c>
@@ -9993,21 +10861,27 @@
       <c r="Q4">
         <v>4.7474409123637717E-3</v>
       </c>
-      <c r="S4" s="5">
+      <c r="R4">
+        <v>3.0796687088072037E-3</v>
+      </c>
+      <c r="S4">
+        <v>4.2436063469853376E-3</v>
+      </c>
+      <c r="U4" s="5">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="T4" s="5">
+      <c r="V4" s="5">
         <v>0.48</v>
       </c>
-      <c r="U4" s="5">
+      <c r="W4" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="V4" s="4">
+      <c r="X4" s="4">
         <v>8.8512356233723631E-3</v>
       </c>
-      <c r="W4" s="4"/>
+      <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.02</v>
       </c>
@@ -10053,21 +10927,27 @@
       <c r="Q5">
         <v>5.0530658376194979E-3</v>
       </c>
-      <c r="S5" s="5">
+      <c r="R5">
+        <v>3.1871262986079862E-3</v>
+      </c>
+      <c r="S5">
+        <v>4.9660625590084119E-3</v>
+      </c>
+      <c r="U5" s="5">
         <v>0.09</v>
       </c>
-      <c r="T5" s="5">
+      <c r="V5" s="5">
         <v>0.52</v>
       </c>
-      <c r="U5" s="5">
+      <c r="W5" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="V5" s="4">
+      <c r="X5" s="4">
         <v>3.3409822664929929E-2</v>
       </c>
-      <c r="W5" s="4"/>
+      <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.03</v>
       </c>
@@ -10113,21 +10993,27 @@
       <c r="Q6">
         <v>5.6740143851455784E-3</v>
       </c>
-      <c r="S6" s="5">
+      <c r="R6">
+        <v>2.6998426378382415E-3</v>
+      </c>
+      <c r="S6">
+        <v>5.4886997406453841E-3</v>
+      </c>
+      <c r="U6" s="5">
         <v>0.15</v>
       </c>
-      <c r="T6" s="5">
+      <c r="V6" s="5">
         <v>0.6</v>
       </c>
-      <c r="U6" s="5">
+      <c r="W6" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V6" s="4">
+      <c r="X6" s="4">
         <v>6.8220506029806893E-2</v>
       </c>
-      <c r="W6" s="4"/>
+      <c r="Y6" s="4"/>
     </row>
-    <row r="7" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.04</v>
       </c>
@@ -10173,21 +11059,27 @@
       <c r="Q7">
         <v>5.9178303843597018E-3</v>
       </c>
-      <c r="S7" s="5">
+      <c r="R7">
+        <v>2.7470869630256793E-3</v>
+      </c>
+      <c r="S7">
+        <v>5.7906534386869589E-3</v>
+      </c>
+      <c r="U7" s="5">
         <v>0.17</v>
       </c>
-      <c r="T7" s="5">
+      <c r="V7" s="5">
         <v>0.8</v>
       </c>
-      <c r="U7" s="5">
+      <c r="W7" s="5">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="V7" s="4">
+      <c r="X7" s="4">
         <v>0.11408207797396656</v>
       </c>
-      <c r="W7" s="4"/>
+      <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.05</v>
       </c>
@@ -10234,22 +11126,26 @@
       <c r="Q8">
         <v>7.7253748934132012E-3</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="5">
+      <c r="R8">
+        <v>2.6416949323478708E-3</v>
+      </c>
+      <c r="S8">
+        <v>7.3805645129284168E-3</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="5">
         <v>0.2</v>
       </c>
-      <c r="T8" s="5">
+      <c r="V8" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U8" s="5">
+      <c r="W8" s="5">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="V8" s="4">
+      <c r="X8" s="4">
         <v>0.16298991169519755</v>
       </c>
-      <c r="W8" s="4"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="Y8" s="4"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
@@ -10295,8 +11191,10 @@
       <c r="BP8" s="3"/>
       <c r="BQ8" s="3"/>
       <c r="BR8" s="3"/>
+      <c r="BS8" s="3"/>
+      <c r="BT8" s="3"/>
     </row>
-    <row r="9" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.06</v>
       </c>
@@ -10342,21 +11240,27 @@
       <c r="Q9">
         <v>8.3558435604529097E-3</v>
       </c>
-      <c r="S9" s="5">
+      <c r="R9">
+        <v>2.7251745284893095E-3</v>
+      </c>
+      <c r="S9">
+        <v>7.5327063868977622E-3</v>
+      </c>
+      <c r="U9" s="5">
         <v>0.25</v>
       </c>
-      <c r="T9" s="5">
+      <c r="V9" s="5">
         <v>1.3</v>
       </c>
-      <c r="U9" s="5">
+      <c r="W9" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="V9" s="4">
+      <c r="X9" s="4">
         <v>0.22651715893651034</v>
       </c>
-      <c r="W9" s="4"/>
+      <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -10402,21 +11306,27 @@
       <c r="Q10">
         <v>1.0524484177986466E-2</v>
       </c>
-      <c r="S10" s="5">
+      <c r="R10">
+        <v>2.8402679889380457E-3</v>
+      </c>
+      <c r="S10">
+        <v>1.0671423977462716E-2</v>
+      </c>
+      <c r="U10" s="5">
         <v>0.27</v>
       </c>
-      <c r="T10" s="5">
+      <c r="V10" s="5">
         <v>1.4</v>
       </c>
-      <c r="U10" s="5">
+      <c r="W10" s="5">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="V10" s="4">
+      <c r="X10" s="4">
         <v>0.27727647574216852</v>
       </c>
-      <c r="W10" s="4"/>
+      <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.08</v>
       </c>
@@ -10462,21 +11372,27 @@
       <c r="Q11">
         <v>1.0980241059532421E-2</v>
       </c>
-      <c r="S11" s="5">
+      <c r="R11">
+        <v>2.9233512001700427E-3</v>
+      </c>
+      <c r="S11">
+        <v>1.0482462767076307E-2</v>
+      </c>
+      <c r="U11" s="5">
         <v>0.3</v>
       </c>
-      <c r="T11" s="5">
+      <c r="V11" s="5">
         <v>1.6</v>
       </c>
-      <c r="U11" s="5">
+      <c r="W11" s="5">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="V11" s="4">
+      <c r="X11" s="4">
         <v>0.34125579956700436</v>
       </c>
-      <c r="W11" s="4"/>
+      <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.09</v>
       </c>
@@ -10522,21 +11438,27 @@
       <c r="Q12">
         <v>1.5234354456336353E-2</v>
       </c>
-      <c r="S12" s="5">
+      <c r="R12">
+        <v>3.2403531568281955E-3</v>
+      </c>
+      <c r="S12">
+        <v>1.4671381939314269E-2</v>
+      </c>
+      <c r="U12" s="5">
         <v>0.33</v>
       </c>
-      <c r="T12" s="5">
+      <c r="V12" s="5">
         <v>1.75</v>
       </c>
-      <c r="U12" s="5">
+      <c r="W12" s="5">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="V12" s="4">
+      <c r="X12" s="4">
         <v>0.39032289299445644</v>
       </c>
-      <c r="W12" s="4"/>
+      <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.1</v>
       </c>
@@ -10582,21 +11504,27 @@
       <c r="Q13">
         <v>1.5911602389796258E-2</v>
       </c>
-      <c r="S13" s="5">
+      <c r="R13">
+        <v>3.292921960401781E-3</v>
+      </c>
+      <c r="S13">
+        <v>1.4210777742560592E-2</v>
+      </c>
+      <c r="U13" s="5">
         <v>0.35</v>
       </c>
-      <c r="T13" s="5">
+      <c r="V13" s="5">
         <v>1.85</v>
       </c>
-      <c r="U13" s="5">
+      <c r="W13" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="V13" s="4">
+      <c r="X13" s="4">
         <v>0.4634628148021695</v>
       </c>
-      <c r="W13" s="4"/>
+      <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.11</v>
       </c>
@@ -10642,23 +11570,29 @@
       <c r="Q14">
         <v>1.7681276100775786E-2</v>
       </c>
-      <c r="S14" s="5">
-        <f>0.35+B4*1.05</f>
+      <c r="R14">
+        <v>3.4772564109054765E-3</v>
+      </c>
+      <c r="S14">
+        <v>1.9004380387642347E-2</v>
+      </c>
+      <c r="U14" s="5">
+        <f t="shared" ref="U14:U45" si="0">0.35+B4*1.05</f>
         <v>0.36049999999999999</v>
       </c>
-      <c r="T14" s="5">
+      <c r="V14" s="5">
         <v>2</v>
       </c>
-      <c r="U14" s="5">
-        <f>0.007+B4*0.02</f>
+      <c r="W14" s="5">
+        <f t="shared" ref="W14:W23" si="1">0.007+B4*0.02</f>
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="V14" s="4">
+      <c r="X14" s="4">
         <v>0.49442388485130823</v>
       </c>
-      <c r="W14" s="4"/>
+      <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.12</v>
       </c>
@@ -10704,23 +11638,29 @@
       <c r="Q15">
         <v>1.7853324436522627E-2</v>
       </c>
-      <c r="S15" s="5">
-        <f>0.35+B5*1.05</f>
+      <c r="R15">
+        <v>3.4858583239695557E-3</v>
+      </c>
+      <c r="S15">
+        <v>1.8058380132533226E-2</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" si="0"/>
         <v>0.371</v>
       </c>
-      <c r="T15" s="5">
+      <c r="V15" s="5">
         <v>2.1</v>
       </c>
-      <c r="U15" s="5">
-        <f>0.007+B5*0.02</f>
+      <c r="W15" s="5">
+        <f t="shared" si="1"/>
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="V15" s="4">
+      <c r="X15" s="4">
         <v>0.5622852130454552</v>
       </c>
-      <c r="W15" s="4"/>
+      <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.13</v>
       </c>
@@ -10766,23 +11706,29 @@
       <c r="Q16">
         <v>1.9791903480189225E-2</v>
       </c>
-      <c r="S16" s="5">
-        <f>0.35+B6*1.05</f>
+      <c r="R16">
+        <v>3.7836094417080589E-3</v>
+      </c>
+      <c r="S16">
+        <v>2.2890746140086321E-2</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" si="0"/>
         <v>0.38149999999999995</v>
       </c>
-      <c r="T16" s="5">
+      <c r="V16" s="5">
         <v>2.1800000000000002</v>
       </c>
-      <c r="U16" s="5">
-        <f>0.007+B6*0.02</f>
+      <c r="W16" s="5">
+        <f t="shared" si="1"/>
         <v>7.6E-3</v>
       </c>
-      <c r="V16" s="4">
+      <c r="X16" s="4">
         <v>0.5977775151987621</v>
       </c>
-      <c r="W16" s="4"/>
+      <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.14000000000000001</v>
       </c>
@@ -10828,23 +11774,29 @@
       <c r="Q17">
         <v>2.0121364571603191E-2</v>
       </c>
-      <c r="S17" s="5">
-        <f>0.35+B7*1.05</f>
+      <c r="R17">
+        <v>3.7993199892503507E-3</v>
+      </c>
+      <c r="S17">
+        <v>2.252772205925815E-2</v>
+      </c>
+      <c r="U17" s="5">
+        <f t="shared" si="0"/>
         <v>0.39199999999999996</v>
       </c>
-      <c r="T17" s="5">
+      <c r="V17" s="5">
         <v>2.2400000000000002</v>
       </c>
-      <c r="U17" s="5">
-        <f>0.007+B7*0.02</f>
+      <c r="W17" s="5">
+        <f t="shared" si="1"/>
         <v>7.8000000000000005E-3</v>
       </c>
-      <c r="V17" s="4">
+      <c r="X17" s="4">
         <v>0.61902240672764419</v>
       </c>
-      <c r="W17" s="4"/>
+      <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.15</v>
       </c>
@@ -10890,23 +11842,29 @@
       <c r="Q18">
         <v>2.2110125497500761E-2</v>
       </c>
-      <c r="S18" s="5">
-        <f>0.35+B8*1.05</f>
+      <c r="R18">
+        <v>4.2785729401455834E-3</v>
+      </c>
+      <c r="S18">
+        <v>2.6907674938331846E-2</v>
+      </c>
+      <c r="U18" s="5">
+        <f t="shared" si="0"/>
         <v>0.40249999999999997</v>
       </c>
-      <c r="T18" s="5">
+      <c r="V18" s="5">
         <v>2.2599999999999998</v>
       </c>
-      <c r="U18" s="5">
-        <f>0.007+B8*0.02</f>
+      <c r="W18" s="5">
+        <f t="shared" si="1"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="V18" s="4">
+      <c r="X18" s="4">
         <v>0.65351089016484154</v>
       </c>
-      <c r="W18" s="4"/>
+      <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.16</v>
       </c>
@@ -10952,23 +11910,29 @@
       <c r="Q19">
         <v>2.2366402342980013E-2</v>
       </c>
-      <c r="S19" s="5">
-        <f>0.35+B9*1.05</f>
+      <c r="R19">
+        <v>4.3157865825773425E-3</v>
+      </c>
+      <c r="S19">
+        <v>2.5907368081400806E-2</v>
+      </c>
+      <c r="U19" s="5">
+        <f t="shared" si="0"/>
         <v>0.41299999999999998</v>
       </c>
-      <c r="T19" s="5">
+      <c r="V19" s="5">
         <v>2.3199999999999998</v>
       </c>
-      <c r="U19" s="5">
-        <f>0.007+B9*0.02</f>
+      <c r="W19" s="5">
+        <f t="shared" si="1"/>
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="V19" s="4">
+      <c r="X19" s="4">
         <v>0.70176304693491443</v>
       </c>
-      <c r="W19" s="4"/>
+      <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.17</v>
       </c>
@@ -11014,23 +11978,29 @@
       <c r="Q20">
         <v>2.4756959660510558E-2</v>
       </c>
-      <c r="S20" s="5">
-        <f>0.35+B10*1.05</f>
+      <c r="R20">
+        <v>4.443217023456035E-3</v>
+      </c>
+      <c r="S20">
+        <v>2.8923167289003376E-2</v>
+      </c>
+      <c r="U20" s="5">
+        <f t="shared" si="0"/>
         <v>0.42349999999999999</v>
       </c>
-      <c r="T20" s="5">
+      <c r="V20" s="5">
         <v>2.35</v>
       </c>
-      <c r="U20" s="5">
-        <f>0.007+B10*0.02</f>
+      <c r="W20" s="5">
+        <f t="shared" si="1"/>
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="V20" s="4">
+      <c r="X20" s="4">
         <v>0.72696945922780565</v>
       </c>
-      <c r="W20" s="4"/>
+      <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.18</v>
       </c>
@@ -11076,23 +12046,29 @@
       <c r="Q21">
         <v>2.4772348478561256E-2</v>
       </c>
-      <c r="S21" s="5">
-        <f>0.35+B11*1.05</f>
+      <c r="R21">
+        <v>4.4629861221136798E-3</v>
+      </c>
+      <c r="S21">
+        <v>2.7710996382329798E-2</v>
+      </c>
+      <c r="U21" s="5">
+        <f t="shared" si="0"/>
         <v>0.434</v>
       </c>
-      <c r="T21" s="5">
+      <c r="V21" s="5">
         <v>2.37</v>
       </c>
-      <c r="U21" s="5">
-        <f>0.007+B11*0.02</f>
+      <c r="W21" s="5">
+        <f t="shared" si="1"/>
         <v>8.6E-3</v>
       </c>
-      <c r="V21" s="4">
+      <c r="X21" s="4">
         <v>0.75108966881881012</v>
       </c>
-      <c r="W21" s="4"/>
+      <c r="Y21" s="4"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.19</v>
       </c>
@@ -11138,23 +12114,29 @@
       <c r="Q22">
         <v>2.6635998581376746E-2</v>
       </c>
-      <c r="S22" s="5">
-        <f>0.35+B12*1.05</f>
+      <c r="R22">
+        <v>4.9656455238242343E-3</v>
+      </c>
+      <c r="S22">
+        <v>3.0337256199772549E-2</v>
+      </c>
+      <c r="U22" s="5">
+        <f t="shared" si="0"/>
         <v>0.44450000000000001</v>
       </c>
-      <c r="T22" s="5">
+      <c r="V22" s="5">
         <v>2.39</v>
       </c>
-      <c r="U22" s="5">
-        <f>0.007+B12*0.02</f>
+      <c r="W22" s="5">
+        <f t="shared" si="1"/>
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="V22" s="4">
+      <c r="X22" s="4">
         <v>0.75622353350944305</v>
       </c>
-      <c r="W22" s="4"/>
+      <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.2</v>
       </c>
@@ -11200,23 +12182,29 @@
       <c r="Q23">
         <v>2.6510789256380483E-2</v>
       </c>
-      <c r="S23" s="5">
-        <f>0.35+B13*1.05</f>
+      <c r="R23">
+        <v>5.069393312578622E-3</v>
+      </c>
+      <c r="S23">
+        <v>2.9259158657416823E-2</v>
+      </c>
+      <c r="U23" s="5">
+        <f t="shared" si="0"/>
         <v>0.45499999999999996</v>
       </c>
-      <c r="T23" s="5">
+      <c r="V23" s="5">
         <v>2.4</v>
       </c>
-      <c r="U23" s="5">
-        <f>0.007+B13*0.02</f>
+      <c r="W23" s="5">
+        <f t="shared" si="1"/>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="V23" s="4">
+      <c r="X23" s="4">
         <v>0.82074311533911204</v>
       </c>
-      <c r="W23" s="4"/>
+      <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.21</v>
       </c>
@@ -11262,23 +12250,29 @@
       <c r="Q24">
         <v>2.7507612839627178E-2</v>
       </c>
-      <c r="S24" s="5">
-        <f>0.35+B14*1.05</f>
+      <c r="R24">
+        <v>5.6203904851136266E-3</v>
+      </c>
+      <c r="S24">
+        <v>3.1416684352149518E-2</v>
+      </c>
+      <c r="U24" s="5">
+        <f t="shared" si="0"/>
         <v>0.46549999999999997</v>
       </c>
-      <c r="T24" s="5">
+      <c r="V24" s="5">
         <v>2.39</v>
       </c>
-      <c r="U24" s="5">
-        <f t="shared" ref="U24:U32" si="0">U23+0.0001</f>
+      <c r="W24" s="5">
+        <f t="shared" ref="W24:W32" si="2">W23+0.0001</f>
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="V24" s="4">
+      <c r="X24" s="4">
         <v>0.82281099328663998</v>
       </c>
-      <c r="W24" s="4"/>
+      <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.22</v>
       </c>
@@ -11324,23 +12318,29 @@
       <c r="Q25">
         <v>2.7938525883709299E-2</v>
       </c>
-      <c r="S25" s="5">
-        <f>0.35+B15*1.05</f>
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="T25" s="5">
-        <v>2.38</v>
+      <c r="R25">
+        <v>5.6706312280327921E-3</v>
+      </c>
+      <c r="S25">
+        <v>3.077189302219974E-2</v>
       </c>
       <c r="U25" s="5">
         <f t="shared" si="0"/>
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="V25" s="5">
+        <v>2.38</v>
+      </c>
+      <c r="W25" s="5">
+        <f t="shared" si="2"/>
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="V25" s="4">
+      <c r="X25" s="4">
         <v>0.89355266350826223</v>
       </c>
-      <c r="W25" s="4"/>
+      <c r="Y25" s="4"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.23</v>
       </c>
@@ -11386,23 +12386,29 @@
       <c r="Q26">
         <v>2.8088861665529461E-2</v>
       </c>
-      <c r="S26" s="5">
-        <f>0.35+B16*1.05</f>
-        <v>0.48649999999999999</v>
-      </c>
-      <c r="T26" s="5">
-        <v>2.36</v>
+      <c r="R26">
+        <v>6.1157134360593467E-3</v>
+      </c>
+      <c r="S26">
+        <v>3.3334061347461384E-2</v>
       </c>
       <c r="U26" s="5">
         <f t="shared" si="0"/>
+        <v>0.48649999999999999</v>
+      </c>
+      <c r="V26" s="5">
+        <v>2.36</v>
+      </c>
+      <c r="W26" s="5">
+        <f t="shared" si="2"/>
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="V26" s="4">
+      <c r="X26" s="4">
         <v>0.92511851027435188</v>
       </c>
-      <c r="W26" s="4"/>
+      <c r="Y26" s="4"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.24</v>
       </c>
@@ -11448,23 +12454,29 @@
       <c r="Q27">
         <v>2.8740057590507889E-2</v>
       </c>
-      <c r="S27" s="5">
-        <f>0.35+B17*1.05</f>
-        <v>0.497</v>
-      </c>
-      <c r="T27" s="5">
-        <v>2.34</v>
+      <c r="R27">
+        <v>6.1652177673531374E-3</v>
+      </c>
+      <c r="S27">
+        <v>3.3092720975220626E-2</v>
       </c>
       <c r="U27" s="5">
         <f t="shared" si="0"/>
+        <v>0.497</v>
+      </c>
+      <c r="V27" s="5">
+        <v>2.34</v>
+      </c>
+      <c r="W27" s="5">
+        <f t="shared" si="2"/>
         <v>9.3999999999999986E-3</v>
       </c>
-      <c r="V27" s="4">
+      <c r="X27" s="4">
         <v>0.93388374375819727</v>
       </c>
-      <c r="W27" s="4"/>
+      <c r="Y27" s="4"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.25</v>
       </c>
@@ -11510,23 +12522,29 @@
       <c r="Q28">
         <v>2.9280432111481625E-2</v>
       </c>
-      <c r="S28" s="5">
-        <f>0.35+B18*1.05</f>
-        <v>0.50749999999999995</v>
-      </c>
-      <c r="T28" s="5">
-        <v>2.31</v>
+      <c r="R28">
+        <v>6.6710391544723326E-3</v>
+      </c>
+      <c r="S28">
+        <v>3.4131496304683623E-2</v>
       </c>
       <c r="U28" s="5">
         <f t="shared" si="0"/>
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="V28" s="5">
+        <v>2.31</v>
+      </c>
+      <c r="W28" s="5">
+        <f t="shared" si="2"/>
         <v>9.499999999999998E-3</v>
       </c>
-      <c r="V28" s="4">
+      <c r="X28" s="4">
         <v>1.0172166919366175</v>
       </c>
-      <c r="W28" s="4"/>
+      <c r="Y28" s="4"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.26</v>
       </c>
@@ -11572,23 +12590,29 @@
       <c r="Q29">
         <v>2.9165031675378639E-2</v>
       </c>
-      <c r="S29" s="5">
-        <f>0.35+B19*1.05</f>
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="T29" s="5">
-        <v>2.2799999999999998</v>
+      <c r="R29">
+        <v>6.7691550879159122E-3</v>
+      </c>
+      <c r="S29">
+        <v>3.4099334786297862E-2</v>
       </c>
       <c r="U29" s="5">
         <f t="shared" si="0"/>
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="V29" s="5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W29" s="5">
+        <f t="shared" si="2"/>
         <v>9.5999999999999974E-3</v>
       </c>
-      <c r="V29" s="4">
+      <c r="X29" s="4">
         <v>1.0497542265823365</v>
       </c>
-      <c r="W29" s="4"/>
+      <c r="Y29" s="4"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.27</v>
       </c>
@@ -11634,23 +12658,29 @@
       <c r="Q30">
         <v>3.0603657387655029E-2</v>
       </c>
-      <c r="S30" s="5">
-        <f>0.35+B20*1.05</f>
-        <v>0.52849999999999997</v>
-      </c>
-      <c r="T30" s="5">
-        <v>2.2400000000000002</v>
+      <c r="R30">
+        <v>7.6153484610106794E-3</v>
+      </c>
+      <c r="S30">
+        <v>3.5983733075208552E-2</v>
       </c>
       <c r="U30" s="5">
         <f t="shared" si="0"/>
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="V30" s="5">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="W30" s="5">
+        <f t="shared" si="2"/>
         <v>9.6999999999999968E-3</v>
       </c>
-      <c r="V30" s="4">
+      <c r="X30" s="4">
         <v>1.0741603898003038</v>
       </c>
-      <c r="W30" s="4"/>
+      <c r="Y30" s="4"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.28000000000000003</v>
       </c>
@@ -11696,23 +12726,29 @@
       <c r="Q31">
         <v>3.0853633616491759E-2</v>
       </c>
-      <c r="S31" s="5">
-        <f>0.35+B21*1.05</f>
-        <v>0.53899999999999992</v>
-      </c>
-      <c r="T31" s="5">
-        <v>2.2000000000000002</v>
+      <c r="R31">
+        <v>7.6997087657111139E-3</v>
+      </c>
+      <c r="S31">
+        <v>3.6489824324181269E-2</v>
       </c>
       <c r="U31" s="5">
         <f t="shared" si="0"/>
+        <v>0.53899999999999992</v>
+      </c>
+      <c r="V31" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W31" s="5">
+        <f t="shared" si="2"/>
         <v>9.7999999999999962E-3</v>
       </c>
-      <c r="V31" s="4">
+      <c r="X31" s="4">
         <v>1.1285892348925854</v>
       </c>
-      <c r="W31" s="4"/>
+      <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.28999999999999998</v>
       </c>
@@ -11758,23 +12794,29 @@
       <c r="Q32">
         <v>3.3067705412172015E-2</v>
       </c>
-      <c r="S32" s="5">
-        <f>0.35+B22*1.05</f>
-        <v>0.54949999999999999</v>
-      </c>
-      <c r="T32" s="5">
-        <v>2.16</v>
+      <c r="R32">
+        <v>8.471803428808029E-3</v>
+      </c>
+      <c r="S32">
+        <v>3.8061360703918835E-2</v>
       </c>
       <c r="U32" s="5">
         <f t="shared" si="0"/>
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="V32" s="5">
+        <v>2.16</v>
+      </c>
+      <c r="W32" s="5">
+        <f t="shared" si="2"/>
         <v>9.8999999999999956E-3</v>
       </c>
-      <c r="V32" s="4">
+      <c r="X32" s="4">
         <v>1.1496497644336141</v>
       </c>
-      <c r="W32" s="4"/>
+      <c r="Y32" s="4"/>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.3</v>
       </c>
@@ -11820,23 +12862,29 @@
       <c r="Q33">
         <v>3.3003635952102463E-2</v>
       </c>
-      <c r="S33" s="5">
-        <f>0.35+B23*1.05</f>
+      <c r="R33">
+        <v>8.5149028552682048E-3</v>
+      </c>
+      <c r="S33">
+        <v>3.8621140448337234E-2</v>
+      </c>
+      <c r="U33" s="5">
+        <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="T33" s="5">
+      <c r="V33" s="5">
         <v>2.12</v>
       </c>
-      <c r="U33" s="5">
-        <f>U32+0.000166666</f>
+      <c r="W33" s="5">
+        <f>W32+0.000166666</f>
         <v>1.0066665999999995E-2</v>
       </c>
-      <c r="V33" s="4">
+      <c r="X33" s="4">
         <v>1.2049713131543704</v>
       </c>
-      <c r="W33" s="4"/>
+      <c r="Y33" s="4"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.31</v>
       </c>
@@ -11882,23 +12930,29 @@
       <c r="Q34">
         <v>3.5078569193074574E-2</v>
       </c>
-      <c r="S34" s="5">
-        <f>0.35+B24*1.05</f>
+      <c r="R34">
+        <v>9.2966932369632251E-3</v>
+      </c>
+      <c r="S34">
+        <v>4.1954697209836841E-2</v>
+      </c>
+      <c r="U34" s="5">
+        <f t="shared" si="0"/>
         <v>0.57050000000000001</v>
       </c>
-      <c r="T34" s="5">
+      <c r="V34" s="5">
         <v>2.08</v>
       </c>
-      <c r="U34" s="5">
-        <f t="shared" ref="U34:U63" si="1">U33+0.000166666</f>
+      <c r="W34" s="5">
+        <f t="shared" ref="W34:W63" si="3">W33+0.000166666</f>
         <v>1.0233331999999994E-2</v>
       </c>
-      <c r="V34" s="4">
+      <c r="X34" s="4">
         <v>1.2387553097242325</v>
       </c>
-      <c r="W34" s="4"/>
+      <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.32</v>
       </c>
@@ -11944,23 +12998,29 @@
       <c r="Q35">
         <v>3.5845596512918944E-2</v>
       </c>
-      <c r="S35" s="5">
-        <f>0.35+B25*1.05</f>
+      <c r="R35">
+        <v>9.3008785053435589E-3</v>
+      </c>
+      <c r="S35">
+        <v>4.2618789714139148E-2</v>
+      </c>
+      <c r="U35" s="5">
+        <f t="shared" si="0"/>
         <v>0.58099999999999996</v>
       </c>
-      <c r="T35" s="5">
+      <c r="V35" s="5">
         <v>2.04</v>
       </c>
-      <c r="U35" s="5">
-        <f t="shared" si="1"/>
+      <c r="W35" s="5">
+        <f t="shared" si="3"/>
         <v>1.0399997999999994E-2</v>
       </c>
-      <c r="V35" s="4">
+      <c r="X35" s="4">
         <v>1.2680061389637507</v>
       </c>
-      <c r="W35" s="4"/>
+      <c r="Y35" s="4"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0.33</v>
       </c>
@@ -12006,23 +13066,29 @@
       <c r="Q36">
         <v>3.7556148729643822E-2</v>
       </c>
-      <c r="S36" s="5">
-        <f>0.35+B26*1.05</f>
+      <c r="R36">
+        <v>1.000140981540964E-2</v>
+      </c>
+      <c r="S36">
+        <v>4.2959507015676149E-2</v>
+      </c>
+      <c r="U36" s="5">
+        <f t="shared" si="0"/>
         <v>0.59150000000000003</v>
       </c>
-      <c r="T36" s="5">
+      <c r="V36" s="5">
         <v>2</v>
       </c>
-      <c r="U36" s="5">
-        <f t="shared" si="1"/>
+      <c r="W36" s="5">
+        <f t="shared" si="3"/>
         <v>1.0566663999999993E-2</v>
       </c>
-      <c r="V36" s="4">
+      <c r="X36" s="4">
         <v>1.2824932702128446</v>
       </c>
-      <c r="W36" s="4"/>
+      <c r="Y36" s="4"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0.34</v>
       </c>
@@ -12068,23 +13134,29 @@
       <c r="Q37">
         <v>3.7179197730276906E-2</v>
       </c>
-      <c r="S37" s="5">
-        <f>0.35+B27*1.05</f>
+      <c r="R37">
+        <v>9.9366859718335396E-3</v>
+      </c>
+      <c r="S37">
+        <v>4.276022756700832E-2</v>
+      </c>
+      <c r="U37" s="5">
+        <f t="shared" si="0"/>
         <v>0.60199999999999998</v>
       </c>
-      <c r="T37" s="5">
+      <c r="V37" s="5">
         <v>1.96</v>
       </c>
-      <c r="U37" s="5">
-        <f t="shared" si="1"/>
+      <c r="W37" s="5">
+        <f t="shared" si="3"/>
         <v>1.0733329999999992E-2</v>
       </c>
-      <c r="V37" s="4">
+      <c r="X37" s="4">
         <v>1.3088724504424194</v>
       </c>
-      <c r="W37" s="4"/>
+      <c r="Y37" s="4"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.35</v>
       </c>
@@ -12130,23 +13202,29 @@
       <c r="Q38">
         <v>3.9680502367639321E-2</v>
       </c>
-      <c r="S38" s="5">
-        <f>0.35+B28*1.05</f>
+      <c r="R38">
+        <v>1.0814162555164177E-2</v>
+      </c>
+      <c r="S38">
+        <v>4.4029280126741739E-2</v>
+      </c>
+      <c r="U38" s="5">
+        <f t="shared" si="0"/>
         <v>0.61250000000000004</v>
       </c>
-      <c r="T38" s="5">
+      <c r="V38" s="5">
         <v>1.92</v>
       </c>
-      <c r="U38" s="5">
-        <f t="shared" si="1"/>
+      <c r="W38" s="5">
+        <f t="shared" si="3"/>
         <v>1.0899995999999992E-2</v>
       </c>
-      <c r="V38" s="4">
+      <c r="X38" s="4">
         <v>1.3386610080076067</v>
       </c>
-      <c r="W38" s="4"/>
+      <c r="Y38" s="4"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.36</v>
       </c>
@@ -12192,23 +13270,29 @@
       <c r="Q39">
         <v>3.993479868644792E-2</v>
       </c>
-      <c r="S39" s="5">
-        <f>0.35+B29*1.05</f>
+      <c r="R39">
+        <v>1.0694752392320496E-2</v>
+      </c>
+      <c r="S39">
+        <v>4.4198466374257131E-2</v>
+      </c>
+      <c r="U39" s="5">
+        <f t="shared" si="0"/>
         <v>0.623</v>
       </c>
-      <c r="T39" s="5">
+      <c r="V39" s="5">
         <v>1.88</v>
       </c>
-      <c r="U39" s="5">
-        <f t="shared" si="1"/>
+      <c r="W39" s="5">
+        <f t="shared" si="3"/>
         <v>1.1066661999999991E-2</v>
       </c>
-      <c r="V39" s="4">
+      <c r="X39" s="4">
         <v>1.3286004044839204</v>
       </c>
-      <c r="W39" s="4"/>
+      <c r="Y39" s="4"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.37</v>
       </c>
@@ -12254,23 +13338,29 @@
       <c r="Q40">
         <v>4.1989167860636799E-2</v>
       </c>
-      <c r="S40" s="5">
-        <f>0.35+B30*1.05</f>
+      <c r="R40">
+        <v>1.1621936830094196E-2</v>
+      </c>
+      <c r="S40">
+        <v>4.3711921966374349E-2</v>
+      </c>
+      <c r="U40" s="5">
+        <f t="shared" si="0"/>
         <v>0.63349999999999995</v>
       </c>
-      <c r="T40" s="5">
+      <c r="V40" s="5">
         <v>1.84</v>
       </c>
-      <c r="U40" s="5">
-        <f t="shared" si="1"/>
+      <c r="W40" s="5">
+        <f t="shared" si="3"/>
         <v>1.123332799999999E-2</v>
       </c>
-      <c r="V40" s="4">
+      <c r="X40" s="4">
         <v>1.3112695165481045</v>
       </c>
-      <c r="W40" s="4"/>
+      <c r="Y40" s="4"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.38</v>
       </c>
@@ -12316,23 +13406,29 @@
       <c r="Q41">
         <v>4.176123513517465E-2</v>
       </c>
-      <c r="S41" s="5">
-        <f>0.35+B31*1.05</f>
+      <c r="R41">
+        <v>1.1488870720853205E-2</v>
+      </c>
+      <c r="S41">
+        <v>4.4226134480977217E-2</v>
+      </c>
+      <c r="U41" s="5">
+        <f t="shared" si="0"/>
         <v>0.64400000000000002</v>
       </c>
-      <c r="T41" s="5">
+      <c r="V41" s="5">
         <v>1.8</v>
       </c>
-      <c r="U41" s="5">
-        <f t="shared" si="1"/>
+      <c r="W41" s="5">
+        <f t="shared" si="3"/>
         <v>1.139999399999999E-2</v>
       </c>
-      <c r="V41" s="4">
+      <c r="X41" s="4">
         <v>1.3193084992668407</v>
       </c>
-      <c r="W41" s="4"/>
+      <c r="Y41" s="4"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0.39</v>
       </c>
@@ -12378,23 +13474,29 @@
       <c r="Q42">
         <v>4.2842529977521346E-2</v>
       </c>
-      <c r="S42" s="5">
-        <f>0.35+B32*1.05</f>
+      <c r="R42">
+        <v>1.2861210378014376E-2</v>
+      </c>
+      <c r="S42">
+        <v>4.5492711170920658E-2</v>
+      </c>
+      <c r="U42" s="5">
+        <f t="shared" si="0"/>
         <v>0.65449999999999997</v>
       </c>
-      <c r="T42" s="5">
+      <c r="V42" s="5">
         <v>1.76</v>
       </c>
-      <c r="U42" s="5">
-        <f t="shared" si="1"/>
+      <c r="W42" s="5">
+        <f t="shared" si="3"/>
         <v>1.1566659999999989E-2</v>
       </c>
-      <c r="V42" s="4">
+      <c r="X42" s="4">
         <v>1.3111275290512265</v>
       </c>
-      <c r="W42" s="4"/>
+      <c r="Y42" s="4"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.4</v>
       </c>
@@ -12440,23 +13542,29 @@
       <c r="Q43">
         <v>4.3535833438278854E-2</v>
       </c>
-      <c r="S43" s="5">
-        <f>0.35+B33*1.05</f>
+      <c r="R43">
+        <v>1.2766367430498471E-2</v>
+      </c>
+      <c r="S43">
+        <v>4.5471080733420516E-2</v>
+      </c>
+      <c r="U43" s="5">
+        <f t="shared" si="0"/>
         <v>0.66500000000000004</v>
       </c>
-      <c r="T43" s="5">
+      <c r="V43" s="5">
         <v>1.72</v>
       </c>
-      <c r="U43" s="5">
-        <f t="shared" si="1"/>
+      <c r="W43" s="5">
+        <f t="shared" si="3"/>
         <v>1.1733325999999988E-2</v>
       </c>
-      <c r="V43" s="4">
+      <c r="X43" s="4">
         <v>1.2872478577671087</v>
       </c>
-      <c r="W43" s="4"/>
+      <c r="Y43" s="4"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.41</v>
       </c>
@@ -12502,23 +13610,29 @@
       <c r="Q44">
         <v>4.4852975042522926E-2</v>
       </c>
-      <c r="S44" s="5">
-        <f>0.35+B34*1.05</f>
+      <c r="R44">
+        <v>1.3835965662616545E-2</v>
+      </c>
+      <c r="S44">
+        <v>4.7569864158224943E-2</v>
+      </c>
+      <c r="U44" s="5">
+        <f t="shared" si="0"/>
         <v>0.67549999999999999</v>
       </c>
-      <c r="T44" s="5">
+      <c r="V44" s="5">
         <v>1.69</v>
       </c>
-      <c r="U44" s="5">
-        <f t="shared" si="1"/>
+      <c r="W44" s="5">
+        <f t="shared" si="3"/>
         <v>1.1899991999999988E-2</v>
       </c>
-      <c r="V44" s="4">
+      <c r="X44" s="4">
         <v>1.2548637392265976</v>
       </c>
-      <c r="W44" s="4"/>
+      <c r="Y44" s="4"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0.42</v>
       </c>
@@ -12564,23 +13678,29 @@
       <c r="Q45">
         <v>4.5515415449659105E-2</v>
       </c>
-      <c r="S45" s="5">
-        <f>0.35+B35*1.05</f>
+      <c r="R45">
+        <v>1.3912762182871092E-2</v>
+      </c>
+      <c r="S45">
+        <v>4.659552692634239E-2</v>
+      </c>
+      <c r="U45" s="5">
+        <f t="shared" si="0"/>
         <v>0.68599999999999994</v>
       </c>
-      <c r="T45" s="5">
+      <c r="V45" s="5">
         <v>1.66</v>
       </c>
-      <c r="U45" s="5">
-        <f t="shared" si="1"/>
+      <c r="W45" s="5">
+        <f t="shared" si="3"/>
         <v>1.2066657999999987E-2</v>
       </c>
-      <c r="V45" s="4">
+      <c r="X45" s="4">
         <v>1.2912065289430401</v>
       </c>
-      <c r="W45" s="4"/>
+      <c r="Y45" s="4"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0.43</v>
       </c>
@@ -12626,23 +13746,29 @@
       <c r="Q46">
         <v>4.8668775865294861E-2</v>
       </c>
-      <c r="S46" s="5">
-        <f>0.35+B36*1.05</f>
+      <c r="R46">
+        <v>1.4886555599394682E-2</v>
+      </c>
+      <c r="S46">
+        <v>5.0762908564336628E-2</v>
+      </c>
+      <c r="U46" s="5">
+        <f t="shared" ref="U46:U63" si="4">0.35+B36*1.05</f>
         <v>0.69650000000000001</v>
       </c>
-      <c r="T46" s="5">
+      <c r="V46" s="5">
         <v>1.64</v>
       </c>
-      <c r="U46" s="5">
-        <f t="shared" si="1"/>
+      <c r="W46" s="5">
+        <f t="shared" si="3"/>
         <v>1.2233323999999986E-2</v>
       </c>
-      <c r="V46" s="4">
+      <c r="X46" s="4">
         <v>1.271295865426741</v>
       </c>
-      <c r="W46" s="4"/>
+      <c r="Y46" s="4"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.44</v>
       </c>
@@ -12688,23 +13814,29 @@
       <c r="Q47">
         <v>4.9090131002704963E-2</v>
       </c>
-      <c r="S47" s="5">
-        <f>0.35+B37*1.05</f>
+      <c r="R47">
+        <v>1.4920250201393804E-2</v>
+      </c>
+      <c r="S47">
+        <v>4.8669374253656181E-2</v>
+      </c>
+      <c r="U47" s="5">
+        <f t="shared" si="4"/>
         <v>0.70700000000000007</v>
       </c>
-      <c r="T47" s="5">
+      <c r="V47" s="5">
         <v>1.63</v>
       </c>
-      <c r="U47" s="5">
-        <f t="shared" si="1"/>
+      <c r="W47" s="5">
+        <f t="shared" si="3"/>
         <v>1.2399989999999986E-2</v>
       </c>
-      <c r="V47" s="4">
+      <c r="X47" s="4">
         <v>1.2687975383464345</v>
       </c>
-      <c r="W47" s="4"/>
+      <c r="Y47" s="4"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0.45</v>
       </c>
@@ -12750,23 +13882,29 @@
       <c r="Q48">
         <v>5.0218838299171592E-2</v>
       </c>
-      <c r="S48" s="5">
-        <f>0.35+B38*1.05</f>
+      <c r="R48">
+        <v>1.6565089932441237E-2</v>
+      </c>
+      <c r="S48">
+        <v>5.1756581486245339E-2</v>
+      </c>
+      <c r="U48" s="5">
+        <f t="shared" si="4"/>
         <v>0.71750000000000003</v>
       </c>
-      <c r="T48" s="5">
+      <c r="V48" s="5">
         <v>1.62</v>
       </c>
-      <c r="U48" s="5">
-        <f t="shared" si="1"/>
+      <c r="W48" s="5">
+        <f t="shared" si="3"/>
         <v>1.2566655999999985E-2</v>
       </c>
-      <c r="V48" s="4">
+      <c r="X48" s="4">
         <v>1.3203134392346885</v>
       </c>
-      <c r="W48" s="4"/>
+      <c r="Y48" s="4"/>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.46</v>
       </c>
@@ -12812,23 +13950,29 @@
       <c r="Q49">
         <v>5.0517984454281906E-2</v>
       </c>
-      <c r="S49" s="5">
-        <f>0.35+B39*1.05</f>
+      <c r="R49">
+        <v>1.6632339860832138E-2</v>
+      </c>
+      <c r="S49">
+        <v>5.0351559386365805E-2</v>
+      </c>
+      <c r="U49" s="5">
+        <f t="shared" si="4"/>
         <v>0.72799999999999998</v>
       </c>
-      <c r="T49" s="5">
+      <c r="V49" s="5">
         <v>1.61</v>
       </c>
-      <c r="U49" s="5">
-        <f t="shared" si="1"/>
+      <c r="W49" s="5">
+        <f t="shared" si="3"/>
         <v>1.2733321999999984E-2</v>
       </c>
-      <c r="V49" s="4">
+      <c r="X49" s="4">
         <v>1.3214330592428734</v>
       </c>
-      <c r="W49" s="4"/>
+      <c r="Y49" s="4"/>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.47</v>
       </c>
@@ -12874,23 +14018,29 @@
       <c r="Q50">
         <v>5.1520109779181839E-2</v>
       </c>
-      <c r="S50" s="5">
-        <f>0.35+B40*1.05</f>
+      <c r="R50">
+        <v>1.7985083979668828E-2</v>
+      </c>
+      <c r="S50">
+        <v>5.3068145832166569E-2</v>
+      </c>
+      <c r="U50" s="5">
+        <f t="shared" si="4"/>
         <v>0.73849999999999993</v>
       </c>
-      <c r="T50" s="5">
+      <c r="V50" s="5">
         <v>1.6</v>
       </c>
-      <c r="U50" s="5">
-        <f t="shared" si="1"/>
+      <c r="W50" s="5">
+        <f t="shared" si="3"/>
         <v>1.2899987999999984E-2</v>
       </c>
-      <c r="V50" s="4">
+      <c r="X50" s="4">
         <v>1.3568162038913754</v>
       </c>
-      <c r="W50" s="4"/>
+      <c r="Y50" s="4"/>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0.48</v>
       </c>
@@ -12936,23 +14086,29 @@
       <c r="Q51">
         <v>5.1688372879820955E-2</v>
       </c>
-      <c r="S51" s="5">
-        <f>0.35+B41*1.05</f>
+      <c r="R51">
+        <v>1.8123962889293532E-2</v>
+      </c>
+      <c r="S51">
+        <v>5.1705968003182584E-2</v>
+      </c>
+      <c r="U51" s="5">
+        <f t="shared" si="4"/>
         <v>0.749</v>
       </c>
-      <c r="T51" s="5">
+      <c r="V51" s="5">
         <v>1.59</v>
       </c>
-      <c r="U51" s="5">
-        <f t="shared" si="1"/>
+      <c r="W51" s="5">
+        <f t="shared" si="3"/>
         <v>1.3066653999999983E-2</v>
       </c>
-      <c r="V51" s="4">
+      <c r="X51" s="4">
         <v>1.3623011149770488</v>
       </c>
-      <c r="W51" s="4"/>
+      <c r="Y51" s="4"/>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>0.49</v>
       </c>
@@ -12998,23 +14154,29 @@
       <c r="Q52">
         <v>5.2456408875725953E-2</v>
       </c>
-      <c r="S52" s="5">
-        <f>0.35+B42*1.05</f>
+      <c r="R52">
+        <v>1.9531948995760742E-2</v>
+      </c>
+      <c r="S52">
+        <v>5.5259959257895605E-2</v>
+      </c>
+      <c r="U52" s="5">
+        <f t="shared" si="4"/>
         <v>0.75950000000000006</v>
       </c>
-      <c r="T52" s="5">
+      <c r="V52" s="5">
         <v>1.58</v>
       </c>
-      <c r="U52" s="5">
-        <f t="shared" si="1"/>
+      <c r="W52" s="5">
+        <f t="shared" si="3"/>
         <v>1.3233319999999982E-2</v>
       </c>
-      <c r="V52" s="4">
+      <c r="X52" s="4">
         <v>1.3445208931116512</v>
       </c>
-      <c r="W52" s="4"/>
+      <c r="Y52" s="4"/>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0.5</v>
       </c>
@@ -13060,23 +14222,29 @@
       <c r="Q53">
         <v>5.2070478034338459E-2</v>
       </c>
-      <c r="S53" s="5">
-        <f>0.35+B43*1.05</f>
+      <c r="R53">
+        <v>1.9646325260054311E-2</v>
+      </c>
+      <c r="S53">
+        <v>5.2885898641267449E-2</v>
+      </c>
+      <c r="U53" s="5">
+        <f t="shared" si="4"/>
         <v>0.77</v>
       </c>
-      <c r="T53" s="5">
+      <c r="V53" s="5">
         <v>1.57</v>
       </c>
-      <c r="U53" s="5">
-        <f t="shared" si="1"/>
+      <c r="W53" s="5">
+        <f t="shared" si="3"/>
         <v>1.3399985999999982E-2</v>
       </c>
-      <c r="V53" s="4">
+      <c r="X53" s="4">
         <v>1.3434651952683176</v>
       </c>
-      <c r="W53" s="4"/>
+      <c r="Y53" s="4"/>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>0.51</v>
       </c>
@@ -13122,23 +14290,29 @@
       <c r="Q54">
         <v>5.1899228271494395E-2</v>
       </c>
-      <c r="S54" s="5">
-        <f>0.35+B44*1.05</f>
+      <c r="R54">
+        <v>2.0907693404666711E-2</v>
+      </c>
+      <c r="S54">
+        <v>5.5036488891837231E-2</v>
+      </c>
+      <c r="U54" s="5">
+        <f t="shared" si="4"/>
         <v>0.78049999999999997</v>
       </c>
-      <c r="T54" s="5">
+      <c r="V54" s="5">
         <v>1.56</v>
       </c>
-      <c r="U54" s="5">
-        <f t="shared" si="1"/>
+      <c r="W54" s="5">
+        <f t="shared" si="3"/>
         <v>1.3566651999999981E-2</v>
       </c>
-      <c r="V54" s="4">
+      <c r="X54" s="4">
         <v>1.3887419832911747</v>
       </c>
-      <c r="W54" s="4"/>
+      <c r="Y54" s="4"/>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>0.52</v>
       </c>
@@ -13184,23 +14358,29 @@
       <c r="Q55">
         <v>5.1860197924064343E-2</v>
       </c>
-      <c r="S55" s="5">
-        <f>0.35+B45*1.05</f>
+      <c r="R55">
+        <v>2.1152135444381201E-2</v>
+      </c>
+      <c r="S55">
+        <v>5.4156320500254221E-2</v>
+      </c>
+      <c r="U55" s="5">
+        <f t="shared" si="4"/>
         <v>0.79099999999999993</v>
       </c>
-      <c r="T55" s="5">
+      <c r="V55" s="5">
         <v>1.55</v>
       </c>
-      <c r="U55" s="5">
-        <f t="shared" si="1"/>
+      <c r="W55" s="5">
+        <f t="shared" si="3"/>
         <v>1.373331799999998E-2</v>
       </c>
-      <c r="V55" s="4">
+      <c r="X55" s="4">
         <v>1.389005269559288</v>
       </c>
-      <c r="W55" s="4"/>
+      <c r="Y55" s="4"/>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>0.53</v>
       </c>
@@ -13246,23 +14426,29 @@
       <c r="Q56">
         <v>5.1004151663079589E-2</v>
       </c>
-      <c r="S56" s="5">
-        <f>0.35+B46*1.05</f>
+      <c r="R56">
+        <v>2.2850182113899244E-2</v>
+      </c>
+      <c r="S56">
+        <v>5.6515648490994573E-2</v>
+      </c>
+      <c r="U56" s="5">
+        <f t="shared" si="4"/>
         <v>0.80149999999999999</v>
       </c>
-      <c r="T56" s="5">
+      <c r="V56" s="5">
         <v>1.54</v>
       </c>
-      <c r="U56" s="5">
-        <f t="shared" si="1"/>
+      <c r="W56" s="5">
+        <f t="shared" si="3"/>
         <v>1.389998399999998E-2</v>
       </c>
-      <c r="V56" s="4">
+      <c r="X56" s="4">
         <v>1.3813181676659125</v>
       </c>
-      <c r="W56" s="4"/>
+      <c r="Y56" s="4"/>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0.54</v>
       </c>
@@ -13308,23 +14494,29 @@
       <c r="Q57">
         <v>5.1236611487045954E-2</v>
       </c>
-      <c r="S57" s="5">
-        <f>0.35+B47*1.05</f>
+      <c r="R57">
+        <v>2.3189172022622655E-2</v>
+      </c>
+      <c r="S57">
+        <v>5.6206998281324881E-2</v>
+      </c>
+      <c r="U57" s="5">
+        <f t="shared" si="4"/>
         <v>0.81200000000000006</v>
       </c>
-      <c r="T57" s="5">
+      <c r="V57" s="5">
         <v>1.53</v>
       </c>
-      <c r="U57" s="5">
-        <f t="shared" si="1"/>
+      <c r="W57" s="5">
+        <f t="shared" si="3"/>
         <v>1.4066649999999979E-2</v>
       </c>
-      <c r="V57" s="4">
+      <c r="X57" s="4">
         <v>1.3753449064145455</v>
       </c>
-      <c r="W57" s="4"/>
+      <c r="Y57" s="4"/>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0.55000000000000004</v>
       </c>
@@ -13370,23 +14562,29 @@
       <c r="Q58">
         <v>5.1758921257395528E-2</v>
       </c>
-      <c r="S58" s="5">
-        <f>0.35+B48*1.05</f>
+      <c r="R58">
+        <v>2.4425070875385556E-2</v>
+      </c>
+      <c r="S58">
+        <v>5.9376576451026564E-2</v>
+      </c>
+      <c r="U58" s="5">
+        <f t="shared" si="4"/>
         <v>0.82250000000000001</v>
       </c>
-      <c r="T58" s="5">
+      <c r="V58" s="5">
         <v>1.5249999999999999</v>
       </c>
-      <c r="U58" s="5">
-        <f t="shared" si="1"/>
+      <c r="W58" s="5">
+        <f t="shared" si="3"/>
         <v>1.4233315999999979E-2</v>
       </c>
-      <c r="V58" s="4">
+      <c r="X58" s="4">
         <v>1.4125475955352327</v>
       </c>
-      <c r="W58" s="4"/>
+      <c r="Y58" s="4"/>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>0.56000000000000005</v>
       </c>
@@ -13432,23 +14630,29 @@
       <c r="Q59">
         <v>5.1976644337524115E-2</v>
       </c>
-      <c r="S59" s="5">
-        <f>0.35+B49*1.05</f>
+      <c r="R59">
+        <v>2.4799291622448261E-2</v>
+      </c>
+      <c r="S59">
+        <v>5.8023454457516672E-2</v>
+      </c>
+      <c r="U59" s="5">
+        <f t="shared" si="4"/>
         <v>0.83299999999999996</v>
       </c>
-      <c r="T59" s="5">
+      <c r="V59" s="5">
         <v>1.52</v>
       </c>
-      <c r="U59" s="5">
-        <f t="shared" si="1"/>
+      <c r="W59" s="5">
+        <f t="shared" si="3"/>
         <v>1.4399981999999978E-2</v>
       </c>
-      <c r="V59" s="4">
+      <c r="X59" s="4">
         <v>1.4524272569249099</v>
       </c>
-      <c r="W59" s="4"/>
+      <c r="Y59" s="4"/>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>0.56999999999999995</v>
       </c>
@@ -13494,23 +14698,29 @@
       <c r="Q60">
         <v>5.3947226422581256E-2</v>
       </c>
-      <c r="S60" s="5">
-        <f>0.35+B50*1.05</f>
+      <c r="R60">
+        <v>2.6027903857764306E-2</v>
+      </c>
+      <c r="S60">
+        <v>6.1314793301699068E-2</v>
+      </c>
+      <c r="U60" s="5">
+        <f t="shared" si="4"/>
         <v>0.84349999999999992</v>
       </c>
-      <c r="T60" s="5">
+      <c r="V60" s="5">
         <v>1.5149999999999999</v>
       </c>
-      <c r="U60" s="5">
-        <f t="shared" si="1"/>
+      <c r="W60" s="5">
+        <f t="shared" si="3"/>
         <v>1.4566647999999977E-2</v>
       </c>
-      <c r="V60" s="4">
+      <c r="X60" s="4">
         <v>1.4085199175878982</v>
       </c>
-      <c r="W60" s="4"/>
+      <c r="Y60" s="4"/>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>0.57999999999999996</v>
       </c>
@@ -13556,23 +14766,29 @@
       <c r="Q61">
         <v>5.529439642612724E-2</v>
       </c>
-      <c r="S61" s="5">
-        <f>0.35+B51*1.05</f>
+      <c r="R61">
+        <v>2.6309585644086274E-2</v>
+      </c>
+      <c r="S61">
+        <v>6.0604784418684561E-2</v>
+      </c>
+      <c r="U61" s="5">
+        <f t="shared" si="4"/>
         <v>0.85399999999999998</v>
       </c>
-      <c r="T61" s="5">
+      <c r="V61" s="5">
         <v>1.51</v>
       </c>
-      <c r="U61" s="5">
-        <f t="shared" si="1"/>
+      <c r="W61" s="5">
+        <f t="shared" si="3"/>
         <v>1.4733313999999977E-2</v>
       </c>
-      <c r="V61" s="4">
+      <c r="X61" s="4">
         <v>1.4643441757348503</v>
       </c>
-      <c r="W61" s="4"/>
+      <c r="Y61" s="4"/>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>0.59</v>
       </c>
@@ -13618,23 +14834,29 @@
       <c r="Q62">
         <v>5.8382930718604918E-2</v>
       </c>
-      <c r="S62" s="5">
-        <f>0.35+B52*1.05</f>
+      <c r="R62">
+        <v>2.8985410931227709E-2</v>
+      </c>
+      <c r="S62">
+        <v>6.7255461009437828E-2</v>
+      </c>
+      <c r="U62" s="5">
+        <f t="shared" si="4"/>
         <v>0.86449999999999994</v>
       </c>
-      <c r="T62" s="5">
+      <c r="V62" s="5">
         <v>1.5049999999999999</v>
       </c>
-      <c r="U62" s="5">
-        <f t="shared" si="1"/>
+      <c r="W62" s="5">
+        <f t="shared" si="3"/>
         <v>1.4899979999999976E-2</v>
       </c>
-      <c r="V62" s="4">
+      <c r="X62" s="4">
         <v>1.4535082756319282</v>
       </c>
-      <c r="W62" s="4"/>
+      <c r="Y62" s="4"/>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>0.6</v>
       </c>
@@ -13680,26 +14902,54 @@
       <c r="Q63">
         <v>5.9374950154708749E-2</v>
       </c>
-      <c r="S63" s="5">
-        <f>0.35+B53*1.05</f>
+      <c r="R63">
+        <v>2.9389528445667605E-2</v>
+      </c>
+      <c r="S63">
+        <v>6.6978880488251236E-2</v>
+      </c>
+      <c r="U63" s="5">
+        <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
-      <c r="T63" s="5">
+      <c r="V63" s="5">
         <v>1.5</v>
       </c>
-      <c r="U63" s="5">
-        <f t="shared" si="1"/>
+      <c r="W63" s="5">
+        <f t="shared" si="3"/>
         <v>1.5066645999999975E-2</v>
       </c>
-      <c r="V63" s="4">
+      <c r="X63" s="4">
         <v>1.4177343506693725</v>
       </c>
-      <c r="W63" s="4"/>
+      <c r="Y63" s="4"/>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C65" s="4">
+        <f>C4+D4</f>
+        <v>9.8947768996936756E-4</v>
+      </c>
+      <c r="E65" s="4">
+        <f>E4+F4</f>
+        <v>6.3429448425302178E-4</v>
+      </c>
+      <c r="G65" s="4">
+        <f>G4+H4</f>
+        <v>4.5933675378037728E-4</v>
+      </c>
+      <c r="I65" s="4">
+        <f>I4+J4</f>
+        <v>4.2953291236178262E-2</v>
+      </c>
+      <c r="K65" s="4">
+        <f>K4+L4</f>
+        <v>6.3286734549369589E-4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="S2:T2"/>
+  <mergeCells count="10">
     <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -13707,6 +14957,7 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/outputs/V3 Benchmark Results.xlsx
+++ b/outputs/V3 Benchmark Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samlo\Desktop\Thesis\thesis-code\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B88174-8B28-4F19-A78F-A3B7C1C269FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E3484C-594A-4095-B10A-ACE3BC8C9BE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>Time</t>
   </si>
@@ -73,6 +74,12 @@
   </si>
   <si>
     <t>End2End v5</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>New Arch</t>
   </si>
 </sst>
 </file>
@@ -9202,6 +9209,2176 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Multistep Prediction Velocity Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>2.6729795210851939E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6406541029103509E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.415321144895362E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4563665006678715E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4471775587831886E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5107269739170117E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7247498135167377E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8153850135787402E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.14147570507294E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1817619218366447E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5594581135591601E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6145350673609418E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8159564271478949E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8831720855329916E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3263179319433546E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3678666842813033E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0853877353015274E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1353208948995768E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6768009674933772E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6235083422890419E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.2628737152220235E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.2482594508469136E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.2884452909188335E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.2600485606713122E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.9650688450460666E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.9989163862015569E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.3372001404456615E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.4492282395178062E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.5792510478758634E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.5583890645259337E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0342692699060746E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0281297671284228E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0326854800661808E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.024747156356247E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1158344680191097E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1267307629235735E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1824161915765727E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.210041680551747E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2373027572084028E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2635355106504188E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3409124196368447E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3594816188754457E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4832300453963727E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5027286178198273E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5756467983332998E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.6075512476644363E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6360311357326178E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6479175799947381E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7253736093534446E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7580836829974612E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8527092215999498E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.897186564584509E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0078368541702155E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.043215636510505E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.1634827259427239E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2291199055220787E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.3667310030862372E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.4382768894380881E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.6112658104503344E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.6738498245049893E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18A3-4AAB-B8A0-DC43489B70C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>New Architecture</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>5.1694036041101937E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1474026313560237E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2292569043739237E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5052583769911466E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4769635118306348E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1247842201407115E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1369863168994135E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9498074264035324E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0819128199373698E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9235393616585805E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0442982260468072E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.835725860140528E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2954040255324157E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8616627667838599E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7859715795804054E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8493375598014844E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.6733769217635986E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8033995238914297E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1998723652573126E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6944848815526931E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.9841094947589314E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6805726014700174E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9800645466325234E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7407291746484614E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.8758581699995747E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8329804136006029E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1116201877315053E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.8894592850575444E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1790658728213747E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.7717799442071277E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.314122273964528E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.9076041167056643E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.4806637541488482E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.930418064439038E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6212150159286749E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.8621014693920619E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7298611682213916E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.8362181025990574E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.909283962602569E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.8453747089825784E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0076959979828102E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.8332243885111356E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1272325774927155E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.901738684855432E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2621074079938498E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.8630382655575857E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.3416801160858345E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.8196427316866762E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.4539073759140325E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.8666670180755704E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.5915098862918106E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.8604743329069149E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.659423426361467E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.8561052093360861E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.7163867890614386E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.7913657916634881E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.7032718859286271E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.8142075358075024E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.7709590356879289E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.8716694809153811E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-18A3-4AAB-B8A0-DC43489B70C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="600010424"/>
+        <c:axId val="600011080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="600010424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600011080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="600011080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600010424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Multistep Prediction Body Rate Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>2.6729795210851939E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6406541029103509E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.415321144895362E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4563665006678715E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4471775587831886E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5107269739170117E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7247498135167377E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8153850135787402E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.14147570507294E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1817619218366447E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5594581135591601E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6145350673609418E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8159564271478949E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8831720855329916E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3263179319433546E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3678666842813033E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0853877353015274E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1353208948995768E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6768009674933772E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6235083422890419E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.2628737152220235E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.2482594508469136E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.2884452909188335E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.2600485606713122E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.9650688450460666E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.9989163862015569E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.3372001404456615E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.4492282395178062E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.5792510478758634E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.5583890645259337E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0342692699060746E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0281297671284228E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0326854800661808E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.024747156356247E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1158344680191097E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1267307629235735E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1824161915765727E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.210041680551747E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2373027572084028E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2635355106504188E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3409124196368447E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3594816188754457E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4832300453963727E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5027286178198273E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5756467983332998E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.6075512476644363E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6360311357326178E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6479175799947381E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7253736093534446E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7580836829974612E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8527092215999498E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.897186564584509E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0078368541702155E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.043215636510505E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.1634827259427239E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2291199055220787E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.3667310030862372E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.4382768894380881E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.6112658104503344E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.6738498245049893E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06C1-4250-8CE5-650341C9F4D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>New Architecture</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$4:$F$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1.302450297802697E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6325838648205825E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3952181065027278E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8371591610363135E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6287179352188826E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9446659353489584E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6882285233001705E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8055993090061958E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0267396695266202E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7569985127499966E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3134903104755446E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6739681469513865E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.638010747852363E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5881511853542877E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9282951893024049E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5805206956340649E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2238073743822045E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2699549809185266E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3493611854179796E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.1662501797427311E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4880384942244984E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9771818170083894E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5415794836717508E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8444229069741024E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5404138314707172E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7341032308227227E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4989073497318099E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.6888465405340744E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.515586095798931E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.676402901300801E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5281841465956101E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5768616836571789E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4251012598046422E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.5537916786096699E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4898897647737022E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.6920861891341877E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.602915230633371E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.8457814932278791E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7830831357203665E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.0021103575341279E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0560072506192486E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.1147171942824948E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.3304762313027378E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.1600111731172411E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.5066707969894419E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.0737401517990319E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6200328249876951E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.0664905245850135E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7799850810951144E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.1184468851998205E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.88382858004347E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1015204580852194E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.9614749603154602E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.0698673353284998E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.9719301524051081E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.9516946796361996E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.8649637991610449E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.7375365309179407E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.7058867021661094E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.602040599850532E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-06C1-4250-8CE5-650341C9F4D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="600010424"/>
+        <c:axId val="600011080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="600010424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600011080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="600011080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600010424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9243,6 +11420,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10314,6 +12571,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10373,6 +13662,85 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2876D545-772D-4931-9172-B6596CE0C69A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9649165C-6D66-4EE4-AA4A-F7AA17F6E220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3A7B79-7706-4A56-B3D8-EC93FE3F9B1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10658,10 +14026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BT65"/>
+  <dimension ref="B1:BT66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AN23" sqref="AN23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N63" sqref="N63:O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14924,26 +18292,128 @@
       </c>
       <c r="Y63" s="4"/>
     </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C65" s="4">
-        <f>C4+D4</f>
-        <v>9.8947768996936756E-4</v>
+        <f>AVERAGE(C4:C63)</f>
+        <v>5.7997562641468756E-2</v>
+      </c>
+      <c r="D65" s="4">
+        <f>AVERAGE(D4:D63)</f>
+        <v>0.49685819838333339</v>
       </c>
       <c r="E65" s="4">
-        <f>E4+F4</f>
-        <v>6.3429448425302178E-4</v>
+        <f>AVERAGE(E4:E63)</f>
+        <v>7.5820498551248783E-2</v>
+      </c>
+      <c r="F65" s="4">
+        <f>AVERAGE(F4:F63)</f>
+        <v>4.2109425002301526E-2</v>
       </c>
       <c r="G65" s="4">
-        <f>G4+H4</f>
-        <v>4.5933675378037728E-4</v>
+        <f>AVERAGE(G4:G63)</f>
+        <v>3.4816587751930354E-2</v>
+      </c>
+      <c r="H65" s="4">
+        <f>AVERAGE(H4:H63)</f>
+        <v>6.5480598808364918E-2</v>
       </c>
       <c r="I65" s="4">
-        <f>I4+J4</f>
-        <v>4.2953291236178262E-2</v>
+        <f>AVERAGE(I4:I63)</f>
+        <v>3.5970808276432183E-2</v>
+      </c>
+      <c r="J65" s="4">
+        <f>AVERAGE(J4:J63)</f>
+        <v>1.8029964984313106E-2</v>
       </c>
       <c r="K65" s="4">
-        <f>K4+L4</f>
-        <v>6.3286734549369589E-4</v>
+        <f>AVERAGE(K4:K63)</f>
+        <v>6.250699922465007E-2</v>
+      </c>
+      <c r="L65" s="4">
+        <f>AVERAGE(L4:L63)</f>
+        <v>7.2178419102026575E-2</v>
+      </c>
+      <c r="N65" s="4">
+        <f>AVERAGE(N4:N63)</f>
+        <v>1.7772216154885351E-2</v>
+      </c>
+      <c r="O65" s="4">
+        <f>AVERAGE(O4:O63)</f>
+        <v>2.6569268345114631E-2</v>
+      </c>
+      <c r="P65" s="4">
+        <f>AVERAGE(P4:P63)</f>
+        <v>1.2476319687394929E-2</v>
+      </c>
+      <c r="Q65" s="4">
+        <f>AVERAGE(Q4:Q63)</f>
+        <v>3.3995203776250059E-2</v>
+      </c>
+      <c r="R65" s="4">
+        <f>AVERAGE(R4:R63)</f>
+        <v>1.1060537857978328E-2</v>
+      </c>
+      <c r="S65" s="4">
+        <f>AVERAGE(S4:S63)</f>
+        <v>3.7074757469651047E-2</v>
+      </c>
+      <c r="U65" s="4">
+        <f>AVERAGE(U4:U63)</f>
+        <v>0.5515416666666666</v>
+      </c>
+      <c r="V65" s="4">
+        <f>AVERAGE(V4:V63)</f>
+        <v>1.78725</v>
+      </c>
+      <c r="W65" s="4">
+        <f>AVERAGE(W4:W63)</f>
+        <v>1.0187772266666657E-2</v>
+      </c>
+      <c r="X65" s="4">
+        <f>AVERAGE(X4:X63)</f>
+        <v>0.98737920704378157</v>
+      </c>
+    </row>
+    <row r="66" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C66" s="4">
+        <f>C65+D65</f>
+        <v>0.55485576102480216</v>
+      </c>
+      <c r="E66" s="4">
+        <f>E65+F65</f>
+        <v>0.11792992355355031</v>
+      </c>
+      <c r="G66" s="4">
+        <f>G65+H65</f>
+        <v>0.10029718656029527</v>
+      </c>
+      <c r="I66" s="4">
+        <f>I65+J65</f>
+        <v>5.4000773260745288E-2</v>
+      </c>
+      <c r="K66" s="4">
+        <f>K65+L65</f>
+        <v>0.13468541832667663</v>
+      </c>
+      <c r="N66" s="4">
+        <f>N65+O65</f>
+        <v>4.4341484499999986E-2</v>
+      </c>
+      <c r="P66" s="4">
+        <f>P65+Q65</f>
+        <v>4.6471523463644984E-2</v>
+      </c>
+      <c r="R66" s="4">
+        <f>R65+S65</f>
+        <v>4.8135295327629377E-2</v>
+      </c>
+      <c r="U66" s="4">
+        <f>U65+V65</f>
+        <v>2.3387916666666664</v>
+      </c>
+      <c r="W66" s="4">
+        <f>W65+X65</f>
+        <v>0.99756697931044824</v>
       </c>
     </row>
   </sheetData>
@@ -14963,4 +18433,1132 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED8A3D2-8311-4DE7-A50D-B486FC439722}">
+  <dimension ref="B2:BO63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.01</v>
+      </c>
+      <c r="C4">
+        <v>2.6729795210851939E-3</v>
+      </c>
+      <c r="D4">
+        <v>3.1764112908555363E-3</v>
+      </c>
+      <c r="E4">
+        <v>5.1694036041101937E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.302450297802697E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.02</v>
+      </c>
+      <c r="C5">
+        <v>2.6406541029103509E-3</v>
+      </c>
+      <c r="D5">
+        <v>3.4214586049964692E-3</v>
+      </c>
+      <c r="E5">
+        <v>4.1474026313560237E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5.6325838648205825E-2</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+    </row>
+    <row r="6" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.03</v>
+      </c>
+      <c r="C6">
+        <v>2.415321144895362E-3</v>
+      </c>
+      <c r="D6">
+        <v>4.8746644074181911E-3</v>
+      </c>
+      <c r="E6">
+        <v>5.2292569043739237E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.3952181065027278E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.04</v>
+      </c>
+      <c r="C7">
+        <v>2.4563665006678715E-3</v>
+      </c>
+      <c r="D7">
+        <v>5.006891059199884E-3</v>
+      </c>
+      <c r="E7">
+        <v>3.5052583769911466E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5.8371591610363135E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.05</v>
+      </c>
+      <c r="C8">
+        <v>2.4471775587831886E-3</v>
+      </c>
+      <c r="D8">
+        <v>7.0827961992475071E-3</v>
+      </c>
+      <c r="E8">
+        <v>5.4769635118306348E-3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.6287179352188826E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.06</v>
+      </c>
+      <c r="C9">
+        <v>2.5107269739170117E-3</v>
+      </c>
+      <c r="D9">
+        <v>7.5506236025158231E-3</v>
+      </c>
+      <c r="E9">
+        <v>3.1247842201407115E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5.9446659353489584E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C10">
+        <v>2.7247498135167377E-3</v>
+      </c>
+      <c r="D10">
+        <v>1.016781781071149E-2</v>
+      </c>
+      <c r="E10">
+        <v>5.1369863168994135E-3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.6882285233001705E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.08</v>
+      </c>
+      <c r="C11">
+        <v>2.8153850135787402E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.0993753260514022E-2</v>
+      </c>
+      <c r="E11">
+        <v>2.9498074264035324E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5.8055993090061958E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.09</v>
+      </c>
+      <c r="C12">
+        <v>3.14147570507294E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.456324391258219E-2</v>
+      </c>
+      <c r="E12">
+        <v>5.0819128199373698E-3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2.0267396695266202E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13">
+        <v>3.1817619218366447E-3</v>
+      </c>
+      <c r="D13">
+        <v>1.4911479228371983E-2</v>
+      </c>
+      <c r="E13">
+        <v>2.9235393616585805E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5.7569985127499966E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.11</v>
+      </c>
+      <c r="C14">
+        <v>3.5594581135591601E-3</v>
+      </c>
+      <c r="D14">
+        <v>1.7188612238644697E-2</v>
+      </c>
+      <c r="E14">
+        <v>5.0442982260468072E-3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.3134903104755446E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.12</v>
+      </c>
+      <c r="C15">
+        <v>3.6145350673609418E-3</v>
+      </c>
+      <c r="D15">
+        <v>1.7457359610822055E-2</v>
+      </c>
+      <c r="E15">
+        <v>2.835725860140528E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5.6739681469513865E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.13</v>
+      </c>
+      <c r="C16">
+        <v>3.8159564271478949E-3</v>
+      </c>
+      <c r="D16">
+        <v>1.9623172010443207E-2</v>
+      </c>
+      <c r="E16">
+        <v>5.2954040255324157E-3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2.638010747852363E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C17">
+        <v>3.8831720855329916E-3</v>
+      </c>
+      <c r="D17">
+        <v>1.9875923037135076E-2</v>
+      </c>
+      <c r="E17">
+        <v>2.8616627667838599E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5.5881511853542877E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.15</v>
+      </c>
+      <c r="C18">
+        <v>4.3263179319433546E-3</v>
+      </c>
+      <c r="D18">
+        <v>2.1548249508403318E-2</v>
+      </c>
+      <c r="E18">
+        <v>5.7859715795804054E-3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2.9282951893024049E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.16</v>
+      </c>
+      <c r="C19">
+        <v>4.3678666842813033E-3</v>
+      </c>
+      <c r="D19">
+        <v>2.1855689717494103E-2</v>
+      </c>
+      <c r="E19">
+        <v>2.8493375598014844E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5.5805206956340649E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.17</v>
+      </c>
+      <c r="C20">
+        <v>5.0853877353015274E-3</v>
+      </c>
+      <c r="D20">
+        <v>2.6406708691089065E-2</v>
+      </c>
+      <c r="E20">
+        <v>6.6733769217635986E-3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3.2238073743822045E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.18</v>
+      </c>
+      <c r="C21">
+        <v>5.1353208948995768E-3</v>
+      </c>
+      <c r="D21">
+        <v>2.6388957248542424E-2</v>
+      </c>
+      <c r="E21">
+        <v>2.8033995238914297E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5.2699549809185266E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.19</v>
+      </c>
+      <c r="C22">
+        <v>5.6768009674933772E-3</v>
+      </c>
+      <c r="D22">
+        <v>2.6894889066466265E-2</v>
+      </c>
+      <c r="E22">
+        <v>7.1998723652573126E-3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3.3493611854179796E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.2</v>
+      </c>
+      <c r="C23">
+        <v>5.6235083422890419E-3</v>
+      </c>
+      <c r="D23">
+        <v>2.7349547117225158E-2</v>
+      </c>
+      <c r="E23">
+        <v>2.6944848815526931E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5.1662501797427311E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.21</v>
+      </c>
+      <c r="C24">
+        <v>6.2628737152220235E-3</v>
+      </c>
+      <c r="D24">
+        <v>2.9250713437752571E-2</v>
+      </c>
+      <c r="E24">
+        <v>7.9841094947589314E-3</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3.4880384942244984E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0.22</v>
+      </c>
+      <c r="C25">
+        <v>6.2482594508469136E-3</v>
+      </c>
+      <c r="D25">
+        <v>3.0702415538539158E-2</v>
+      </c>
+      <c r="E25">
+        <v>2.6805726014700174E-2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4.9771818170083894E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.23</v>
+      </c>
+      <c r="C26">
+        <v>7.2884452909188335E-3</v>
+      </c>
+      <c r="D26">
+        <v>3.1681888374474353E-2</v>
+      </c>
+      <c r="E26">
+        <v>8.9800645466325234E-3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3.5415794836717508E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.24</v>
+      </c>
+      <c r="C27">
+        <v>7.2600485606713122E-3</v>
+      </c>
+      <c r="D27">
+        <v>3.3546390900541768E-2</v>
+      </c>
+      <c r="E27">
+        <v>2.7407291746484614E-2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4.8444229069741024E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.25</v>
+      </c>
+      <c r="C28">
+        <v>7.9650688450460666E-3</v>
+      </c>
+      <c r="D28">
+        <v>3.4295576772485327E-2</v>
+      </c>
+      <c r="E28">
+        <v>9.8758581699995747E-3</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3.5404138314707172E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.26</v>
+      </c>
+      <c r="C29">
+        <v>7.9989163862015569E-3</v>
+      </c>
+      <c r="D29">
+        <v>3.60413589483186E-2</v>
+      </c>
+      <c r="E29">
+        <v>2.8329804136006029E-2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4.7341032308227227E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0.27</v>
+      </c>
+      <c r="C30">
+        <v>8.3372001404456615E-3</v>
+      </c>
+      <c r="D30">
+        <v>3.7289254036248352E-2</v>
+      </c>
+      <c r="E30">
+        <v>1.1116201877315053E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3.4989073497318099E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C31">
+        <v>8.4492282395178062E-3</v>
+      </c>
+      <c r="D31">
+        <v>3.9189359022925391E-2</v>
+      </c>
+      <c r="E31">
+        <v>2.8894592850575444E-2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>4.6888465405340744E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C32">
+        <v>9.5792510478758634E-3</v>
+      </c>
+      <c r="D32">
+        <v>3.8225306077315439E-2</v>
+      </c>
+      <c r="E32">
+        <v>1.1790658728213747E-2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3.515586095798931E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.3</v>
+      </c>
+      <c r="C33">
+        <v>9.5583890645259337E-3</v>
+      </c>
+      <c r="D33">
+        <v>3.9551019228094474E-2</v>
+      </c>
+      <c r="E33">
+        <v>2.7717799442071277E-2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4.676402901300801E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.31</v>
+      </c>
+      <c r="C34">
+        <v>1.0342692699060746E-2</v>
+      </c>
+      <c r="D34">
+        <v>4.050777849519957E-2</v>
+      </c>
+      <c r="E34">
+        <v>1.314122273964528E-2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3.5281841465956101E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.32</v>
+      </c>
+      <c r="C35">
+        <v>1.0281297671284228E-2</v>
+      </c>
+      <c r="D35">
+        <v>4.2952449098280887E-2</v>
+      </c>
+      <c r="E35">
+        <v>2.9076041167056643E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4.5768616836571789E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0.33</v>
+      </c>
+      <c r="C36">
+        <v>1.0326854800661808E-2</v>
+      </c>
+      <c r="D36">
+        <v>4.6357270997175543E-2</v>
+      </c>
+      <c r="E36">
+        <v>1.4806637541488482E-2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3.4251012598046422E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.34</v>
+      </c>
+      <c r="C37">
+        <v>1.024747156356247E-2</v>
+      </c>
+      <c r="D37">
+        <v>4.841930279018599E-2</v>
+      </c>
+      <c r="E37">
+        <v>2.930418064439038E-2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>4.5537916786096699E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.35</v>
+      </c>
+      <c r="C38">
+        <v>1.1158344680191097E-2</v>
+      </c>
+      <c r="D38">
+        <v>4.7796430113091225E-2</v>
+      </c>
+      <c r="E38">
+        <v>1.6212150159286749E-2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3.4898897647737022E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0.36</v>
+      </c>
+      <c r="C39">
+        <v>1.1267307629235735E-2</v>
+      </c>
+      <c r="D39">
+        <v>4.8832226552990632E-2</v>
+      </c>
+      <c r="E39">
+        <v>2.8621014693920619E-2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>4.6920861891341877E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0.37</v>
+      </c>
+      <c r="C40">
+        <v>1.1824161915765727E-2</v>
+      </c>
+      <c r="D40">
+        <v>5.0506490005720245E-2</v>
+      </c>
+      <c r="E40">
+        <v>1.7298611682213916E-2</v>
+      </c>
+      <c r="F40" s="3">
+        <v>3.602915230633371E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.38</v>
+      </c>
+      <c r="C41">
+        <v>1.210041680551747E-2</v>
+      </c>
+      <c r="D41">
+        <v>5.4054520809001319E-2</v>
+      </c>
+      <c r="E41">
+        <v>2.8362181025990574E-2</v>
+      </c>
+      <c r="F41" s="3">
+        <v>4.8457814932278791E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.39</v>
+      </c>
+      <c r="C42">
+        <v>1.2373027572084028E-2</v>
+      </c>
+      <c r="D42">
+        <v>5.6311199502530281E-2</v>
+      </c>
+      <c r="E42">
+        <v>1.909283962602569E-2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3.7830831357203665E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0.4</v>
+      </c>
+      <c r="C43">
+        <v>1.2635355106504188E-2</v>
+      </c>
+      <c r="D43">
+        <v>5.9282118517275155E-2</v>
+      </c>
+      <c r="E43">
+        <v>2.8453747089825784E-2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5.0021103575341279E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0.41</v>
+      </c>
+      <c r="C44">
+        <v>1.3409124196368447E-2</v>
+      </c>
+      <c r="D44">
+        <v>5.9405262517394593E-2</v>
+      </c>
+      <c r="E44">
+        <v>2.0076959979828102E-2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4.0560072506192486E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0.42</v>
+      </c>
+      <c r="C45">
+        <v>1.3594816188754457E-2</v>
+      </c>
+      <c r="D45">
+        <v>6.1618153491101675E-2</v>
+      </c>
+      <c r="E45">
+        <v>2.8332243885111356E-2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5.1147171942824948E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0.43</v>
+      </c>
+      <c r="C46">
+        <v>1.4832300453963727E-2</v>
+      </c>
+      <c r="D46">
+        <v>6.1437257639124415E-2</v>
+      </c>
+      <c r="E46">
+        <v>2.1272325774927155E-2</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4.3304762313027378E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0.44</v>
+      </c>
+      <c r="C47">
+        <v>1.5027286178198273E-2</v>
+      </c>
+      <c r="D47">
+        <v>6.2217215140563761E-2</v>
+      </c>
+      <c r="E47">
+        <v>2.901738684855432E-2</v>
+      </c>
+      <c r="F47" s="3">
+        <v>5.1600111731172411E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0.45</v>
+      </c>
+      <c r="C48">
+        <v>1.5756467983332998E-2</v>
+      </c>
+      <c r="D48">
+        <v>6.4997532772818639E-2</v>
+      </c>
+      <c r="E48">
+        <v>2.2621074079938498E-2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4.5066707969894419E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0.46</v>
+      </c>
+      <c r="C49">
+        <v>1.6075512476644363E-2</v>
+      </c>
+      <c r="D49">
+        <v>6.5095767455547515E-2</v>
+      </c>
+      <c r="E49">
+        <v>2.8630382655575857E-2</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5.0737401517990319E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0.47</v>
+      </c>
+      <c r="C50">
+        <v>1.6360311357326178E-2</v>
+      </c>
+      <c r="D50">
+        <v>6.5500172809567173E-2</v>
+      </c>
+      <c r="E50">
+        <v>2.3416801160858345E-2</v>
+      </c>
+      <c r="F50" s="3">
+        <v>4.6200328249876951E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0.48</v>
+      </c>
+      <c r="C51">
+        <v>1.6479175799947381E-2</v>
+      </c>
+      <c r="D51">
+        <v>6.4302874103567123E-2</v>
+      </c>
+      <c r="E51">
+        <v>2.8196427316866762E-2</v>
+      </c>
+      <c r="F51" s="3">
+        <v>5.0664905245850135E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0.49</v>
+      </c>
+      <c r="C52">
+        <v>1.7253736093534446E-2</v>
+      </c>
+      <c r="D52">
+        <v>6.4861097366303397E-2</v>
+      </c>
+      <c r="E52">
+        <v>2.4539073759140325E-2</v>
+      </c>
+      <c r="F52" s="3">
+        <v>4.7799850810951144E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0.5</v>
+      </c>
+      <c r="C53">
+        <v>1.7580836829974612E-2</v>
+      </c>
+      <c r="D53">
+        <v>6.272901123214597E-2</v>
+      </c>
+      <c r="E53">
+        <v>2.8666670180755704E-2</v>
+      </c>
+      <c r="F53" s="3">
+        <v>5.1184468851998205E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0.51</v>
+      </c>
+      <c r="C54">
+        <v>1.8527092215999498E-2</v>
+      </c>
+      <c r="D54">
+        <v>6.4721215178608682E-2</v>
+      </c>
+      <c r="E54">
+        <v>2.5915098862918106E-2</v>
+      </c>
+      <c r="F54" s="3">
+        <v>4.88382858004347E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0.52</v>
+      </c>
+      <c r="C55">
+        <v>1.897186564584509E-2</v>
+      </c>
+      <c r="D55">
+        <v>6.3952197466749114E-2</v>
+      </c>
+      <c r="E55">
+        <v>2.8604743329069149E-2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>5.1015204580852194E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0.53</v>
+      </c>
+      <c r="C56">
+        <v>2.0078368541702155E-2</v>
+      </c>
+      <c r="D56">
+        <v>6.4087289498056324E-2</v>
+      </c>
+      <c r="E56">
+        <v>2.659423426361467E-2</v>
+      </c>
+      <c r="F56" s="3">
+        <v>4.9614749603154602E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0.54</v>
+      </c>
+      <c r="C57">
+        <v>2.043215636510505E-2</v>
+      </c>
+      <c r="D57">
+        <v>6.3096524791180733E-2</v>
+      </c>
+      <c r="E57">
+        <v>2.8561052093360861E-2</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5.0698673353284998E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C58">
+        <v>2.1634827259427239E-2</v>
+      </c>
+      <c r="D58">
+        <v>6.0654604774021237E-2</v>
+      </c>
+      <c r="E58">
+        <v>2.7163867890614386E-2</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4.9719301524051081E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C59">
+        <v>2.2291199055220787E-2</v>
+      </c>
+      <c r="D59">
+        <v>6.0361925313216526E-2</v>
+      </c>
+      <c r="E59">
+        <v>2.7913657916634881E-2</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4.9516946796361996E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C60">
+        <v>2.3667310030862372E-2</v>
+      </c>
+      <c r="D60">
+        <v>5.7251654430439898E-2</v>
+      </c>
+      <c r="E60">
+        <v>2.7032718859286271E-2</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4.8649637991610449E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C61">
+        <v>2.4382768894380881E-2</v>
+      </c>
+      <c r="D61">
+        <v>5.7652816312552861E-2</v>
+      </c>
+      <c r="E61">
+        <v>2.8142075358075024E-2</v>
+      </c>
+      <c r="F61" s="3">
+        <v>4.7375365309179407E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0.59</v>
+      </c>
+      <c r="C62">
+        <v>2.6112658104503344E-2</v>
+      </c>
+      <c r="D62">
+        <v>5.7692730533052218E-2</v>
+      </c>
+      <c r="E62">
+        <v>2.7709590356879289E-2</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4.7058867021661094E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0.6</v>
+      </c>
+      <c r="C63">
+        <v>2.6738498245049893E-2</v>
+      </c>
+      <c r="D63">
+        <v>5.9012000917971506E-2</v>
+      </c>
+      <c r="E63">
+        <v>2.8716694809153811E-2</v>
+      </c>
+      <c r="F63" s="3">
+        <v>4.602040599850532E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>